--- a/TF.Module/DatabaseUpdate/TF.xlsx
+++ b/TF.Module/DatabaseUpdate/TF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirko\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820C5B52-41BA-461B-8E43-B2A347EB7398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BCA2D1-21E8-4537-9892-E126E1A6DEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{802C2848-CF66-C14E-8907-0699AA2D98C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{802C2848-CF66-C14E-8907-0699AA2D98C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Mechanisms" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="1109">
   <si>
     <t>Code</t>
   </si>
@@ -836,9 +836,6 @@
     <t>Does the AC system provide policy source authorization?</t>
   </si>
   <si>
-    <t>S.AAA.D1 = S.SAA.D6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Provision of an ISMS </t>
   </si>
   <si>
@@ -905,9 +902,6 @@
     <t xml:space="preserve">Change control/incident tickets present  </t>
   </si>
   <si>
-    <t>S.SAA.O7 = S.SAA.O3</t>
-  </si>
-  <si>
     <t>Efficacy of controls deployed</t>
   </si>
   <si>
@@ -1116,9 +1110,6 @@
   </si>
   <si>
     <t xml:space="preserve">Technical multi-layer controls deployed </t>
-  </si>
-  <si>
-    <t>S.ESL.O3 = S.SAA.O3</t>
   </si>
   <si>
     <t>S.DD.D1</t>
@@ -3396,6 +3387,12 @@
   </si>
   <si>
     <t>P.SU.D4</t>
+  </si>
+  <si>
+    <t>S.AAA.D1</t>
+  </si>
+  <si>
+    <t>S.ESL.O3</t>
   </si>
 </sst>
 </file>
@@ -3767,8 +3764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81902B2-D680-544E-8D15-2C5362A2301D}">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4171,7 +4168,7 @@
         <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C17" t="s">
         <v>108</v>
@@ -4822,8 +4819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9E030-DC72-1242-8D47-8AB6D70A0A27}">
   <dimension ref="A1:L473"/>
   <sheetViews>
-    <sheetView topLeftCell="A437" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C405" sqref="C405"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5693,21 +5690,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" t="s">
         <v>258</v>
-      </c>
-      <c r="D42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" t="s">
-        <v>259</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -5715,19 +5712,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
       <c r="C43" t="s">
+        <v>259</v>
+      </c>
+      <c r="D43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" t="s">
         <v>260</v>
-      </c>
-      <c r="D43" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" t="s">
-        <v>261</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -5735,19 +5732,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
         <v>41</v>
       </c>
       <c r="C44" t="s">
+        <v>261</v>
+      </c>
+      <c r="D44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" t="s">
         <v>262</v>
-      </c>
-      <c r="D44" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" t="s">
-        <v>263</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -5755,19 +5752,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
         <v>41</v>
       </c>
       <c r="C45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" t="s">
         <v>264</v>
-      </c>
-      <c r="D45" t="s">
-        <v>74</v>
-      </c>
-      <c r="E45" t="s">
-        <v>265</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -5775,19 +5772,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
         <v>41</v>
       </c>
       <c r="C46" t="s">
+        <v>265</v>
+      </c>
+      <c r="D46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" t="s">
         <v>266</v>
-      </c>
-      <c r="D46" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" t="s">
-        <v>267</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -5795,19 +5792,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
         <v>41</v>
       </c>
       <c r="C47" t="s">
+        <v>267</v>
+      </c>
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" t="s">
         <v>268</v>
-      </c>
-      <c r="D47" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47" t="s">
-        <v>269</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -5815,19 +5812,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
         <v>41</v>
       </c>
       <c r="C48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" t="s">
         <v>270</v>
-      </c>
-      <c r="D48" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" t="s">
-        <v>271</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -5835,19 +5832,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
         <v>41</v>
       </c>
       <c r="C49" t="s">
+        <v>271</v>
+      </c>
+      <c r="D49" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" t="s">
         <v>272</v>
-      </c>
-      <c r="D49" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" t="s">
-        <v>273</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -5855,19 +5852,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
         <v>41</v>
       </c>
       <c r="C50" t="s">
+        <v>273</v>
+      </c>
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" t="s">
         <v>274</v>
-      </c>
-      <c r="D50" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" t="s">
-        <v>275</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5875,19 +5872,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
         <v>41</v>
       </c>
       <c r="C51" t="s">
+        <v>275</v>
+      </c>
+      <c r="D51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" t="s">
         <v>276</v>
-      </c>
-      <c r="D51" t="s">
-        <v>74</v>
-      </c>
-      <c r="E51" t="s">
-        <v>277</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5895,7 +5892,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
         <v>48</v>
@@ -5915,7 +5912,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
         <v>48</v>
@@ -5927,7 +5924,7 @@
         <v>74</v>
       </c>
       <c r="E53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5935,39 +5932,39 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B54" t="s">
         <v>48</v>
       </c>
       <c r="C54" t="s">
+        <v>278</v>
+      </c>
+      <c r="D54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" t="s">
         <v>279</v>
       </c>
-      <c r="D54" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" t="s">
-        <v>280</v>
-      </c>
       <c r="G54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="D55" t="s">
         <v>75</v>
       </c>
       <c r="E55" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F55" t="s">
         <v>243</v>
@@ -5978,7 +5975,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
         <v>48</v>
@@ -5990,7 +5987,7 @@
         <v>74</v>
       </c>
       <c r="E56" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5998,7 +5995,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B57" t="s">
         <v>48</v>
@@ -6010,10 +6007,10 @@
         <v>75</v>
       </c>
       <c r="E57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F57" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -6021,7 +6018,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
         <v>48</v>
@@ -6033,10 +6030,10 @@
         <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F58" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -6044,19 +6041,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
         <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D59" t="s">
         <v>75</v>
       </c>
       <c r="E59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F59" t="s">
         <v>238</v>
@@ -6067,19 +6064,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B60" t="s">
         <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D60" t="s">
         <v>74</v>
       </c>
       <c r="E60" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -6087,19 +6084,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B61" t="s">
         <v>48</v>
       </c>
       <c r="C61" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D61" t="s">
         <v>74</v>
       </c>
       <c r="E61" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6107,19 +6104,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
         <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D62" t="s">
         <v>74</v>
       </c>
       <c r="E62" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -6127,19 +6124,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B63" t="s">
         <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D63" t="s">
         <v>74</v>
       </c>
       <c r="E63" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6147,19 +6144,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
         <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D64" t="s">
         <v>74</v>
       </c>
       <c r="E64" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -6173,13 +6170,13 @@
         <v>41</v>
       </c>
       <c r="C65" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D65" t="s">
         <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6193,13 +6190,13 @@
         <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D66" t="s">
         <v>74</v>
       </c>
       <c r="E66" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6213,13 +6210,13 @@
         <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D67" t="s">
         <v>74</v>
       </c>
       <c r="E67" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6233,13 +6230,13 @@
         <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D68" t="s">
         <v>74</v>
       </c>
       <c r="E68" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6253,13 +6250,13 @@
         <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D69" t="s">
         <v>74</v>
       </c>
       <c r="E69" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6273,13 +6270,13 @@
         <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D70" t="s">
         <v>74</v>
       </c>
       <c r="E70" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6293,13 +6290,13 @@
         <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D71" t="s">
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6313,13 +6310,13 @@
         <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D72" t="s">
         <v>74</v>
       </c>
       <c r="E72" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6333,13 +6330,13 @@
         <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D73" t="s">
         <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6353,13 +6350,13 @@
         <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D74" t="s">
         <v>74</v>
       </c>
       <c r="E74" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6373,13 +6370,13 @@
         <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D75" t="s">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6393,13 +6390,13 @@
         <v>41</v>
       </c>
       <c r="C76" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D76" t="s">
         <v>74</v>
       </c>
       <c r="E76" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6413,13 +6410,13 @@
         <v>41</v>
       </c>
       <c r="C77" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D77" t="s">
         <v>74</v>
       </c>
       <c r="E77" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -6433,13 +6430,13 @@
         <v>41</v>
       </c>
       <c r="C78" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D78" t="s">
         <v>74</v>
       </c>
       <c r="E78" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -6453,13 +6450,13 @@
         <v>41</v>
       </c>
       <c r="C79" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D79" t="s">
         <v>74</v>
       </c>
       <c r="E79" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -6473,13 +6470,13 @@
         <v>41</v>
       </c>
       <c r="C80" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D80" t="s">
         <v>74</v>
       </c>
       <c r="E80" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -6493,13 +6490,13 @@
         <v>41</v>
       </c>
       <c r="C81" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D81" t="s">
         <v>74</v>
       </c>
       <c r="E81" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -6513,13 +6510,13 @@
         <v>48</v>
       </c>
       <c r="C82" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D82" t="s">
         <v>74</v>
       </c>
       <c r="E82" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -6533,13 +6530,13 @@
         <v>48</v>
       </c>
       <c r="C83" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D83" t="s">
         <v>74</v>
       </c>
       <c r="E83" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -6553,13 +6550,13 @@
         <v>48</v>
       </c>
       <c r="C84" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D84" t="s">
         <v>74</v>
       </c>
       <c r="E84" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -6573,13 +6570,13 @@
         <v>48</v>
       </c>
       <c r="C85" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D85" t="s">
         <v>74</v>
       </c>
       <c r="E85" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -6593,13 +6590,13 @@
         <v>48</v>
       </c>
       <c r="C86" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D86" t="s">
         <v>74</v>
       </c>
       <c r="E86" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -6613,13 +6610,13 @@
         <v>41</v>
       </c>
       <c r="C87" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D87" t="s">
         <v>74</v>
       </c>
       <c r="E87" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -6633,13 +6630,13 @@
         <v>41</v>
       </c>
       <c r="C88" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D88" t="s">
         <v>74</v>
       </c>
       <c r="E88" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -6653,13 +6650,13 @@
         <v>48</v>
       </c>
       <c r="C89" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D89" t="s">
         <v>74</v>
       </c>
       <c r="E89" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -6673,19 +6670,19 @@
         <v>48</v>
       </c>
       <c r="C90" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D90" t="s">
         <v>74</v>
       </c>
       <c r="E90" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>27</v>
       </c>
@@ -6693,13 +6690,13 @@
         <v>48</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>352</v>
+        <v>1108</v>
       </c>
       <c r="D91" t="s">
         <v>75</v>
       </c>
       <c r="E91" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F91" t="s">
         <v>238</v>
@@ -6716,13 +6713,13 @@
         <v>41</v>
       </c>
       <c r="C92" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D92" t="s">
         <v>74</v>
       </c>
       <c r="E92" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -6736,13 +6733,13 @@
         <v>41</v>
       </c>
       <c r="C93" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D93" t="s">
         <v>74</v>
       </c>
       <c r="E93" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -6756,13 +6753,13 @@
         <v>41</v>
       </c>
       <c r="C94" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D94" t="s">
         <v>74</v>
       </c>
       <c r="E94" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -6776,13 +6773,13 @@
         <v>48</v>
       </c>
       <c r="C95" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D95" t="s">
         <v>74</v>
       </c>
       <c r="E95" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -6796,13 +6793,13 @@
         <v>48</v>
       </c>
       <c r="C96" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D96" t="s">
         <v>74</v>
       </c>
       <c r="E96" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -6816,13 +6813,13 @@
         <v>48</v>
       </c>
       <c r="C97" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D97" t="s">
         <v>74</v>
       </c>
       <c r="E97" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -6836,13 +6833,13 @@
         <v>41</v>
       </c>
       <c r="C98" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D98" t="s">
         <v>74</v>
       </c>
       <c r="E98" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -6856,13 +6853,13 @@
         <v>41</v>
       </c>
       <c r="C99" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D99" t="s">
         <v>74</v>
       </c>
       <c r="E99" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -6876,13 +6873,13 @@
         <v>41</v>
       </c>
       <c r="C100" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D100" t="s">
         <v>74</v>
       </c>
       <c r="E100" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -6896,13 +6893,13 @@
         <v>41</v>
       </c>
       <c r="C101" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D101" t="s">
         <v>74</v>
       </c>
       <c r="E101" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -6916,13 +6913,13 @@
         <v>48</v>
       </c>
       <c r="C102" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D102" t="s">
         <v>74</v>
       </c>
       <c r="E102" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -6936,13 +6933,13 @@
         <v>48</v>
       </c>
       <c r="C103" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D103" t="s">
         <v>74</v>
       </c>
       <c r="E103" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -6956,13 +6953,13 @@
         <v>48</v>
       </c>
       <c r="C104" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D104" t="s">
         <v>74</v>
       </c>
       <c r="E104" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -6976,13 +6973,13 @@
         <v>48</v>
       </c>
       <c r="C105" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D105" t="s">
         <v>74</v>
       </c>
       <c r="E105" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -6996,13 +6993,13 @@
         <v>41</v>
       </c>
       <c r="C106" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D106" t="s">
         <v>74</v>
       </c>
       <c r="E106" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -7016,13 +7013,13 @@
         <v>41</v>
       </c>
       <c r="C107" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D107" t="s">
         <v>74</v>
       </c>
       <c r="E107" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -7036,13 +7033,13 @@
         <v>41</v>
       </c>
       <c r="C108" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D108" t="s">
         <v>74</v>
       </c>
       <c r="E108" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -7056,13 +7053,13 @@
         <v>48</v>
       </c>
       <c r="C109" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D109" t="s">
         <v>75</v>
       </c>
       <c r="E109" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F109" t="s">
         <v>238</v>
@@ -7079,13 +7076,13 @@
         <v>48</v>
       </c>
       <c r="C110" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D110" t="s">
         <v>75</v>
       </c>
       <c r="E110" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F110" t="s">
         <v>238</v>
@@ -7102,13 +7099,13 @@
         <v>48</v>
       </c>
       <c r="C111" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D111" t="s">
         <v>74</v>
       </c>
       <c r="E111" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -7122,13 +7119,13 @@
         <v>48</v>
       </c>
       <c r="C112" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D112" t="s">
         <v>74</v>
       </c>
       <c r="E112" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -7142,13 +7139,13 @@
         <v>48</v>
       </c>
       <c r="C113" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D113" t="s">
         <v>74</v>
       </c>
       <c r="E113" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -7162,13 +7159,13 @@
         <v>48</v>
       </c>
       <c r="C114" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D114" t="s">
         <v>74</v>
       </c>
       <c r="E114" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -7182,13 +7179,13 @@
         <v>48</v>
       </c>
       <c r="C115" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D115" t="s">
         <v>74</v>
       </c>
       <c r="E115" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -7202,13 +7199,13 @@
         <v>48</v>
       </c>
       <c r="C116" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D116" t="s">
         <v>74</v>
       </c>
       <c r="E116" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -7222,13 +7219,13 @@
         <v>48</v>
       </c>
       <c r="C117" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D117" t="s">
         <v>74</v>
       </c>
       <c r="E117" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -7242,13 +7239,13 @@
         <v>48</v>
       </c>
       <c r="C118" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D118" t="s">
         <v>74</v>
       </c>
       <c r="E118" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -7262,13 +7259,13 @@
         <v>41</v>
       </c>
       <c r="C119" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D119" t="s">
         <v>74</v>
       </c>
       <c r="E119" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -7282,13 +7279,13 @@
         <v>41</v>
       </c>
       <c r="C120" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D120" t="s">
         <v>74</v>
       </c>
       <c r="E120" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -7302,13 +7299,13 @@
         <v>41</v>
       </c>
       <c r="C121" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D121" t="s">
         <v>74</v>
       </c>
       <c r="E121" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -7322,13 +7319,13 @@
         <v>41</v>
       </c>
       <c r="C122" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D122" t="s">
         <v>74</v>
       </c>
       <c r="E122" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -7342,13 +7339,13 @@
         <v>48</v>
       </c>
       <c r="C123" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D123" t="s">
         <v>74</v>
       </c>
       <c r="E123" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -7362,13 +7359,13 @@
         <v>48</v>
       </c>
       <c r="C124" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D124" t="s">
         <v>74</v>
       </c>
       <c r="E124" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -7382,13 +7379,13 @@
         <v>48</v>
       </c>
       <c r="C125" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D125" t="s">
         <v>75</v>
       </c>
       <c r="E125" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -7402,13 +7399,13 @@
         <v>48</v>
       </c>
       <c r="C126" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D126" t="s">
         <v>75</v>
       </c>
       <c r="E126" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F126" t="s">
         <v>238</v>
@@ -7425,13 +7422,13 @@
         <v>48</v>
       </c>
       <c r="C127" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D127" t="s">
         <v>75</v>
       </c>
       <c r="E127" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F127" t="s">
         <v>238</v>
@@ -7448,13 +7445,13 @@
         <v>48</v>
       </c>
       <c r="C128" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D128" t="s">
         <v>75</v>
       </c>
       <c r="E128" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F128" t="s">
         <v>238</v>
@@ -7471,13 +7468,13 @@
         <v>48</v>
       </c>
       <c r="C129" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D129" t="s">
         <v>75</v>
       </c>
       <c r="E129" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F129" t="s">
         <v>238</v>
@@ -7494,13 +7491,13 @@
         <v>41</v>
       </c>
       <c r="C130" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D130" t="s">
         <v>74</v>
       </c>
       <c r="E130" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -7514,13 +7511,13 @@
         <v>41</v>
       </c>
       <c r="C131" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D131" t="s">
         <v>74</v>
       </c>
       <c r="E131" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -7534,13 +7531,13 @@
         <v>41</v>
       </c>
       <c r="C132" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D132" t="s">
         <v>74</v>
       </c>
       <c r="E132" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -7554,13 +7551,13 @@
         <v>41</v>
       </c>
       <c r="C133" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D133" t="s">
         <v>74</v>
       </c>
       <c r="E133" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -7574,13 +7571,13 @@
         <v>41</v>
       </c>
       <c r="C134" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D134" t="s">
         <v>74</v>
       </c>
       <c r="E134" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -7594,13 +7591,13 @@
         <v>41</v>
       </c>
       <c r="C135" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D135" t="s">
         <v>74</v>
       </c>
       <c r="E135" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -7614,13 +7611,13 @@
         <v>41</v>
       </c>
       <c r="C136" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D136" t="s">
         <v>74</v>
       </c>
       <c r="E136" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -7634,13 +7631,13 @@
         <v>41</v>
       </c>
       <c r="C137" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D137" t="s">
         <v>74</v>
       </c>
       <c r="E137" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -7654,13 +7651,13 @@
         <v>41</v>
       </c>
       <c r="C138" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D138" t="s">
         <v>74</v>
       </c>
       <c r="E138" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -7674,13 +7671,13 @@
         <v>41</v>
       </c>
       <c r="C139" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D139" t="s">
         <v>74</v>
       </c>
       <c r="E139" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -7694,13 +7691,13 @@
         <v>41</v>
       </c>
       <c r="C140" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D140" t="s">
         <v>74</v>
       </c>
       <c r="E140" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -7714,13 +7711,13 @@
         <v>48</v>
       </c>
       <c r="C141" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D141" t="s">
         <v>74</v>
       </c>
       <c r="E141" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -7734,13 +7731,13 @@
         <v>48</v>
       </c>
       <c r="C142" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D142" t="s">
         <v>74</v>
       </c>
       <c r="E142" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -7754,13 +7751,13 @@
         <v>48</v>
       </c>
       <c r="C143" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D143" t="s">
         <v>74</v>
       </c>
       <c r="E143" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -7774,13 +7771,13 @@
         <v>48</v>
       </c>
       <c r="C144" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D144" t="s">
         <v>74</v>
       </c>
       <c r="E144" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -7794,13 +7791,13 @@
         <v>48</v>
       </c>
       <c r="C145" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D145" t="s">
         <v>74</v>
       </c>
       <c r="E145" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -7814,13 +7811,13 @@
         <v>48</v>
       </c>
       <c r="C146" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D146" t="s">
         <v>74</v>
       </c>
       <c r="E146" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -7834,13 +7831,13 @@
         <v>48</v>
       </c>
       <c r="C147" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D147" t="s">
         <v>74</v>
       </c>
       <c r="E147" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -7854,13 +7851,13 @@
         <v>48</v>
       </c>
       <c r="C148" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D148" t="s">
         <v>74</v>
       </c>
       <c r="E148" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -7874,13 +7871,13 @@
         <v>41</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D149" t="s">
         <v>74</v>
       </c>
       <c r="E149" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -7894,13 +7891,13 @@
         <v>41</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D150" t="s">
         <v>74</v>
       </c>
       <c r="E150" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -7914,13 +7911,13 @@
         <v>41</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D151" t="s">
         <v>74</v>
       </c>
       <c r="E151" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -7934,13 +7931,13 @@
         <v>41</v>
       </c>
       <c r="C152" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D152" t="s">
         <v>74</v>
       </c>
       <c r="E152" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -7954,13 +7951,13 @@
         <v>48</v>
       </c>
       <c r="C153" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D153" t="s">
         <v>74</v>
       </c>
       <c r="E153" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -7974,13 +7971,13 @@
         <v>48</v>
       </c>
       <c r="C154" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D154" t="s">
         <v>74</v>
       </c>
       <c r="E154" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -7994,13 +7991,13 @@
         <v>48</v>
       </c>
       <c r="C155" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D155" t="s">
         <v>74</v>
       </c>
       <c r="E155" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -8014,13 +8011,13 @@
         <v>48</v>
       </c>
       <c r="C156" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D156" t="s">
         <v>74</v>
       </c>
       <c r="E156" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -8034,13 +8031,13 @@
         <v>41</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="D157" t="s">
         <v>75</v>
       </c>
       <c r="E157" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F157" t="s">
         <v>238</v>
@@ -8057,13 +8054,13 @@
         <v>41</v>
       </c>
       <c r="C158" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D158" t="s">
         <v>74</v>
       </c>
       <c r="E158" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -8077,13 +8074,13 @@
         <v>41</v>
       </c>
       <c r="C159" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D159" t="s">
         <v>74</v>
       </c>
       <c r="E159" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -8097,13 +8094,13 @@
         <v>41</v>
       </c>
       <c r="C160" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D160" t="s">
         <v>74</v>
       </c>
       <c r="E160" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -8117,13 +8114,13 @@
         <v>48</v>
       </c>
       <c r="C161" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D161" t="s">
         <v>75</v>
       </c>
       <c r="E161" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F161" t="s">
         <v>238</v>
@@ -8140,13 +8137,13 @@
         <v>48</v>
       </c>
       <c r="C162" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D162" t="s">
         <v>74</v>
       </c>
       <c r="E162" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -8160,13 +8157,13 @@
         <v>48</v>
       </c>
       <c r="C163" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D163" t="s">
         <v>75</v>
       </c>
       <c r="E163" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F163" t="s">
         <v>238</v>
@@ -8183,16 +8180,16 @@
         <v>48</v>
       </c>
       <c r="C164" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D164" t="s">
         <v>75</v>
       </c>
       <c r="E164" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F164" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -8206,16 +8203,16 @@
         <v>48</v>
       </c>
       <c r="C165" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D165" t="s">
         <v>75</v>
       </c>
       <c r="E165" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F165" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -8229,13 +8226,13 @@
         <v>48</v>
       </c>
       <c r="C166" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D166" t="s">
         <v>75</v>
       </c>
       <c r="E166" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F166" t="s">
         <v>238</v>
@@ -8252,13 +8249,13 @@
         <v>48</v>
       </c>
       <c r="C167" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D167" t="s">
         <v>74</v>
       </c>
       <c r="E167" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -8272,13 +8269,13 @@
         <v>41</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D168" t="s">
         <v>74</v>
       </c>
       <c r="E168" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -8292,13 +8289,13 @@
         <v>41</v>
       </c>
       <c r="C169" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D169" t="s">
         <v>75</v>
       </c>
       <c r="E169" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F169" t="s">
         <v>238</v>
@@ -8315,13 +8312,13 @@
         <v>41</v>
       </c>
       <c r="C170" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D170" t="s">
         <v>74</v>
       </c>
       <c r="E170" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -8335,13 +8332,13 @@
         <v>41</v>
       </c>
       <c r="C171" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D171" t="s">
         <v>74</v>
       </c>
       <c r="E171" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -8355,13 +8352,13 @@
         <v>41</v>
       </c>
       <c r="C172" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D172" t="s">
         <v>74</v>
       </c>
       <c r="E172" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -8375,13 +8372,13 @@
         <v>41</v>
       </c>
       <c r="C173" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D173" t="s">
         <v>74</v>
       </c>
       <c r="E173" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -8395,13 +8392,13 @@
         <v>41</v>
       </c>
       <c r="C174" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D174" t="s">
         <v>74</v>
       </c>
       <c r="E174" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -8415,13 +8412,13 @@
         <v>41</v>
       </c>
       <c r="C175" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D175" t="s">
         <v>74</v>
       </c>
       <c r="E175" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -8435,13 +8432,13 @@
         <v>41</v>
       </c>
       <c r="C176" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D176" t="s">
         <v>74</v>
       </c>
       <c r="E176" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -8455,13 +8452,13 @@
         <v>41</v>
       </c>
       <c r="C177" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D177" t="s">
         <v>74</v>
       </c>
       <c r="E177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -8475,13 +8472,13 @@
         <v>48</v>
       </c>
       <c r="C178" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D178" t="s">
         <v>74</v>
       </c>
       <c r="E178" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -8495,13 +8492,13 @@
         <v>48</v>
       </c>
       <c r="C179" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D179" t="s">
         <v>75</v>
       </c>
       <c r="E179" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F179" t="s">
         <v>238</v>
@@ -8518,13 +8515,13 @@
         <v>48</v>
       </c>
       <c r="C180" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D180" t="s">
         <v>75</v>
       </c>
       <c r="E180" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F180" t="s">
         <v>238</v>
@@ -8541,13 +8538,13 @@
         <v>48</v>
       </c>
       <c r="C181" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D181" t="s">
         <v>74</v>
       </c>
       <c r="E181" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -8561,13 +8558,13 @@
         <v>48</v>
       </c>
       <c r="C182" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D182" t="s">
         <v>74</v>
       </c>
       <c r="E182" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -8581,13 +8578,13 @@
         <v>48</v>
       </c>
       <c r="C183" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D183" t="s">
         <v>74</v>
       </c>
       <c r="E183" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -8601,13 +8598,13 @@
         <v>48</v>
       </c>
       <c r="C184" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D184" t="s">
         <v>74</v>
       </c>
       <c r="E184" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -8621,13 +8618,13 @@
         <v>48</v>
       </c>
       <c r="C185" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D185" t="s">
         <v>74</v>
       </c>
       <c r="E185" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -8641,13 +8638,13 @@
         <v>48</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="D186" t="s">
         <v>75</v>
       </c>
       <c r="E186" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F186" t="s">
         <v>238</v>
@@ -8664,13 +8661,13 @@
         <v>48</v>
       </c>
       <c r="C187" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D187" t="s">
         <v>74</v>
       </c>
       <c r="E187" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -8684,13 +8681,13 @@
         <v>48</v>
       </c>
       <c r="C188" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D188" t="s">
         <v>74</v>
       </c>
       <c r="E188" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -8704,13 +8701,13 @@
         <v>48</v>
       </c>
       <c r="C189" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D189" t="s">
         <v>74</v>
       </c>
       <c r="E189" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -8724,13 +8721,13 @@
         <v>48</v>
       </c>
       <c r="C190" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D190" t="s">
         <v>74</v>
       </c>
       <c r="E190" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -8744,13 +8741,13 @@
         <v>48</v>
       </c>
       <c r="C191" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D191" t="s">
         <v>74</v>
       </c>
       <c r="E191" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -8764,13 +8761,13 @@
         <v>41</v>
       </c>
       <c r="C192" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D192" t="s">
         <v>74</v>
       </c>
       <c r="E192" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -8784,13 +8781,13 @@
         <v>41</v>
       </c>
       <c r="C193" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D193" t="s">
         <v>74</v>
       </c>
       <c r="E193" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -8804,13 +8801,13 @@
         <v>41</v>
       </c>
       <c r="C194" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D194" t="s">
         <v>74</v>
       </c>
       <c r="E194" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -8824,13 +8821,13 @@
         <v>41</v>
       </c>
       <c r="C195" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D195" t="s">
         <v>74</v>
       </c>
       <c r="E195" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -8844,13 +8841,13 @@
         <v>41</v>
       </c>
       <c r="C196" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D196" t="s">
         <v>74</v>
       </c>
       <c r="E196" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -8864,13 +8861,13 @@
         <v>41</v>
       </c>
       <c r="C197" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D197" t="s">
         <v>74</v>
       </c>
       <c r="E197" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -8884,13 +8881,13 @@
         <v>41</v>
       </c>
       <c r="C198" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D198" t="s">
         <v>74</v>
       </c>
       <c r="E198" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -8904,13 +8901,13 @@
         <v>41</v>
       </c>
       <c r="C199" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D199" t="s">
         <v>74</v>
       </c>
       <c r="E199" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -8924,13 +8921,13 @@
         <v>48</v>
       </c>
       <c r="C200" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D200" t="s">
         <v>74</v>
       </c>
       <c r="E200" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -8944,13 +8941,13 @@
         <v>48</v>
       </c>
       <c r="C201" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D201" t="s">
         <v>74</v>
       </c>
       <c r="E201" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -8964,13 +8961,13 @@
         <v>48</v>
       </c>
       <c r="C202" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D202" t="s">
         <v>74</v>
       </c>
       <c r="E202" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -8984,13 +8981,13 @@
         <v>48</v>
       </c>
       <c r="C203" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D203" t="s">
         <v>74</v>
       </c>
       <c r="E203" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -9004,13 +9001,13 @@
         <v>48</v>
       </c>
       <c r="C204" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D204" t="s">
         <v>74</v>
       </c>
       <c r="E204" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -9024,13 +9021,13 @@
         <v>48</v>
       </c>
       <c r="C205" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D205" t="s">
         <v>74</v>
       </c>
       <c r="E205" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -9044,13 +9041,13 @@
         <v>48</v>
       </c>
       <c r="C206" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D206" t="s">
         <v>74</v>
       </c>
       <c r="E206" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -9064,13 +9061,13 @@
         <v>48</v>
       </c>
       <c r="C207" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D207" t="s">
         <v>74</v>
       </c>
       <c r="E207" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -9084,13 +9081,13 @@
         <v>48</v>
       </c>
       <c r="C208" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D208" t="s">
         <v>74</v>
       </c>
       <c r="E208" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -9104,13 +9101,13 @@
         <v>48</v>
       </c>
       <c r="C209" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D209" t="s">
         <v>74</v>
       </c>
       <c r="E209" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -9124,13 +9121,13 @@
         <v>48</v>
       </c>
       <c r="C210" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D210" t="s">
         <v>74</v>
       </c>
       <c r="E210" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -9144,13 +9141,13 @@
         <v>48</v>
       </c>
       <c r="C211" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D211" t="s">
         <v>74</v>
       </c>
       <c r="E211" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -9164,13 +9161,13 @@
         <v>48</v>
       </c>
       <c r="C212" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D212" t="s">
         <v>74</v>
       </c>
       <c r="E212" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -9184,13 +9181,13 @@
         <v>48</v>
       </c>
       <c r="C213" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D213" t="s">
         <v>74</v>
       </c>
       <c r="E213" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -9198,19 +9195,19 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B214" t="s">
         <v>41</v>
       </c>
       <c r="C214" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D214" t="s">
         <v>74</v>
       </c>
       <c r="E214" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -9218,19 +9215,19 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B215" t="s">
         <v>41</v>
       </c>
       <c r="C215" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D215" t="s">
         <v>74</v>
       </c>
       <c r="E215" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -9238,19 +9235,19 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B216" t="s">
         <v>48</v>
       </c>
       <c r="C216" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D216" t="s">
         <v>74</v>
       </c>
       <c r="E216" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -9258,19 +9255,19 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B217" t="s">
         <v>48</v>
       </c>
       <c r="C217" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D217" t="s">
         <v>74</v>
       </c>
       <c r="E217" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -9278,19 +9275,19 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B218" t="s">
         <v>48</v>
       </c>
       <c r="C218" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D218" t="s">
         <v>75</v>
       </c>
       <c r="E218" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F218" t="s">
         <v>238</v>
@@ -9301,19 +9298,19 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B219" t="s">
         <v>48</v>
       </c>
       <c r="C219" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D219" t="s">
         <v>74</v>
       </c>
       <c r="E219" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -9321,19 +9318,19 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B220" t="s">
         <v>48</v>
       </c>
       <c r="C220" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D220" t="s">
         <v>75</v>
       </c>
       <c r="E220" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F220" t="s">
         <v>238</v>
@@ -9350,13 +9347,13 @@
         <v>41</v>
       </c>
       <c r="C221" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D221" t="s">
         <v>74</v>
       </c>
       <c r="E221" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -9370,13 +9367,13 @@
         <v>41</v>
       </c>
       <c r="C222" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D222" t="s">
         <v>74</v>
       </c>
       <c r="E222" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -9390,13 +9387,13 @@
         <v>41</v>
       </c>
       <c r="C223" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D223" t="s">
         <v>74</v>
       </c>
       <c r="E223" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -9410,13 +9407,13 @@
         <v>41</v>
       </c>
       <c r="C224" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D224" t="s">
         <v>74</v>
       </c>
       <c r="E224" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -9430,13 +9427,13 @@
         <v>41</v>
       </c>
       <c r="C225" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D225" t="s">
         <v>74</v>
       </c>
       <c r="E225" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -9450,13 +9447,13 @@
         <v>41</v>
       </c>
       <c r="C226" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D226" t="s">
         <v>74</v>
       </c>
       <c r="E226" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -9470,13 +9467,13 @@
         <v>41</v>
       </c>
       <c r="C227" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D227" t="s">
         <v>74</v>
       </c>
       <c r="E227" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -9490,13 +9487,13 @@
         <v>41</v>
       </c>
       <c r="C228" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D228" t="s">
         <v>74</v>
       </c>
       <c r="E228" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -9510,13 +9507,13 @@
         <v>48</v>
       </c>
       <c r="C229" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D229" t="s">
         <v>74</v>
       </c>
       <c r="E229" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -9530,13 +9527,13 @@
         <v>48</v>
       </c>
       <c r="C230" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D230" t="s">
         <v>74</v>
       </c>
       <c r="E230" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -9550,13 +9547,13 @@
         <v>48</v>
       </c>
       <c r="C231" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D231" t="s">
         <v>74</v>
       </c>
       <c r="E231" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -9570,13 +9567,13 @@
         <v>48</v>
       </c>
       <c r="C232" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D232" t="s">
         <v>74</v>
       </c>
       <c r="E232" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -9590,13 +9587,13 @@
         <v>48</v>
       </c>
       <c r="C233" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D233" t="s">
         <v>74</v>
       </c>
       <c r="E233" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -9610,13 +9607,13 @@
         <v>48</v>
       </c>
       <c r="C234" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D234" t="s">
         <v>74</v>
       </c>
       <c r="E234" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -9630,13 +9627,13 @@
         <v>41</v>
       </c>
       <c r="C235" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D235" t="s">
         <v>74</v>
       </c>
       <c r="E235" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -9650,13 +9647,13 @@
         <v>41</v>
       </c>
       <c r="C236" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D236" t="s">
         <v>74</v>
       </c>
       <c r="E236" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -9670,13 +9667,13 @@
         <v>48</v>
       </c>
       <c r="C237" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D237" t="s">
         <v>75</v>
       </c>
       <c r="E237" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F237" t="s">
         <v>238</v>
@@ -9693,13 +9690,13 @@
         <v>48</v>
       </c>
       <c r="C238" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D238" t="s">
         <v>75</v>
       </c>
       <c r="E238" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F238" t="s">
         <v>238</v>
@@ -9716,13 +9713,13 @@
         <v>48</v>
       </c>
       <c r="C239" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D239" t="s">
         <v>75</v>
       </c>
       <c r="E239" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F239" t="s">
         <v>238</v>
@@ -9739,13 +9736,13 @@
         <v>48</v>
       </c>
       <c r="C240" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D240" t="s">
         <v>75</v>
       </c>
       <c r="E240" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F240" t="s">
         <v>238</v>
@@ -9762,13 +9759,13 @@
         <v>48</v>
       </c>
       <c r="C241" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D241" t="s">
         <v>75</v>
       </c>
       <c r="E241" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F241" t="s">
         <v>238</v>
@@ -9785,13 +9782,13 @@
         <v>48</v>
       </c>
       <c r="C242" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D242" t="s">
         <v>74</v>
       </c>
       <c r="E242" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -9805,13 +9802,13 @@
         <v>41</v>
       </c>
       <c r="C243" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D243" t="s">
         <v>74</v>
       </c>
       <c r="E243" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -9825,13 +9822,13 @@
         <v>41</v>
       </c>
       <c r="C244" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D244" t="s">
         <v>74</v>
       </c>
       <c r="E244" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -9845,13 +9842,13 @@
         <v>41</v>
       </c>
       <c r="C245" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D245" t="s">
         <v>74</v>
       </c>
       <c r="E245" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -9865,13 +9862,13 @@
         <v>41</v>
       </c>
       <c r="C246" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D246" t="s">
         <v>74</v>
       </c>
       <c r="E246" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -9885,13 +9882,13 @@
         <v>41</v>
       </c>
       <c r="C247" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D247" t="s">
         <v>74</v>
       </c>
       <c r="E247" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G247">
         <v>1</v>
@@ -9905,13 +9902,13 @@
         <v>41</v>
       </c>
       <c r="C248" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D248" t="s">
         <v>74</v>
       </c>
       <c r="E248" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -9925,13 +9922,13 @@
         <v>48</v>
       </c>
       <c r="C249" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D249" t="s">
         <v>74</v>
       </c>
       <c r="E249" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G249">
         <v>1</v>
@@ -9945,13 +9942,13 @@
         <v>48</v>
       </c>
       <c r="C250" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D250" t="s">
         <v>74</v>
       </c>
       <c r="E250" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -9965,13 +9962,13 @@
         <v>48</v>
       </c>
       <c r="C251" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D251" t="s">
         <v>74</v>
       </c>
       <c r="E251" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -9985,13 +9982,13 @@
         <v>48</v>
       </c>
       <c r="C252" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D252" t="s">
         <v>74</v>
       </c>
       <c r="E252" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G252">
         <v>1</v>
@@ -10005,13 +10002,13 @@
         <v>48</v>
       </c>
       <c r="C253" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D253" t="s">
         <v>74</v>
       </c>
       <c r="E253" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G253">
         <v>1</v>
@@ -10025,13 +10022,13 @@
         <v>48</v>
       </c>
       <c r="C254" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D254" t="s">
         <v>74</v>
       </c>
       <c r="E254" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -10045,13 +10042,13 @@
         <v>41</v>
       </c>
       <c r="C255" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D255" t="s">
         <v>74</v>
       </c>
       <c r="E255" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -10065,13 +10062,13 @@
         <v>41</v>
       </c>
       <c r="C256" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D256" t="s">
         <v>74</v>
       </c>
       <c r="E256" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -10085,13 +10082,13 @@
         <v>48</v>
       </c>
       <c r="C257" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D257" t="s">
         <v>74</v>
       </c>
       <c r="E257" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -10105,13 +10102,13 @@
         <v>48</v>
       </c>
       <c r="C258" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D258" t="s">
         <v>74</v>
       </c>
       <c r="E258" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -10125,13 +10122,13 @@
         <v>48</v>
       </c>
       <c r="C259" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D259" t="s">
         <v>74</v>
       </c>
       <c r="E259" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -10145,13 +10142,13 @@
         <v>48</v>
       </c>
       <c r="C260" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D260" t="s">
         <v>74</v>
       </c>
       <c r="E260" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -10165,13 +10162,13 @@
         <v>41</v>
       </c>
       <c r="C261" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D261" t="s">
         <v>74</v>
       </c>
       <c r="E261" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -10185,13 +10182,13 @@
         <v>41</v>
       </c>
       <c r="C262" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D262" t="s">
         <v>74</v>
       </c>
       <c r="E262" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -10205,13 +10202,13 @@
         <v>41</v>
       </c>
       <c r="C263" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D263" t="s">
         <v>74</v>
       </c>
       <c r="E263" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -10225,13 +10222,13 @@
         <v>41</v>
       </c>
       <c r="C264" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D264" t="s">
         <v>74</v>
       </c>
       <c r="E264" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="G264">
         <v>1</v>
@@ -10245,13 +10242,13 @@
         <v>41</v>
       </c>
       <c r="C265" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D265" t="s">
         <v>74</v>
       </c>
       <c r="E265" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -10265,13 +10262,13 @@
         <v>48</v>
       </c>
       <c r="C266" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D266" t="s">
         <v>75</v>
       </c>
       <c r="E266" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F266" t="s">
         <v>238</v>
@@ -10288,13 +10285,13 @@
         <v>48</v>
       </c>
       <c r="C267" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D267" t="s">
         <v>74</v>
       </c>
       <c r="E267" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -10308,13 +10305,13 @@
         <v>48</v>
       </c>
       <c r="C268" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D268" t="s">
         <v>74</v>
       </c>
       <c r="E268" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -10328,13 +10325,13 @@
         <v>48</v>
       </c>
       <c r="C269" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D269" t="s">
         <v>74</v>
       </c>
       <c r="E269" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -10348,13 +10345,13 @@
         <v>48</v>
       </c>
       <c r="C270" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D270" t="s">
         <v>74</v>
       </c>
       <c r="E270" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -10368,13 +10365,13 @@
         <v>48</v>
       </c>
       <c r="C271" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D271" t="s">
         <v>74</v>
       </c>
       <c r="E271" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -10388,13 +10385,13 @@
         <v>41</v>
       </c>
       <c r="C272" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D272" t="s">
         <v>74</v>
       </c>
       <c r="E272" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -10408,13 +10405,13 @@
         <v>41</v>
       </c>
       <c r="C273" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D273" t="s">
         <v>74</v>
       </c>
       <c r="E273" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="G273">
         <v>1</v>
@@ -10428,13 +10425,13 @@
         <v>41</v>
       </c>
       <c r="C274" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D274" t="s">
         <v>74</v>
       </c>
       <c r="E274" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -10448,13 +10445,13 @@
         <v>48</v>
       </c>
       <c r="C275" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D275" t="s">
         <v>74</v>
       </c>
       <c r="E275" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -10468,13 +10465,13 @@
         <v>41</v>
       </c>
       <c r="C276" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D276" t="s">
         <v>74</v>
       </c>
       <c r="E276" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G276">
         <v>1</v>
@@ -10488,13 +10485,13 @@
         <v>41</v>
       </c>
       <c r="C277" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D277" t="s">
         <v>74</v>
       </c>
       <c r="E277" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -10508,13 +10505,13 @@
         <v>41</v>
       </c>
       <c r="C278" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D278" t="s">
         <v>74</v>
       </c>
       <c r="E278" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -10528,13 +10525,13 @@
         <v>41</v>
       </c>
       <c r="C279" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D279" t="s">
         <v>74</v>
       </c>
       <c r="E279" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G279">
         <v>1</v>
@@ -10548,13 +10545,13 @@
         <v>41</v>
       </c>
       <c r="C280" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D280" t="s">
         <v>74</v>
       </c>
       <c r="E280" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -10568,13 +10565,13 @@
         <v>41</v>
       </c>
       <c r="C281" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D281" t="s">
         <v>74</v>
       </c>
       <c r="E281" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -10588,13 +10585,13 @@
         <v>48</v>
       </c>
       <c r="C282" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D282" t="s">
         <v>74</v>
       </c>
       <c r="E282" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -10608,13 +10605,13 @@
         <v>48</v>
       </c>
       <c r="C283" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D283" t="s">
         <v>74</v>
       </c>
       <c r="E283" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G283">
         <v>1</v>
@@ -10628,13 +10625,13 @@
         <v>48</v>
       </c>
       <c r="C284" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D284" t="s">
         <v>74</v>
       </c>
       <c r="E284" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -10648,13 +10645,13 @@
         <v>48</v>
       </c>
       <c r="C285" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D285" t="s">
         <v>74</v>
       </c>
       <c r="E285" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -10668,13 +10665,13 @@
         <v>48</v>
       </c>
       <c r="C286" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D286" t="s">
         <v>74</v>
       </c>
       <c r="E286" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G286">
         <v>1</v>
@@ -10688,13 +10685,13 @@
         <v>48</v>
       </c>
       <c r="C287" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D287" t="s">
         <v>74</v>
       </c>
       <c r="E287" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G287">
         <v>1</v>
@@ -10708,13 +10705,13 @@
         <v>41</v>
       </c>
       <c r="C288" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D288" t="s">
         <v>74</v>
       </c>
       <c r="E288" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G288">
         <v>1</v>
@@ -10728,13 +10725,13 @@
         <v>41</v>
       </c>
       <c r="C289" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D289" t="s">
         <v>74</v>
       </c>
       <c r="E289" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G289">
         <v>1</v>
@@ -10748,13 +10745,13 @@
         <v>41</v>
       </c>
       <c r="C290" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D290" t="s">
         <v>74</v>
       </c>
       <c r="E290" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="G290">
         <v>1</v>
@@ -10768,13 +10765,13 @@
         <v>41</v>
       </c>
       <c r="C291" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D291" t="s">
         <v>74</v>
       </c>
       <c r="E291" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -10788,13 +10785,13 @@
         <v>41</v>
       </c>
       <c r="C292" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D292" t="s">
         <v>74</v>
       </c>
       <c r="E292" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G292">
         <v>1</v>
@@ -10808,13 +10805,13 @@
         <v>41</v>
       </c>
       <c r="C293" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D293" t="s">
         <v>74</v>
       </c>
       <c r="E293" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G293">
         <v>1</v>
@@ -10828,13 +10825,13 @@
         <v>48</v>
       </c>
       <c r="C294" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D294" t="s">
         <v>74</v>
       </c>
       <c r="E294" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -10848,13 +10845,13 @@
         <v>48</v>
       </c>
       <c r="C295" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D295" t="s">
         <v>74</v>
       </c>
       <c r="E295" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G295">
         <v>1</v>
@@ -10868,13 +10865,13 @@
         <v>48</v>
       </c>
       <c r="C296" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D296" t="s">
         <v>74</v>
       </c>
       <c r="E296" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G296">
         <v>1</v>
@@ -10888,13 +10885,13 @@
         <v>48</v>
       </c>
       <c r="C297" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D297" t="s">
         <v>74</v>
       </c>
       <c r="E297" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -10908,13 +10905,13 @@
         <v>41</v>
       </c>
       <c r="C298" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D298" t="s">
         <v>74</v>
       </c>
       <c r="E298" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G298">
         <v>1</v>
@@ -10928,13 +10925,13 @@
         <v>41</v>
       </c>
       <c r="C299" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D299" t="s">
         <v>74</v>
       </c>
       <c r="E299" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G299">
         <v>1</v>
@@ -10948,13 +10945,13 @@
         <v>41</v>
       </c>
       <c r="C300" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D300" t="s">
         <v>74</v>
       </c>
       <c r="E300" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G300">
         <v>1</v>
@@ -10968,13 +10965,13 @@
         <v>41</v>
       </c>
       <c r="C301" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D301" t="s">
         <v>74</v>
       </c>
       <c r="E301" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G301">
         <v>1</v>
@@ -10988,13 +10985,13 @@
         <v>48</v>
       </c>
       <c r="C302" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D302" t="s">
         <v>74</v>
       </c>
       <c r="E302" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="G302">
         <v>1</v>
@@ -11008,13 +11005,13 @@
         <v>48</v>
       </c>
       <c r="C303" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D303" t="s">
         <v>74</v>
       </c>
       <c r="E303" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="G303">
         <v>1</v>
@@ -11028,13 +11025,13 @@
         <v>48</v>
       </c>
       <c r="C304" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D304" t="s">
         <v>74</v>
       </c>
       <c r="E304" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G304">
         <v>1</v>
@@ -11048,13 +11045,13 @@
         <v>48</v>
       </c>
       <c r="C305" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D305" t="s">
         <v>74</v>
       </c>
       <c r="E305" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="G305">
         <v>1</v>
@@ -11068,13 +11065,13 @@
         <v>41</v>
       </c>
       <c r="C306" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D306" t="s">
         <v>74</v>
       </c>
       <c r="E306" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G306">
         <v>1</v>
@@ -11088,13 +11085,13 @@
         <v>41</v>
       </c>
       <c r="C307" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D307" t="s">
         <v>74</v>
       </c>
       <c r="E307" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G307">
         <v>1</v>
@@ -11108,13 +11105,13 @@
         <v>41</v>
       </c>
       <c r="C308" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D308" t="s">
         <v>74</v>
       </c>
       <c r="E308" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="G308">
         <v>1</v>
@@ -11128,13 +11125,13 @@
         <v>41</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="D309" t="s">
         <v>74</v>
       </c>
       <c r="E309" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="G309">
         <v>1</v>
@@ -11148,13 +11145,13 @@
         <v>48</v>
       </c>
       <c r="C310" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D310" t="s">
         <v>74</v>
       </c>
       <c r="E310" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="G310">
         <v>1</v>
@@ -11168,13 +11165,13 @@
         <v>48</v>
       </c>
       <c r="C311" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D311" t="s">
         <v>74</v>
       </c>
       <c r="E311" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G311">
         <v>1</v>
@@ -11188,13 +11185,13 @@
         <v>48</v>
       </c>
       <c r="C312" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D312" t="s">
         <v>74</v>
       </c>
       <c r="E312" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="G312">
         <v>1</v>
@@ -11208,13 +11205,13 @@
         <v>48</v>
       </c>
       <c r="C313" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D313" t="s">
         <v>74</v>
       </c>
       <c r="E313" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="G313">
         <v>1</v>
@@ -11228,13 +11225,13 @@
         <v>41</v>
       </c>
       <c r="C314" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D314" t="s">
         <v>74</v>
       </c>
       <c r="E314" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="G314">
         <v>1</v>
@@ -11248,13 +11245,13 @@
         <v>48</v>
       </c>
       <c r="C315" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D315" t="s">
         <v>74</v>
       </c>
       <c r="E315" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G315">
         <v>1</v>
@@ -11268,13 +11265,13 @@
         <v>48</v>
       </c>
       <c r="C316" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D316" t="s">
         <v>74</v>
       </c>
       <c r="E316" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G316">
         <v>1</v>
@@ -11288,13 +11285,13 @@
         <v>48</v>
       </c>
       <c r="C317" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D317" t="s">
         <v>74</v>
       </c>
       <c r="E317" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G317">
         <v>1</v>
@@ -11308,13 +11305,13 @@
         <v>48</v>
       </c>
       <c r="C318" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D318" t="s">
         <v>74</v>
       </c>
       <c r="E318" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G318">
         <v>1</v>
@@ -11328,13 +11325,13 @@
         <v>48</v>
       </c>
       <c r="C319" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D319" t="s">
         <v>74</v>
       </c>
       <c r="E319" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G319">
         <v>1</v>
@@ -11348,13 +11345,13 @@
         <v>41</v>
       </c>
       <c r="C320" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D320" t="s">
         <v>74</v>
       </c>
       <c r="E320" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G320">
         <v>1</v>
@@ -11368,13 +11365,13 @@
         <v>48</v>
       </c>
       <c r="C321" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D321" t="s">
         <v>74</v>
       </c>
       <c r="E321" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G321">
         <v>1</v>
@@ -11388,13 +11385,13 @@
         <v>48</v>
       </c>
       <c r="C322" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D322" t="s">
         <v>74</v>
       </c>
       <c r="E322" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G322">
         <v>1</v>
@@ -11408,13 +11405,13 @@
         <v>41</v>
       </c>
       <c r="C323" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D323" t="s">
         <v>74</v>
       </c>
       <c r="E323" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G323">
         <v>1</v>
@@ -11428,13 +11425,13 @@
         <v>41</v>
       </c>
       <c r="C324" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D324" t="s">
         <v>74</v>
       </c>
       <c r="E324" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G324">
         <v>1</v>
@@ -11448,13 +11445,13 @@
         <v>41</v>
       </c>
       <c r="C325" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D325" t="s">
         <v>74</v>
       </c>
       <c r="E325" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G325">
         <v>1</v>
@@ -11468,13 +11465,13 @@
         <v>41</v>
       </c>
       <c r="C326" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D326" t="s">
         <v>74</v>
       </c>
       <c r="E326" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="G326">
         <v>1</v>
@@ -11488,13 +11485,13 @@
         <v>48</v>
       </c>
       <c r="C327" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D327" t="s">
         <v>74</v>
       </c>
       <c r="E327" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G327">
         <v>1</v>
@@ -11508,13 +11505,13 @@
         <v>48</v>
       </c>
       <c r="C328" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D328" t="s">
         <v>75</v>
       </c>
       <c r="E328" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F328" t="s">
         <v>238</v>
@@ -11531,13 +11528,13 @@
         <v>48</v>
       </c>
       <c r="C329" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D329" t="s">
         <v>74</v>
       </c>
       <c r="E329" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G329">
         <v>1</v>
@@ -11551,13 +11548,13 @@
         <v>48</v>
       </c>
       <c r="C330" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D330" t="s">
         <v>74</v>
       </c>
       <c r="E330" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="G330">
         <v>1</v>
@@ -11571,13 +11568,13 @@
         <v>41</v>
       </c>
       <c r="C331" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D331" t="s">
         <v>74</v>
       </c>
       <c r="E331" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="G331">
         <v>1</v>
@@ -11591,13 +11588,13 @@
         <v>41</v>
       </c>
       <c r="C332" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D332" t="s">
         <v>74</v>
       </c>
       <c r="E332" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G332">
         <v>1</v>
@@ -11611,13 +11608,13 @@
         <v>48</v>
       </c>
       <c r="C333" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D333" t="s">
         <v>74</v>
       </c>
       <c r="E333" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="G333">
         <v>1</v>
@@ -11631,13 +11628,13 @@
         <v>48</v>
       </c>
       <c r="C334" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D334" t="s">
         <v>74</v>
       </c>
       <c r="E334" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="G334">
         <v>1</v>
@@ -11651,13 +11648,13 @@
         <v>48</v>
       </c>
       <c r="C335" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D335" t="s">
         <v>74</v>
       </c>
       <c r="E335" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="G335">
         <v>1</v>
@@ -11671,13 +11668,13 @@
         <v>48</v>
       </c>
       <c r="C336" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D336" t="s">
         <v>74</v>
       </c>
       <c r="E336" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="G336">
         <v>1</v>
@@ -11691,13 +11688,13 @@
         <v>41</v>
       </c>
       <c r="C337" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D337" t="s">
         <v>74</v>
       </c>
       <c r="E337" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="G337">
         <v>1</v>
@@ -11711,13 +11708,13 @@
         <v>41</v>
       </c>
       <c r="C338" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D338" t="s">
         <v>74</v>
       </c>
       <c r="E338" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="G338">
         <v>1</v>
@@ -11731,13 +11728,13 @@
         <v>41</v>
       </c>
       <c r="C339" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D339" t="s">
         <v>74</v>
       </c>
       <c r="E339" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="G339">
         <v>1</v>
@@ -11751,13 +11748,13 @@
         <v>41</v>
       </c>
       <c r="C340" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D340" t="s">
         <v>74</v>
       </c>
       <c r="E340" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="G340">
         <v>1</v>
@@ -11771,13 +11768,13 @@
         <v>48</v>
       </c>
       <c r="C341" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D341" t="s">
         <v>74</v>
       </c>
       <c r="E341" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="G341">
         <v>1</v>
@@ -11791,13 +11788,13 @@
         <v>48</v>
       </c>
       <c r="C342" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D342" t="s">
         <v>74</v>
       </c>
       <c r="E342" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="G342">
         <v>1</v>
@@ -11811,13 +11808,13 @@
         <v>48</v>
       </c>
       <c r="C343" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D343" t="s">
         <v>74</v>
       </c>
       <c r="E343" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="G343">
         <v>1</v>
@@ -11831,13 +11828,13 @@
         <v>41</v>
       </c>
       <c r="C344" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D344" t="s">
         <v>74</v>
       </c>
       <c r="E344" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="G344">
         <v>1</v>
@@ -11851,13 +11848,13 @@
         <v>41</v>
       </c>
       <c r="C345" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D345" t="s">
         <v>74</v>
       </c>
       <c r="E345" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="G345">
         <v>1</v>
@@ -11871,13 +11868,13 @@
         <v>41</v>
       </c>
       <c r="C346" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D346" t="s">
         <v>74</v>
       </c>
       <c r="E346" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="G346">
         <v>1</v>
@@ -11891,13 +11888,13 @@
         <v>41</v>
       </c>
       <c r="C347" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D347" t="s">
         <v>74</v>
       </c>
       <c r="E347" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="G347">
         <v>1</v>
@@ -11911,13 +11908,13 @@
         <v>48</v>
       </c>
       <c r="C348" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D348" t="s">
         <v>74</v>
       </c>
       <c r="E348" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G348">
         <v>1</v>
@@ -11931,13 +11928,13 @@
         <v>48</v>
       </c>
       <c r="C349" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D349" t="s">
         <v>74</v>
       </c>
       <c r="E349" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="G349">
         <v>1</v>
@@ -11951,13 +11948,13 @@
         <v>48</v>
       </c>
       <c r="C350" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D350" t="s">
         <v>74</v>
       </c>
       <c r="E350" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="G350">
         <v>1</v>
@@ -11971,13 +11968,13 @@
         <v>48</v>
       </c>
       <c r="C351" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D351" t="s">
         <v>74</v>
       </c>
       <c r="E351" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="G351">
         <v>1</v>
@@ -11991,13 +11988,13 @@
         <v>48</v>
       </c>
       <c r="C352" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D352" t="s">
         <v>74</v>
       </c>
       <c r="E352" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="G352">
         <v>1</v>
@@ -12011,13 +12008,13 @@
         <v>48</v>
       </c>
       <c r="C353" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D353" t="s">
         <v>74</v>
       </c>
       <c r="E353" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="G353">
         <v>1</v>
@@ -12031,13 +12028,13 @@
         <v>41</v>
       </c>
       <c r="C354" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D354" t="s">
         <v>74</v>
       </c>
       <c r="E354" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="G354">
         <v>1</v>
@@ -12051,13 +12048,13 @@
         <v>48</v>
       </c>
       <c r="C355" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D355" t="s">
         <v>74</v>
       </c>
       <c r="E355" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G355">
         <v>1</v>
@@ -12071,13 +12068,13 @@
         <v>48</v>
       </c>
       <c r="C356" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D356" t="s">
         <v>74</v>
       </c>
       <c r="E356" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="G356">
         <v>1</v>
@@ -12091,13 +12088,13 @@
         <v>48</v>
       </c>
       <c r="C357" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D357" t="s">
         <v>74</v>
       </c>
       <c r="E357" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="G357">
         <v>1</v>
@@ -12111,13 +12108,13 @@
         <v>41</v>
       </c>
       <c r="C358" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D358" t="s">
         <v>74</v>
       </c>
       <c r="E358" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="G358">
         <v>1</v>
@@ -12131,13 +12128,13 @@
         <v>41</v>
       </c>
       <c r="C359" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D359" t="s">
         <v>74</v>
       </c>
       <c r="E359" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="G359">
         <v>1</v>
@@ -12151,13 +12148,13 @@
         <v>41</v>
       </c>
       <c r="C360" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D360" t="s">
         <v>74</v>
       </c>
       <c r="E360" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="G360">
         <v>1</v>
@@ -12171,13 +12168,13 @@
         <v>41</v>
       </c>
       <c r="C361" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D361" t="s">
         <v>74</v>
       </c>
       <c r="E361" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="G361">
         <v>1</v>
@@ -12191,16 +12188,16 @@
         <v>48</v>
       </c>
       <c r="C362" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D362" t="s">
         <v>75</v>
       </c>
       <c r="E362" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="F362" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="G362">
         <v>1</v>
@@ -12214,16 +12211,16 @@
         <v>48</v>
       </c>
       <c r="C363" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D363" t="s">
         <v>75</v>
       </c>
       <c r="E363" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="F363" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="G363">
         <v>1</v>
@@ -12237,13 +12234,13 @@
         <v>48</v>
       </c>
       <c r="C364" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D364" t="s">
         <v>74</v>
       </c>
       <c r="E364" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="G364">
         <v>1</v>
@@ -12257,13 +12254,13 @@
         <v>48</v>
       </c>
       <c r="C365" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D365" t="s">
         <v>74</v>
       </c>
       <c r="E365" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="G365">
         <v>1</v>
@@ -12277,13 +12274,13 @@
         <v>41</v>
       </c>
       <c r="C366" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D366" t="s">
         <v>74</v>
       </c>
       <c r="E366" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="G366">
         <v>1</v>
@@ -12297,13 +12294,13 @@
         <v>41</v>
       </c>
       <c r="C367" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D367" t="s">
         <v>74</v>
       </c>
       <c r="E367" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="G367">
         <v>1</v>
@@ -12317,13 +12314,13 @@
         <v>41</v>
       </c>
       <c r="C368" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D368" t="s">
         <v>74</v>
       </c>
       <c r="E368" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G368">
         <v>1</v>
@@ -12337,13 +12334,13 @@
         <v>41</v>
       </c>
       <c r="C369" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D369" t="s">
         <v>74</v>
       </c>
       <c r="E369" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="G369">
         <v>1</v>
@@ -12357,13 +12354,13 @@
         <v>41</v>
       </c>
       <c r="C370" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D370" t="s">
         <v>74</v>
       </c>
       <c r="E370" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="G370">
         <v>1</v>
@@ -12377,13 +12374,13 @@
         <v>48</v>
       </c>
       <c r="C371" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D371" t="s">
         <v>74</v>
       </c>
       <c r="E371" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="G371">
         <v>1</v>
@@ -12397,13 +12394,13 @@
         <v>41</v>
       </c>
       <c r="C372" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D372" t="s">
         <v>74</v>
       </c>
       <c r="E372" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="G372">
         <v>1</v>
@@ -12417,13 +12414,13 @@
         <v>41</v>
       </c>
       <c r="C373" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D373" t="s">
         <v>74</v>
       </c>
       <c r="E373" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="G373">
         <v>1</v>
@@ -12437,13 +12434,13 @@
         <v>41</v>
       </c>
       <c r="C374" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D374" t="s">
         <v>74</v>
       </c>
       <c r="E374" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="G374">
         <v>1</v>
@@ -12457,13 +12454,13 @@
         <v>41</v>
       </c>
       <c r="C375" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D375" t="s">
         <v>74</v>
       </c>
       <c r="E375" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="G375">
         <v>1</v>
@@ -12477,13 +12474,13 @@
         <v>41</v>
       </c>
       <c r="C376" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D376" t="s">
         <v>74</v>
       </c>
       <c r="E376" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G376">
         <v>1</v>
@@ -12497,13 +12494,13 @@
         <v>41</v>
       </c>
       <c r="C377" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D377" t="s">
         <v>74</v>
       </c>
       <c r="E377" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="G377">
         <v>1</v>
@@ -12517,13 +12514,13 @@
         <v>41</v>
       </c>
       <c r="C378" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D378" t="s">
         <v>74</v>
       </c>
       <c r="E378" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="G378">
         <v>1</v>
@@ -12537,13 +12534,13 @@
         <v>41</v>
       </c>
       <c r="C379" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D379" t="s">
         <v>74</v>
       </c>
       <c r="E379" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="G379">
         <v>1</v>
@@ -12557,13 +12554,13 @@
         <v>41</v>
       </c>
       <c r="C380" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D380" t="s">
         <v>74</v>
       </c>
       <c r="E380" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="G380">
         <v>1</v>
@@ -12577,13 +12574,13 @@
         <v>48</v>
       </c>
       <c r="C381" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D381" t="s">
         <v>75</v>
       </c>
       <c r="E381" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="F381" t="s">
         <v>238</v>
@@ -12600,13 +12597,13 @@
         <v>48</v>
       </c>
       <c r="C382" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D382" t="s">
         <v>74</v>
       </c>
       <c r="E382" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="G382">
         <v>1</v>
@@ -12620,13 +12617,13 @@
         <v>41</v>
       </c>
       <c r="C383" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D383" t="s">
         <v>74</v>
       </c>
       <c r="E383" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G383">
         <v>1</v>
@@ -12640,13 +12637,13 @@
         <v>41</v>
       </c>
       <c r="C384" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D384" t="s">
         <v>74</v>
       </c>
       <c r="E384" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="G384">
         <v>1</v>
@@ -12660,13 +12657,13 @@
         <v>41</v>
       </c>
       <c r="C385" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D385" t="s">
         <v>74</v>
       </c>
       <c r="E385" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="G385">
         <v>1</v>
@@ -12680,13 +12677,13 @@
         <v>41</v>
       </c>
       <c r="C386" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D386" t="s">
         <v>74</v>
       </c>
       <c r="E386" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="G386">
         <v>1</v>
@@ -12700,13 +12697,13 @@
         <v>41</v>
       </c>
       <c r="C387" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D387" t="s">
         <v>74</v>
       </c>
       <c r="E387" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="G387">
         <v>1</v>
@@ -12720,13 +12717,13 @@
         <v>41</v>
       </c>
       <c r="C388" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D388" t="s">
         <v>74</v>
       </c>
       <c r="E388" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G388">
         <v>1</v>
@@ -12740,13 +12737,13 @@
         <v>41</v>
       </c>
       <c r="C389" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D389" t="s">
         <v>74</v>
       </c>
       <c r="E389" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="G389">
         <v>1</v>
@@ -12760,13 +12757,13 @@
         <v>48</v>
       </c>
       <c r="C390" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D390" t="s">
         <v>74</v>
       </c>
       <c r="E390" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G390">
         <v>1</v>
@@ -12780,13 +12777,13 @@
         <v>48</v>
       </c>
       <c r="C391" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D391" t="s">
         <v>74</v>
       </c>
       <c r="E391" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="G391">
         <v>1</v>
@@ -12800,13 +12797,13 @@
         <v>48</v>
       </c>
       <c r="C392" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D392" t="s">
         <v>74</v>
       </c>
       <c r="E392" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="G392">
         <v>1</v>
@@ -12820,13 +12817,13 @@
         <v>48</v>
       </c>
       <c r="C393" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D393" t="s">
         <v>74</v>
       </c>
       <c r="E393" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="G393">
         <v>1</v>
@@ -12840,13 +12837,13 @@
         <v>48</v>
       </c>
       <c r="C394" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D394" t="s">
         <v>74</v>
       </c>
       <c r="E394" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="G394">
         <v>1</v>
@@ -12860,13 +12857,13 @@
         <v>48</v>
       </c>
       <c r="C395" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D395" t="s">
         <v>75</v>
       </c>
       <c r="E395" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F395" t="s">
         <v>238</v>
@@ -12883,13 +12880,13 @@
         <v>48</v>
       </c>
       <c r="C396" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D396" t="s">
         <v>75</v>
       </c>
       <c r="E396" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G396">
         <v>1</v>
@@ -12903,13 +12900,13 @@
         <v>48</v>
       </c>
       <c r="C397" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D397" t="s">
         <v>75</v>
       </c>
       <c r="E397" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="G397">
         <v>1</v>
@@ -12923,13 +12920,13 @@
         <v>41</v>
       </c>
       <c r="C398" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="D398" t="s">
         <v>74</v>
       </c>
       <c r="E398" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="G398">
         <v>1</v>
@@ -12943,13 +12940,13 @@
         <v>41</v>
       </c>
       <c r="C399" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D399" t="s">
         <v>74</v>
       </c>
       <c r="E399" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="G399">
         <v>1</v>
@@ -12963,13 +12960,13 @@
         <v>41</v>
       </c>
       <c r="C400" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D400" t="s">
         <v>74</v>
       </c>
       <c r="E400" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="G400">
         <v>1</v>
@@ -12983,13 +12980,13 @@
         <v>41</v>
       </c>
       <c r="C401" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D401" t="s">
         <v>74</v>
       </c>
       <c r="E401" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="G401">
         <v>1</v>
@@ -13003,13 +13000,13 @@
         <v>41</v>
       </c>
       <c r="C402" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="D402" t="s">
         <v>74</v>
       </c>
       <c r="E402" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G402">
         <v>1</v>
@@ -13023,13 +13020,13 @@
         <v>48</v>
       </c>
       <c r="C403" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D403" t="s">
         <v>74</v>
       </c>
       <c r="E403" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G403">
         <v>1</v>
@@ -13043,13 +13040,13 @@
         <v>48</v>
       </c>
       <c r="C404" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D404" t="s">
         <v>75</v>
       </c>
       <c r="E404" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="G404">
         <v>1</v>
@@ -13063,13 +13060,13 @@
         <v>41</v>
       </c>
       <c r="C405" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D405" t="s">
         <v>74</v>
       </c>
       <c r="E405" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="G405">
         <v>1</v>
@@ -13083,13 +13080,13 @@
         <v>41</v>
       </c>
       <c r="C406" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D406" t="s">
         <v>74</v>
       </c>
       <c r="E406" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G406">
         <v>1</v>
@@ -13103,13 +13100,13 @@
         <v>41</v>
       </c>
       <c r="C407" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D407" t="s">
         <v>74</v>
       </c>
       <c r="E407" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="G407">
         <v>1</v>
@@ -13123,13 +13120,13 @@
         <v>48</v>
       </c>
       <c r="C408" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D408" t="s">
         <v>75</v>
       </c>
       <c r="E408" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="G408">
         <v>1</v>
@@ -13143,13 +13140,13 @@
         <v>48</v>
       </c>
       <c r="C409" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="D409" t="s">
         <v>74</v>
       </c>
       <c r="E409" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="G409">
         <v>1</v>
@@ -13163,13 +13160,13 @@
         <v>48</v>
       </c>
       <c r="C410" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="D410" t="s">
         <v>74</v>
       </c>
       <c r="E410" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="G410">
         <v>1</v>
@@ -13183,13 +13180,13 @@
         <v>48</v>
       </c>
       <c r="C411" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D411" t="s">
         <v>74</v>
       </c>
       <c r="E411" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="G411">
         <v>1</v>
@@ -13203,13 +13200,13 @@
         <v>48</v>
       </c>
       <c r="C412" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="D412" t="s">
         <v>74</v>
       </c>
       <c r="E412" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="G412">
         <v>1</v>
@@ -13223,13 +13220,13 @@
         <v>41</v>
       </c>
       <c r="C413" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="D413" t="s">
         <v>74</v>
       </c>
       <c r="E413" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="G413">
         <v>1</v>
@@ -13243,13 +13240,13 @@
         <v>41</v>
       </c>
       <c r="C414" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D414" t="s">
         <v>74</v>
       </c>
       <c r="E414" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G414">
         <v>1</v>
@@ -13263,13 +13260,13 @@
         <v>48</v>
       </c>
       <c r="C415" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="D415" t="s">
         <v>74</v>
       </c>
       <c r="E415" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="G415">
         <v>1</v>
@@ -13283,13 +13280,13 @@
         <v>48</v>
       </c>
       <c r="C416" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D416" t="s">
         <v>74</v>
       </c>
       <c r="E416" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="G416">
         <v>1</v>
@@ -13303,13 +13300,13 @@
         <v>48</v>
       </c>
       <c r="C417" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D417" t="s">
         <v>74</v>
       </c>
       <c r="E417" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="G417">
         <v>1</v>
@@ -13323,13 +13320,13 @@
         <v>48</v>
       </c>
       <c r="C418" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D418" t="s">
         <v>74</v>
       </c>
       <c r="E418" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="G418">
         <v>1</v>
@@ -13343,13 +13340,13 @@
         <v>48</v>
       </c>
       <c r="C419" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D419" t="s">
         <v>74</v>
       </c>
       <c r="E419" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="G419">
         <v>1</v>
@@ -13363,13 +13360,13 @@
         <v>48</v>
       </c>
       <c r="C420" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D420" t="s">
         <v>74</v>
       </c>
       <c r="E420" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="G420">
         <v>1</v>
@@ -13383,13 +13380,13 @@
         <v>41</v>
       </c>
       <c r="C421" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D421" t="s">
         <v>74</v>
       </c>
       <c r="E421" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="G421">
         <v>1</v>
@@ -13403,13 +13400,13 @@
         <v>41</v>
       </c>
       <c r="C422" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D422" t="s">
         <v>74</v>
       </c>
       <c r="E422" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="G422">
         <v>1</v>
@@ -13423,13 +13420,13 @@
         <v>41</v>
       </c>
       <c r="C423" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D423" t="s">
         <v>74</v>
       </c>
       <c r="E423" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="G423">
         <v>1</v>
@@ -13443,13 +13440,13 @@
         <v>41</v>
       </c>
       <c r="C424" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D424" t="s">
         <v>74</v>
       </c>
       <c r="E424" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="G424">
         <v>1</v>
@@ -13463,13 +13460,13 @@
         <v>41</v>
       </c>
       <c r="C425" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D425" t="s">
         <v>74</v>
       </c>
       <c r="E425" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="G425">
         <v>1</v>
@@ -13483,13 +13480,13 @@
         <v>41</v>
       </c>
       <c r="C426" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D426" t="s">
         <v>74</v>
       </c>
       <c r="E426" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G426">
         <v>1</v>
@@ -13503,13 +13500,13 @@
         <v>48</v>
       </c>
       <c r="C427" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D427" t="s">
         <v>74</v>
       </c>
       <c r="E427" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="G427">
         <v>1</v>
@@ -13523,13 +13520,13 @@
         <v>48</v>
       </c>
       <c r="C428" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D428" t="s">
         <v>74</v>
       </c>
       <c r="E428" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="G428">
         <v>1</v>
@@ -13543,13 +13540,13 @@
         <v>48</v>
       </c>
       <c r="C429" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D429" t="s">
         <v>74</v>
       </c>
       <c r="E429" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="G429">
         <v>1</v>
@@ -13563,13 +13560,13 @@
         <v>48</v>
       </c>
       <c r="C430" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D430" t="s">
         <v>74</v>
       </c>
       <c r="E430" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="G430">
         <v>1</v>
@@ -13583,13 +13580,13 @@
         <v>48</v>
       </c>
       <c r="C431" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D431" t="s">
         <v>74</v>
       </c>
       <c r="E431" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="G431">
         <v>1</v>
@@ -13603,13 +13600,13 @@
         <v>48</v>
       </c>
       <c r="C432" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="D432" t="s">
         <v>74</v>
       </c>
       <c r="E432" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="G432">
         <v>1</v>
@@ -13623,13 +13620,13 @@
         <v>41</v>
       </c>
       <c r="C433" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D433" t="s">
         <v>74</v>
       </c>
       <c r="E433" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="G433">
         <v>1</v>
@@ -13643,13 +13640,13 @@
         <v>41</v>
       </c>
       <c r="C434" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D434" t="s">
         <v>74</v>
       </c>
       <c r="E434" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="G434">
         <v>1</v>
@@ -13663,13 +13660,13 @@
         <v>41</v>
       </c>
       <c r="C435" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D435" t="s">
         <v>74</v>
       </c>
       <c r="E435" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="G435">
         <v>1</v>
@@ -13683,13 +13680,13 @@
         <v>48</v>
       </c>
       <c r="C436" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D436" t="s">
         <v>74</v>
       </c>
       <c r="E436" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="G436">
         <v>1</v>
@@ -13703,13 +13700,13 @@
         <v>48</v>
       </c>
       <c r="C437" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D437" t="s">
         <v>74</v>
       </c>
       <c r="E437" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="G437">
         <v>1</v>
@@ -13723,13 +13720,13 @@
         <v>48</v>
       </c>
       <c r="C438" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D438" t="s">
         <v>74</v>
       </c>
       <c r="E438" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="G438">
         <v>1</v>
@@ -13743,13 +13740,13 @@
         <v>41</v>
       </c>
       <c r="C439" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D439" t="s">
         <v>74</v>
       </c>
       <c r="E439" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="G439">
         <v>1</v>
@@ -13763,13 +13760,13 @@
         <v>41</v>
       </c>
       <c r="C440" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D440" t="s">
         <v>74</v>
       </c>
       <c r="E440" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="G440">
         <v>1</v>
@@ -13783,13 +13780,13 @@
         <v>41</v>
       </c>
       <c r="C441" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="D441" t="s">
         <v>74</v>
       </c>
       <c r="E441" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="G441">
         <v>1</v>
@@ -13803,13 +13800,13 @@
         <v>41</v>
       </c>
       <c r="C442" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D442" t="s">
         <v>74</v>
       </c>
       <c r="E442" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="G442">
         <v>1</v>
@@ -13823,13 +13820,13 @@
         <v>48</v>
       </c>
       <c r="C443" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D443" t="s">
         <v>74</v>
       </c>
       <c r="E443" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="G443">
         <v>1</v>
@@ -13843,13 +13840,13 @@
         <v>48</v>
       </c>
       <c r="C444" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="D444" t="s">
         <v>74</v>
       </c>
       <c r="E444" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="G444">
         <v>1</v>
@@ -13863,13 +13860,13 @@
         <v>48</v>
       </c>
       <c r="C445" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D445" t="s">
         <v>74</v>
       </c>
       <c r="E445" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="G445">
         <v>1</v>
@@ -13883,13 +13880,13 @@
         <v>41</v>
       </c>
       <c r="C446" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D446" t="s">
         <v>74</v>
       </c>
       <c r="E446" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="G446">
         <v>1</v>
@@ -13903,13 +13900,13 @@
         <v>41</v>
       </c>
       <c r="C447" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="D447" t="s">
         <v>74</v>
       </c>
       <c r="E447" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="G447">
         <v>1</v>
@@ -13923,13 +13920,13 @@
         <v>41</v>
       </c>
       <c r="C448" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D448" t="s">
         <v>74</v>
       </c>
       <c r="E448" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G448">
         <v>1</v>
@@ -13943,13 +13940,13 @@
         <v>41</v>
       </c>
       <c r="C449" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="D449" t="s">
         <v>74</v>
       </c>
       <c r="E449" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="G449">
         <v>1</v>
@@ -13963,13 +13960,13 @@
         <v>41</v>
       </c>
       <c r="C450" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="D450" t="s">
         <v>74</v>
       </c>
       <c r="E450" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="G450">
         <v>1</v>
@@ -13983,13 +13980,13 @@
         <v>41</v>
       </c>
       <c r="C451" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D451" t="s">
         <v>74</v>
       </c>
       <c r="E451" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="G451">
         <v>1</v>
@@ -14003,13 +14000,13 @@
         <v>48</v>
       </c>
       <c r="C452" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="D452" t="s">
         <v>74</v>
       </c>
       <c r="E452" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="G452">
         <v>1</v>
@@ -14023,13 +14020,13 @@
         <v>48</v>
       </c>
       <c r="C453" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="D453" t="s">
         <v>74</v>
       </c>
       <c r="E453" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="G453">
         <v>1</v>
@@ -14043,13 +14040,13 @@
         <v>48</v>
       </c>
       <c r="C454" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D454" t="s">
         <v>74</v>
       </c>
       <c r="E454" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="G454">
         <v>1</v>
@@ -14063,13 +14060,13 @@
         <v>48</v>
       </c>
       <c r="C455" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D455" t="s">
         <v>74</v>
       </c>
       <c r="E455" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="G455">
         <v>1</v>
@@ -14083,13 +14080,13 @@
         <v>48</v>
       </c>
       <c r="C456" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="D456" t="s">
         <v>74</v>
       </c>
       <c r="E456" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="G456">
         <v>1</v>
@@ -14103,13 +14100,13 @@
         <v>48</v>
       </c>
       <c r="C457" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="D457" t="s">
         <v>74</v>
       </c>
       <c r="E457" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="G457">
         <v>1</v>
@@ -14123,13 +14120,13 @@
         <v>48</v>
       </c>
       <c r="C458" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="D458" t="s">
         <v>74</v>
       </c>
       <c r="E458" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="G458">
         <v>1</v>
@@ -14143,13 +14140,13 @@
         <v>41</v>
       </c>
       <c r="C459" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="D459" t="s">
         <v>74</v>
       </c>
       <c r="E459" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="G459">
         <v>1</v>
@@ -14163,13 +14160,13 @@
         <v>48</v>
       </c>
       <c r="C460" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D460" t="s">
         <v>74</v>
       </c>
       <c r="E460" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="G460">
         <v>1</v>
@@ -14183,13 +14180,13 @@
         <v>41</v>
       </c>
       <c r="C461" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D461" t="s">
         <v>74</v>
       </c>
       <c r="E461" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G461">
         <v>1</v>
@@ -14203,13 +14200,13 @@
         <v>41</v>
       </c>
       <c r="C462" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="D462" t="s">
         <v>74</v>
       </c>
       <c r="E462" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="G462">
         <v>1</v>
@@ -14223,13 +14220,13 @@
         <v>41</v>
       </c>
       <c r="C463" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="D463" t="s">
         <v>74</v>
       </c>
       <c r="E463" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="G463">
         <v>1</v>
@@ -14243,13 +14240,13 @@
         <v>41</v>
       </c>
       <c r="C464" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D464" t="s">
         <v>74</v>
       </c>
       <c r="E464" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="G464">
         <v>1</v>
@@ -14263,13 +14260,13 @@
         <v>48</v>
       </c>
       <c r="C465" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="D465" t="s">
         <v>74</v>
       </c>
       <c r="E465" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="G465">
         <v>1</v>
@@ -14283,13 +14280,13 @@
         <v>48</v>
       </c>
       <c r="C466" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="D466" t="s">
         <v>74</v>
       </c>
       <c r="E466" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="G466">
         <v>1</v>
@@ -14303,13 +14300,13 @@
         <v>48</v>
       </c>
       <c r="C467" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D467" t="s">
         <v>74</v>
       </c>
       <c r="E467" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="G467">
         <v>1</v>
@@ -14323,13 +14320,13 @@
         <v>48</v>
       </c>
       <c r="C468" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D468" t="s">
         <v>74</v>
       </c>
       <c r="E468" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="G468">
         <v>1</v>
@@ -14343,13 +14340,13 @@
         <v>48</v>
       </c>
       <c r="C469" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="D469" t="s">
         <v>74</v>
       </c>
       <c r="E469" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="G469">
         <v>1</v>
@@ -14363,13 +14360,13 @@
         <v>41</v>
       </c>
       <c r="C470" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D470" t="s">
         <v>74</v>
       </c>
       <c r="E470" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="G470">
         <v>1</v>
@@ -14383,13 +14380,13 @@
         <v>41</v>
       </c>
       <c r="C471" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="D471" t="s">
         <v>74</v>
       </c>
       <c r="E471" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="G471">
         <v>1</v>
@@ -14403,13 +14400,13 @@
         <v>41</v>
       </c>
       <c r="C472" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D472" t="s">
         <v>74</v>
       </c>
       <c r="E472" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="G472">
         <v>1</v>
@@ -14423,13 +14420,13 @@
         <v>48</v>
       </c>
       <c r="C473" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="D473" t="s">
         <v>74</v>
       </c>
       <c r="E473" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="G473">
         <v>1</v>

--- a/TF.Module/DatabaseUpdate/TF.xlsx
+++ b/TF.Module/DatabaseUpdate/TF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirko\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BCA2D1-21E8-4537-9892-E126E1A6DEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA717D4-EC01-4E7D-9429-E6710C5E3E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{802C2848-CF66-C14E-8907-0699AA2D98C9}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mechanisms!$A$1:$R$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Metrics!$A$1:$L$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Metrics!$A$1:$L$473</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="1120">
   <si>
     <t>Code</t>
   </si>
@@ -3393,6 +3393,46 @@
   </si>
   <si>
     <t>S.ESL.O3</t>
+  </si>
+  <si>
+    <t>0% - Not configurable
+25% - Limited configuration possibilities
+50% - Standard configuration possibilities
+75% - Role-based or advance configuration possibilities
+100% - Capable of handling possible future policy changes</t>
+  </si>
+  <si>
+    <t>Deterrent controls reduce the likelihood of a deliberate attack and is usually in the form of a tangible object or person, as in the case of locks, CCTVs and guards.</t>
+  </si>
+  <si>
+    <t>Preventative measures are intended to be put in place before a threat event in order to lessen the chance and potential consequences of a successful threat event. Policies, standards, protocols, procedures, encryption, firewalls, and physical barriers are a few examples of preventative measures.</t>
+  </si>
+  <si>
+    <t>Detective controls are intended to identify a threat event as it is happening and to aid in inquiries and audits after the event has taken place. Detective controls include things like host and network intrusion detection of threat events, antivirus identification of malicious code, and security event log monitoring.</t>
+  </si>
+  <si>
+    <t>Corrective measures are intended to lessen the possible impact of a threat event after it has already happened and restore regular operations. The automatic eradication of harmful code by antivirus software, business continuity and recovery strategiesare a few examples of corrective controls.</t>
+  </si>
+  <si>
+    <t>A PEP is a system entity that requests authorization decisions and subsequently enforces them. Such entity can be  a software mechanism (such as the access control mechanism of a file system or Web server) or hardware network device that protects (in terms of regulating access to) the resources exposed.</t>
+  </si>
+  <si>
+    <t>The enforcement of the AC methods through client / server protocols ensures a higher level of security and consistency than local enforcements.</t>
+  </si>
+  <si>
+    <t>AC methods should be applied to the totality of system components and applications.</t>
+  </si>
+  <si>
+    <t>Host-based access control specifies which users (or user groups) are permitted to access particular hosts (or host groups) via particular services (or services in a service group). This allows you to restrict access to a particular system in your domain to a specific user group and to permit just a particular service to access the systems in your domain.</t>
+  </si>
+  <si>
+    <t>The organisation defines conditions or trigger events requiring session disconnect, and the information system terminates a user session automatically when the organization-defined criteria or trigger events requiring session disconnect occur.</t>
+  </si>
+  <si>
+    <t>Will the AC system process subject access requests in a timely manner?
+AC enforcement includes the number of operations required to approve a subject's access request and assess the safety (if available) of an access request. 
+Measurement is based on the system model's computational complexity. 
+Administrators should consider the worst-case subject count to evaluate performance.</t>
   </si>
 </sst>
 </file>
@@ -3442,12 +3482,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3765,7 +3806,7 @@
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I2" sqref="I2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4819,8 +4860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9E030-DC72-1242-8D47-8AB6D70A0A27}">
   <dimension ref="A1:L473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4882,8 +4923,23 @@
       <c r="E2" t="s">
         <v>63</v>
       </c>
+      <c r="F2" t="s">
+        <v>1110</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -4902,8 +4958,23 @@
       <c r="E3" t="s">
         <v>64</v>
       </c>
+      <c r="F3" t="s">
+        <v>1111</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4922,8 +4993,23 @@
       <c r="E4" t="s">
         <v>65</v>
       </c>
+      <c r="F4" t="s">
+        <v>1112</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4942,8 +5028,23 @@
       <c r="E5" t="s">
         <v>66</v>
       </c>
+      <c r="F5" t="s">
+        <v>1113</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4962,8 +5063,23 @@
       <c r="E6" t="s">
         <v>67</v>
       </c>
+      <c r="F6" t="s">
+        <v>1114</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -4982,8 +5098,23 @@
       <c r="E7" t="s">
         <v>68</v>
       </c>
+      <c r="F7" t="s">
+        <v>1115</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -5002,8 +5133,23 @@
       <c r="E8" t="s">
         <v>69</v>
       </c>
+      <c r="F8" t="s">
+        <v>1116</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -5022,8 +5168,23 @@
       <c r="E9" t="s">
         <v>70</v>
       </c>
+      <c r="F9" t="s">
+        <v>1117</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -5042,8 +5203,23 @@
       <c r="E10" t="s">
         <v>71</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>1109</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -5062,8 +5238,23 @@
       <c r="E11" t="s">
         <v>72</v>
       </c>
+      <c r="F11" t="s">
+        <v>1118</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -5082,8 +5273,23 @@
       <c r="E12" t="s">
         <v>92</v>
       </c>
+      <c r="F12" t="s">
+        <v>1110</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -5102,8 +5308,23 @@
       <c r="E13" t="s">
         <v>94</v>
       </c>
+      <c r="F13" t="s">
+        <v>1111</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -5122,8 +5343,23 @@
       <c r="E14" t="s">
         <v>96</v>
       </c>
+      <c r="F14" t="s">
+        <v>1112</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -5142,8 +5378,23 @@
       <c r="E15" t="s">
         <v>98</v>
       </c>
+      <c r="F15" t="s">
+        <v>1113</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -5162,11 +5413,26 @@
       <c r="E16" t="s">
         <v>100</v>
       </c>
+      <c r="F16" t="s">
+        <v>1114</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5182,11 +5448,26 @@
       <c r="E17" t="s">
         <v>102</v>
       </c>
+      <c r="F17" s="3" t="s">
+        <v>1119</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -5202,11 +5483,26 @@
       <c r="E18" t="s">
         <v>104</v>
       </c>
+      <c r="F18" s="3" t="s">
+        <v>1119</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -5222,11 +5518,26 @@
       <c r="E19" t="s">
         <v>106</v>
       </c>
+      <c r="F19" s="3" t="s">
+        <v>1119</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -5246,7 +5557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -5269,7 +5580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -5292,7 +5603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -5315,7 +5626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5335,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -5355,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5378,7 +5689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -5398,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -5418,7 +5729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -5438,7 +5749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -5458,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -5478,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -14433,7 +14744,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L94" xr:uid="{A8D9E030-DC72-1242-8D47-8AB6D70A0A27}"/>
+  <autoFilter ref="A1:L473" xr:uid="{A8D9E030-DC72-1242-8D47-8AB6D70A0A27}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TF.Module/DatabaseUpdate/TF.xlsx
+++ b/TF.Module/DatabaseUpdate/TF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirko\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\TF\TF.Module\DatabaseUpdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB22AFA-49D2-459D-9391-D5F2CB881644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9060D868-EE18-49DC-956E-D4288EE3FC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{802C2848-CF66-C14E-8907-0699AA2D98C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{802C2848-CF66-C14E-8907-0699AA2D98C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Mechanisms" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="1511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="1512">
   <si>
     <t>Code</t>
   </si>
@@ -4623,6 +4623,9 @@
   </si>
   <si>
     <t>Error-handling mechanisms deployed.</t>
+  </si>
+  <si>
+    <t>S.FAM.D3</t>
   </si>
 </sst>
 </file>
@@ -5143,7 +5146,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6966,11 +6969,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9E030-DC72-1242-8D47-8AB6D70A0A27}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P476"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomLeft" activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7030,7 +7034,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -7077,7 +7081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -7124,7 +7128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -7171,7 +7175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -7218,7 +7222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -7268,7 +7272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -7315,7 +7319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -7362,7 +7366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -7409,7 +7413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -7456,7 +7460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -7506,7 +7510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -7553,7 +7557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -7600,7 +7604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -7647,7 +7651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -7694,7 +7698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -7741,7 +7745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -7791,7 +7795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -7841,7 +7845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -7891,7 +7895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -7938,7 +7942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -7988,7 +7992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -8038,7 +8042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -8088,7 +8092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -8138,7 +8142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -8185,7 +8189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -8232,7 +8236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -8279,7 +8283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -8326,7 +8330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -8373,7 +8377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -8420,7 +8424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -8467,7 +8471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -8514,7 +8518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -8561,7 +8565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -8608,7 +8612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -8652,7 +8656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -8696,7 +8700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -8740,7 +8744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -8784,7 +8788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -8828,7 +8832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -8872,7 +8876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -8916,7 +8920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -8963,7 +8967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -9010,7 +9014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -9057,7 +9061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -9104,7 +9108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -9151,7 +9155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -9201,7 +9205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -9251,7 +9255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -9301,7 +9305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -9348,7 +9352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -9392,7 +9396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -9436,7 +9440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -9480,7 +9484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -9527,7 +9531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -9568,7 +9572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -9612,7 +9616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -9656,7 +9660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -9700,7 +9704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -9744,7 +9748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -9788,7 +9792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -9832,7 +9836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -9876,7 +9880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -9920,7 +9924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -9964,7 +9968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -10008,7 +10012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -10052,7 +10056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -10096,7 +10100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -10140,7 +10144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -10184,7 +10188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>25</v>
       </c>
@@ -10228,7 +10232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -10272,7 +10276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>25</v>
       </c>
@@ -10316,7 +10320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -10363,7 +10367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -10410,7 +10414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -10457,7 +10461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -10504,7 +10508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -10551,7 +10555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -10598,7 +10602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -10645,7 +10649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -10692,7 +10696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -10736,7 +10740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -10780,7 +10784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -10824,7 +10828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -10868,7 +10872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -10909,7 +10913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>27</v>
       </c>
@@ -10950,7 +10954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>27</v>
       </c>
@@ -10991,7 +10995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -11035,7 +11039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>27</v>
       </c>
@@ -11079,7 +11083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -11123,7 +11127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>28</v>
       </c>
@@ -11164,7 +11168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>28</v>
       </c>
@@ -11205,7 +11209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>28</v>
       </c>
@@ -11246,7 +11250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>28</v>
       </c>
@@ -11290,7 +11294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>28</v>
       </c>
@@ -11334,7 +11338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>28</v>
       </c>
@@ -11378,7 +11382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>29</v>
       </c>
@@ -11425,7 +11429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>29</v>
       </c>
@@ -11472,7 +11476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>29</v>
       </c>
@@ -11519,7 +11523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -11566,7 +11570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>29</v>
       </c>
@@ -11613,7 +11617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>29</v>
       </c>
@@ -11660,7 +11664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>29</v>
       </c>
@@ -11707,7 +11711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>29</v>
       </c>
@@ -11754,7 +11758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -11795,7 +11799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -11836,7 +11840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -11877,7 +11881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -11915,7 +11919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -11953,7 +11957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>30</v>
       </c>
@@ -11988,7 +11992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>30</v>
       </c>
@@ -12029,7 +12033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>30</v>
       </c>
@@ -12070,7 +12074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>30</v>
       </c>
@@ -12111,7 +12115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>30</v>
       </c>
@@ -12152,7 +12156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>30</v>
       </c>
@@ -12193,7 +12197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>30</v>
       </c>
@@ -12234,7 +12238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>30</v>
       </c>
@@ -12275,7 +12279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>31</v>
       </c>
@@ -12316,7 +12320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>31</v>
       </c>
@@ -12357,7 +12361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>31</v>
       </c>
@@ -12401,7 +12405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>31</v>
       </c>
@@ -12442,7 +12446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>31</v>
       </c>
@@ -12486,7 +12490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>31</v>
       </c>
@@ -12527,7 +12531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -12568,7 +12572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>31</v>
       </c>
@@ -12609,7 +12613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -12650,7 +12654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>31</v>
       </c>
@@ -12691,7 +12695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -12732,7 +12736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>32</v>
       </c>
@@ -12776,7 +12780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>32</v>
       </c>
@@ -12820,7 +12824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>32</v>
       </c>
@@ -12864,7 +12868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>32</v>
       </c>
@@ -12908,7 +12912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>32</v>
       </c>
@@ -12952,7 +12956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>32</v>
       </c>
@@ -12996,7 +13000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>32</v>
       </c>
@@ -13043,7 +13047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>32</v>
       </c>
@@ -13087,7 +13091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>32</v>
       </c>
@@ -13131,7 +13135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>32</v>
       </c>
@@ -13175,7 +13179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>32</v>
       </c>
@@ -13219,7 +13223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>32</v>
       </c>
@@ -13269,7 +13273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>32</v>
       </c>
@@ -13319,7 +13323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>32</v>
       </c>
@@ -13366,7 +13370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>32</v>
       </c>
@@ -13416,7 +13420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>32</v>
       </c>
@@ -13466,7 +13470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>32</v>
       </c>
@@ -13516,7 +13520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>32</v>
       </c>
@@ -13566,7 +13570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>32</v>
       </c>
@@ -13712,7 +13716,7 @@
         <v>41</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1030</v>
+        <v>1511</v>
       </c>
       <c r="D150" t="s">
         <v>72</v>
@@ -13917,7 +13921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>34</v>
       </c>
@@ -13961,7 +13965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>34</v>
       </c>
@@ -14002,7 +14006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>34</v>
       </c>
@@ -14046,7 +14050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>34</v>
       </c>
@@ -14087,7 +14091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>34</v>
       </c>
@@ -14131,7 +14135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>34</v>
       </c>
@@ -14175,7 +14179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>34</v>
       </c>
@@ -14219,7 +14223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>34</v>
       </c>
@@ -14263,7 +14267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>34</v>
       </c>
@@ -14307,7 +14311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>34</v>
       </c>
@@ -14351,7 +14355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>34</v>
       </c>
@@ -14392,7 +14396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>35</v>
       </c>
@@ -14439,7 +14443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>35</v>
       </c>
@@ -14483,7 +14487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>35</v>
       </c>
@@ -14524,7 +14528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>35</v>
       </c>
@@ -14568,7 +14572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>35</v>
       </c>
@@ -14612,7 +14616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>35</v>
       </c>
@@ -14656,7 +14660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>35</v>
       </c>
@@ -14700,7 +14704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>35</v>
       </c>
@@ -14744,7 +14748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>35</v>
       </c>
@@ -14788,7 +14792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>35</v>
       </c>
@@ -14829,7 +14833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>35</v>
       </c>
@@ -14876,7 +14880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>35</v>
       </c>
@@ -14920,7 +14924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>35</v>
       </c>
@@ -14964,7 +14968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>35</v>
       </c>
@@ -15008,7 +15012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>35</v>
       </c>
@@ -15052,7 +15056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>35</v>
       </c>
@@ -15096,7 +15100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>35</v>
       </c>
@@ -15140,7 +15144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>35</v>
       </c>
@@ -15181,7 +15185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>35</v>
       </c>
@@ -15225,7 +15229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>35</v>
       </c>
@@ -15269,7 +15273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>35</v>
       </c>
@@ -15313,7 +15317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>35</v>
       </c>
@@ -15357,7 +15361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>35</v>
       </c>
@@ -15401,7 +15405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>35</v>
       </c>
@@ -15445,7 +15449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>36</v>
       </c>
@@ -15489,7 +15493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>36</v>
       </c>
@@ -15533,7 +15537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>36</v>
       </c>
@@ -15577,7 +15581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>36</v>
       </c>
@@ -15621,7 +15625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>36</v>
       </c>
@@ -15665,7 +15669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>36</v>
       </c>
@@ -15709,7 +15713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>36</v>
       </c>
@@ -15753,7 +15757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>36</v>
       </c>
@@ -15794,7 +15798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>36</v>
       </c>
@@ -15838,7 +15842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>36</v>
       </c>
@@ -15882,7 +15886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>36</v>
       </c>
@@ -15926,7 +15930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>36</v>
       </c>
@@ -15967,7 +15971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>36</v>
       </c>
@@ -16011,7 +16015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>36</v>
       </c>
@@ -16052,7 +16056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>36</v>
       </c>
@@ -16093,7 +16097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>36</v>
       </c>
@@ -16134,7 +16138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>36</v>
       </c>
@@ -16175,7 +16179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>36</v>
       </c>
@@ -16219,7 +16223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>36</v>
       </c>
@@ -16263,7 +16267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>36</v>
       </c>
@@ -16307,7 +16311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>36</v>
       </c>
@@ -16351,7 +16355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>36</v>
       </c>
@@ -16395,7 +16399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>609</v>
       </c>
@@ -16439,7 +16443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>609</v>
       </c>
@@ -16483,7 +16487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>609</v>
       </c>
@@ -16527,7 +16531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>609</v>
       </c>
@@ -16571,7 +16575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>609</v>
       </c>
@@ -16615,7 +16619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>609</v>
       </c>
@@ -16659,7 +16663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>609</v>
       </c>
@@ -16703,7 +16707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>118</v>
       </c>
@@ -16747,7 +16751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>118</v>
       </c>
@@ -16791,7 +16795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>118</v>
       </c>
@@ -16838,7 +16842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>118</v>
       </c>
@@ -16882,7 +16886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>118</v>
       </c>
@@ -16926,7 +16930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>118</v>
       </c>
@@ -16970,7 +16974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>118</v>
       </c>
@@ -17014,7 +17018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>118</v>
       </c>
@@ -17061,7 +17065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>118</v>
       </c>
@@ -17105,7 +17109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>118</v>
       </c>
@@ -17149,7 +17153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>118</v>
       </c>
@@ -17196,7 +17200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>118</v>
       </c>
@@ -17240,7 +17244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>118</v>
       </c>
@@ -17284,7 +17288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>118</v>
       </c>
@@ -17331,7 +17335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>119</v>
       </c>
@@ -17372,7 +17376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>119</v>
       </c>
@@ -17413,7 +17417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>119</v>
       </c>
@@ -17454,7 +17458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>119</v>
       </c>
@@ -17495,7 +17499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>119</v>
       </c>
@@ -17536,7 +17540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>119</v>
       </c>
@@ -17577,7 +17581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>119</v>
       </c>
@@ -17618,7 +17622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>119</v>
       </c>
@@ -17659,7 +17663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>119</v>
       </c>
@@ -17703,7 +17707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>122</v>
       </c>
@@ -17741,7 +17745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>122</v>
       </c>
@@ -17779,7 +17783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>122</v>
       </c>
@@ -17817,7 +17821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>122</v>
       </c>
@@ -17855,7 +17859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>122</v>
       </c>
@@ -17893,7 +17897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>122</v>
       </c>
@@ -17931,7 +17935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>122</v>
       </c>
@@ -17972,7 +17976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>122</v>
       </c>
@@ -18010,7 +18014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>122</v>
       </c>
@@ -18048,7 +18052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>122</v>
       </c>
@@ -18086,7 +18090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>122</v>
       </c>
@@ -18124,7 +18128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>122</v>
       </c>
@@ -18162,7 +18166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>123</v>
       </c>
@@ -18203,7 +18207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>123</v>
       </c>
@@ -18244,7 +18248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>123</v>
       </c>
@@ -18285,7 +18289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>123</v>
       </c>
@@ -18326,7 +18330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>123</v>
       </c>
@@ -18367,7 +18371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>123</v>
       </c>
@@ -18408,7 +18412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>126</v>
       </c>
@@ -18452,7 +18456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>126</v>
       </c>
@@ -18493,7 +18497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>126</v>
       </c>
@@ -18534,7 +18538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>126</v>
       </c>
@@ -18575,7 +18579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>126</v>
       </c>
@@ -18616,7 +18620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>126</v>
       </c>
@@ -18660,7 +18664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>126</v>
       </c>
@@ -18704,7 +18708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>126</v>
       </c>
@@ -18748,7 +18752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>126</v>
       </c>
@@ -18792,7 +18796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>126</v>
       </c>
@@ -18833,7 +18837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>126</v>
       </c>
@@ -18874,7 +18878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>129</v>
       </c>
@@ -18912,7 +18916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>129</v>
       </c>
@@ -18953,7 +18957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>129</v>
       </c>
@@ -18994,7 +18998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>129</v>
       </c>
@@ -19035,7 +19039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>127</v>
       </c>
@@ -19085,7 +19089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>127</v>
       </c>
@@ -19129,7 +19133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>127</v>
       </c>
@@ -19173,7 +19177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>127</v>
       </c>
@@ -19220,7 +19224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>127</v>
       </c>
@@ -19264,7 +19268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>127</v>
       </c>
@@ -19308,7 +19312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>127</v>
       </c>
@@ -19346,7 +19350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>127</v>
       </c>
@@ -19384,7 +19388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>127</v>
       </c>
@@ -19422,7 +19426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>127</v>
       </c>
@@ -19460,7 +19464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>127</v>
       </c>
@@ -19498,7 +19502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>127</v>
       </c>
@@ -19536,7 +19540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>124</v>
       </c>
@@ -19577,7 +19581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>124</v>
       </c>
@@ -19618,7 +19622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>124</v>
       </c>
@@ -19659,7 +19663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>124</v>
       </c>
@@ -19700,7 +19704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>124</v>
       </c>
@@ -19741,7 +19745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>124</v>
       </c>
@@ -19782,7 +19786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>124</v>
       </c>
@@ -19823,7 +19827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>124</v>
       </c>
@@ -19867,7 +19871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>124</v>
       </c>
@@ -19911,7 +19915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>124</v>
       </c>
@@ -19952,7 +19956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>128</v>
       </c>
@@ -19993,7 +19997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>128</v>
       </c>
@@ -20034,7 +20038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>128</v>
       </c>
@@ -20075,7 +20079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>128</v>
       </c>
@@ -20116,7 +20120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>128</v>
       </c>
@@ -20163,7 +20167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>128</v>
       </c>
@@ -20210,7 +20214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>128</v>
       </c>
@@ -20257,7 +20261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>128</v>
       </c>
@@ -20304,7 +20308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>132</v>
       </c>
@@ -20348,7 +20352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>132</v>
       </c>
@@ -20389,7 +20393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>132</v>
       </c>
@@ -20430,7 +20434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>132</v>
       </c>
@@ -20474,7 +20478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>132</v>
       </c>
@@ -20515,7 +20519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>132</v>
       </c>
@@ -20553,7 +20557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>132</v>
       </c>
@@ -20591,7 +20595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>132</v>
       </c>
@@ -20629,7 +20633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>125</v>
       </c>
@@ -20667,7 +20671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>125</v>
       </c>
@@ -20711,7 +20715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>125</v>
       </c>
@@ -20755,7 +20759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>125</v>
       </c>
@@ -20799,7 +20803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>125</v>
       </c>
@@ -20843,7 +20847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>125</v>
       </c>
@@ -20887,7 +20891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>160</v>
       </c>
@@ -20928,7 +20932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>160</v>
       </c>
@@ -20969,7 +20973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>160</v>
       </c>
@@ -21010,7 +21014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>161</v>
       </c>
@@ -21051,7 +21055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>161</v>
       </c>
@@ -21092,7 +21096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>161</v>
       </c>
@@ -21133,7 +21137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>161</v>
       </c>
@@ -21174,7 +21178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>161</v>
       </c>
@@ -21215,7 +21219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>161</v>
       </c>
@@ -21259,7 +21263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>161</v>
       </c>
@@ -21300,7 +21304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>161</v>
       </c>
@@ -21341,7 +21345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>162</v>
       </c>
@@ -21382,7 +21386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>162</v>
       </c>
@@ -21423,7 +21427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>162</v>
       </c>
@@ -21464,7 +21468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>162</v>
       </c>
@@ -21505,7 +21509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>162</v>
       </c>
@@ -21546,7 +21550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>162</v>
       </c>
@@ -21587,7 +21591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>163</v>
       </c>
@@ -21625,7 +21629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>163</v>
       </c>
@@ -21663,7 +21667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>163</v>
       </c>
@@ -21701,7 +21705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>163</v>
       </c>
@@ -21739,7 +21743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>163</v>
       </c>
@@ -21780,7 +21784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>163</v>
       </c>
@@ -21821,7 +21825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>163</v>
       </c>
@@ -21862,7 +21866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>170</v>
       </c>
@@ -21906,7 +21910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>170</v>
       </c>
@@ -21950,7 +21954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>170</v>
       </c>
@@ -21994,7 +21998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>170</v>
       </c>
@@ -22038,7 +22042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>170</v>
       </c>
@@ -22085,7 +22089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>170</v>
       </c>
@@ -22132,7 +22136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>170</v>
       </c>
@@ -22179,7 +22183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>170</v>
       </c>
@@ -22226,7 +22230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>170</v>
       </c>
@@ -22273,7 +22277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>170</v>
       </c>
@@ -22320,7 +22324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>171</v>
       </c>
@@ -22358,7 +22362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>171</v>
       </c>
@@ -22399,7 +22403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>171</v>
       </c>
@@ -22440,7 +22444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>171</v>
       </c>
@@ -22481,7 +22485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>173</v>
       </c>
@@ -22519,7 +22523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>173</v>
       </c>
@@ -22557,7 +22561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>173</v>
       </c>
@@ -22595,7 +22599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>173</v>
       </c>
@@ -22633,7 +22637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>173</v>
       </c>
@@ -22677,7 +22681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>173</v>
       </c>
@@ -22721,7 +22725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>173</v>
       </c>
@@ -22762,7 +22766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>173</v>
       </c>
@@ -22803,7 +22807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>174</v>
       </c>
@@ -22844,7 +22848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>174</v>
       </c>
@@ -22885,7 +22889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>174</v>
       </c>
@@ -22926,7 +22930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>174</v>
       </c>
@@ -22967,7 +22971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>174</v>
       </c>
@@ -23008,7 +23012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>174</v>
       </c>
@@ -23046,7 +23050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>194</v>
       </c>
@@ -23084,7 +23088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>194</v>
       </c>
@@ -23122,7 +23126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>194</v>
       </c>
@@ -23160,7 +23164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>194</v>
       </c>
@@ -23198,7 +23202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>194</v>
       </c>
@@ -23236,7 +23240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>195</v>
       </c>
@@ -23277,7 +23281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>195</v>
       </c>
@@ -23318,7 +23322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>195</v>
       </c>
@@ -23359,7 +23363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>195</v>
       </c>
@@ -23400,7 +23404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>195</v>
       </c>
@@ -23441,7 +23445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>195</v>
       </c>
@@ -23482,7 +23486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>196</v>
       </c>
@@ -23523,7 +23527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>196</v>
       </c>
@@ -23564,7 +23568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>196</v>
       </c>
@@ -23605,7 +23609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>196</v>
       </c>
@@ -23646,7 +23650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>196</v>
       </c>
@@ -23687,7 +23691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>196</v>
       </c>
@@ -23728,7 +23732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>196</v>
       </c>
@@ -23769,7 +23773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>196</v>
       </c>
@@ -23810,7 +23814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>196</v>
       </c>
@@ -23851,7 +23855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>196</v>
       </c>
@@ -23892,7 +23896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>196</v>
       </c>
@@ -23933,7 +23937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>196</v>
       </c>
@@ -23974,7 +23978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>196</v>
       </c>
@@ -24018,7 +24022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>196</v>
       </c>
@@ -24059,7 +24063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>196</v>
       </c>
@@ -24100,7 +24104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>197</v>
       </c>
@@ -24141,7 +24145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>197</v>
       </c>
@@ -24182,7 +24186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>197</v>
       </c>
@@ -24223,7 +24227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>197</v>
       </c>
@@ -24264,7 +24268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>197</v>
       </c>
@@ -24305,7 +24309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>197</v>
       </c>
@@ -24343,7 +24347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>197</v>
       </c>
@@ -24381,7 +24385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>198</v>
       </c>
@@ -24419,7 +24423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>198</v>
       </c>
@@ -24457,7 +24461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>198</v>
       </c>
@@ -24495,7 +24499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>198</v>
       </c>
@@ -24533,7 +24537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>198</v>
       </c>
@@ -24571,7 +24575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>198</v>
       </c>
@@ -24609,7 +24613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>198</v>
       </c>
@@ -24647,7 +24651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>198</v>
       </c>
@@ -24685,7 +24689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>199</v>
       </c>
@@ -24723,7 +24727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>199</v>
       </c>
@@ -24761,7 +24765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>199</v>
       </c>
@@ -24805,7 +24809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>199</v>
       </c>
@@ -24849,7 +24853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>199</v>
       </c>
@@ -24893,7 +24897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>199</v>
       </c>
@@ -24937,7 +24941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>199</v>
       </c>
@@ -24981,7 +24985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1438</v>
       </c>
@@ -25019,7 +25023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1438</v>
       </c>
@@ -25057,7 +25061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1438</v>
       </c>
@@ -25095,7 +25099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1438</v>
       </c>
@@ -25133,7 +25137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1438</v>
       </c>
@@ -25171,7 +25175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1438</v>
       </c>
@@ -25209,7 +25213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1438</v>
       </c>
@@ -25247,7 +25251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1438</v>
       </c>
@@ -25285,7 +25289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1438</v>
       </c>
@@ -25323,7 +25327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1438</v>
       </c>
@@ -25361,7 +25365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1438</v>
       </c>
@@ -25399,7 +25403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1438</v>
       </c>
@@ -25437,7 +25441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>200</v>
       </c>
@@ -25478,7 +25482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>200</v>
       </c>
@@ -25516,7 +25520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>200</v>
       </c>
@@ -25554,7 +25558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>200</v>
       </c>
@@ -25592,7 +25596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>200</v>
       </c>
@@ -25630,7 +25634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>200</v>
       </c>
@@ -25668,7 +25672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>201</v>
       </c>
@@ -25703,7 +25707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>201</v>
       </c>
@@ -25738,7 +25742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>201</v>
       </c>
@@ -25773,7 +25777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>201</v>
       </c>
@@ -25808,7 +25812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>201</v>
       </c>
@@ -25843,7 +25847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>201</v>
       </c>
@@ -25878,7 +25882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>201</v>
       </c>
@@ -25913,7 +25917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>201</v>
       </c>
@@ -25948,7 +25952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>201</v>
       </c>
@@ -25983,7 +25987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>201</v>
       </c>
@@ -26018,7 +26022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>201</v>
       </c>
@@ -26053,7 +26057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>201</v>
       </c>
@@ -26088,7 +26092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>201</v>
       </c>
@@ -26123,7 +26127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>201</v>
       </c>
@@ -26158,7 +26162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>201</v>
       </c>
@@ -26193,7 +26197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>201</v>
       </c>
@@ -26228,7 +26232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>201</v>
       </c>
@@ -26263,7 +26267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>201</v>
       </c>
@@ -26298,7 +26302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>201</v>
       </c>
@@ -26333,7 +26337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>201</v>
       </c>
@@ -26368,7 +26372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>202</v>
       </c>
@@ -26400,7 +26404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>202</v>
       </c>
@@ -26432,7 +26436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>203</v>
       </c>
@@ -26473,7 +26477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>203</v>
       </c>
@@ -26514,7 +26518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>203</v>
       </c>
@@ -26555,7 +26559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>203</v>
       </c>
@@ -26596,7 +26600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>203</v>
       </c>
@@ -26637,7 +26641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>203</v>
       </c>
@@ -26678,7 +26682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>203</v>
       </c>
@@ -26719,7 +26723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>203</v>
       </c>
@@ -26760,7 +26764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>203</v>
       </c>
@@ -26801,7 +26805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>204</v>
       </c>
@@ -26833,7 +26837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>204</v>
       </c>
@@ -26865,7 +26869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>204</v>
       </c>
@@ -26897,7 +26901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>204</v>
       </c>
@@ -26929,7 +26933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>172</v>
       </c>
@@ -26963,7 +26967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>172</v>
       </c>
@@ -26997,7 +27001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>172</v>
       </c>
@@ -27031,7 +27035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>172</v>
       </c>
@@ -27067,6 +27071,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M476" xr:uid="{A8D9E030-DC72-1242-8D47-8AB6D70A0A27}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="S.FAM"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A438:M457">
       <sortCondition ref="B1:B476"/>
     </sortState>

--- a/TF.Module/DatabaseUpdate/TF.xlsx
+++ b/TF.Module/DatabaseUpdate/TF.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\TF\TF.Module\DatabaseUpdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9060D868-EE18-49DC-956E-D4288EE3FC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241746F6-4E7C-4CEF-89F7-363747E8E7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{802C2848-CF66-C14E-8907-0699AA2D98C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{802C2848-CF66-C14E-8907-0699AA2D98C9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mechanisms" sheetId="1" r:id="rId1"/>
-    <sheet name="Metrics" sheetId="3" r:id="rId2"/>
+    <sheet name="Main" sheetId="4" r:id="rId1"/>
+    <sheet name="Mechanisms" sheetId="1" r:id="rId2"/>
+    <sheet name="Metrics" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mechanisms!$A$1:$R$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Metrics!$A$1:$M$476</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mechanisms!$A$1:$R$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Metrics!$A$1:$M$476</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="1512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3161" uniqueCount="1513">
   <si>
     <t>Code</t>
   </si>
@@ -4626,6 +4627,9 @@
   </si>
   <si>
     <t>S.FAM.D3</t>
+  </si>
+  <si>
+    <t>Created On:</t>
   </si>
 </sst>
 </file>
@@ -4684,13 +4688,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5153,11 +5158,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CA0E7B-372D-4E60-B459-EF21C7B1F8C2}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B1" s="4">
+        <v>45016</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81902B2-D680-544E-8D15-2C5362A2301D}">
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="L52" sqref="L52"/>
     </sheetView>
@@ -6967,14 +6999,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9E030-DC72-1242-8D47-8AB6D70A0A27}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P476"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C151" sqref="C151"/>
+      <selection pane="bottomLeft" activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/TF.Module/DatabaseUpdate/TF.xlsx
+++ b/TF.Module/DatabaseUpdate/TF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\TF\TF.Module\DatabaseUpdate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirko\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CBAC8B-6494-4886-9BFE-69764ED7C666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D720E68-CE86-4C3F-A827-A5D6B5C21AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{802C2848-CF66-C14E-8907-0699AA2D98C9}"/>
+    <workbookView xWindow="2955" yWindow="1845" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{802C2848-CF66-C14E-8907-0699AA2D98C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5612" uniqueCount="1921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5993" uniqueCount="1925">
   <si>
     <t>Pillar</t>
   </si>
@@ -7033,9 +7033,6 @@
     <t>S.FAM.D3</t>
   </si>
   <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
     <t>RES.IDR.D2</t>
   </si>
   <si>
@@ -7067,6 +7064,21 @@
   </si>
   <si>
     <t>RES.IDR.O6</t>
+  </si>
+  <si>
+    <t>MandatoryCaps</t>
+  </si>
+  <si>
+    <t>100-100</t>
+  </si>
+  <si>
+    <t>Mechanism</t>
+  </si>
+  <si>
+    <t>0-100</t>
+  </si>
+  <si>
+    <t>50-100</t>
   </si>
 </sst>
 </file>
@@ -7110,12 +7122,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -7131,7 +7149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7142,6 +7160,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7600,9 +7631,9 @@
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9415,21 +9446,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9E030-DC72-1242-8D47-8AB6D70A0A27}">
-  <dimension ref="A1:Q381"/>
+  <dimension ref="A1:U381"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="61.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.625" customWidth="1"/>
-    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="18.875" style="8" customWidth="1"/>
+    <col min="10" max="19" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>371</v>
       </c>
@@ -9454,8 +9489,8 @@
       <c r="H1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>1909</v>
+      <c r="I1" s="6" t="s">
+        <v>1920</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>376</v>
@@ -9481,8 +9516,12 @@
       <c r="Q1" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T1" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>288</v>
       </c>
@@ -9507,8 +9546,8 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>0</v>
+      <c r="I2" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -9529,7 +9568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>288</v>
       </c>
@@ -9554,8 +9593,8 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>0</v>
+      <c r="I3" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -9576,7 +9615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>288</v>
       </c>
@@ -9601,8 +9640,8 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
+      <c r="I4" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -9623,7 +9662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>288</v>
       </c>
@@ -9648,8 +9687,8 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>0</v>
+      <c r="I5" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -9672,8 +9711,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A5,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T5" t="str">
+        <f>VLOOKUP(A5,Mechanisms!B:C,2,FALSE)</f>
+        <v>Audit-trail on how the Identity was used</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>288</v>
       </c>
@@ -9698,8 +9741,8 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>0</v>
+      <c r="I6" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -9722,8 +9765,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A6,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T6" t="str">
+        <f>VLOOKUP(A6,Mechanisms!B:C,2,FALSE)</f>
+        <v>Audit-trail on how the Identity was used</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>288</v>
       </c>
@@ -9748,8 +9795,8 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>0</v>
+      <c r="I7" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -9772,8 +9819,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A7,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T7" t="str">
+        <f>VLOOKUP(A7,Mechanisms!B:C,2,FALSE)</f>
+        <v>Audit-trail on how the Identity was used</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>296</v>
       </c>
@@ -9798,8 +9849,8 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>0</v>
+      <c r="I8" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -9823,7 +9874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -9848,8 +9899,8 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>0</v>
+      <c r="I9" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -9869,8 +9920,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A9,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T9" t="str">
+        <f>VLOOKUP(A9,Mechanisms!B:C,2,FALSE)</f>
+        <v>Decisions are made in an appropriate manner based on users' consent</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>268</v>
       </c>
@@ -9895,8 +9950,8 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>0</v>
+      <c r="I10" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -9920,7 +9975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>268</v>
       </c>
@@ -9945,8 +10000,8 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>0</v>
+      <c r="I11" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9970,7 +10025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>268</v>
       </c>
@@ -9995,8 +10050,8 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>0</v>
+      <c r="I12" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -10020,7 +10075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>268</v>
       </c>
@@ -10045,8 +10100,8 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>0</v>
+      <c r="I13" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -10070,7 +10125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>268</v>
       </c>
@@ -10095,8 +10150,8 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>0</v>
+      <c r="I14" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -10122,8 +10177,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A14,Mechanisms!B:B,0)-1,0))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T14" t="str">
+        <f>VLOOKUP(A14,Mechanisms!B:C,2,FALSE)</f>
+        <v>Data and process provenance</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>268</v>
       </c>
@@ -10148,8 +10207,8 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>0</v>
+      <c r="I15" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -10175,8 +10234,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A15,Mechanisms!B:B,0)-1,0))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T15" t="str">
+        <f>VLOOKUP(A15,Mechanisms!B:C,2,FALSE)</f>
+        <v>Data and process provenance</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>268</v>
       </c>
@@ -10189,7 +10252,7 @@
       <c r="D16" t="s">
         <v>386</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="10" t="s">
         <v>422</v>
       </c>
       <c r="F16" t="s">
@@ -10201,8 +10264,8 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>0</v>
+      <c r="I16" s="9" t="s">
+        <v>1923</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -10228,8 +10291,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A16,Mechanisms!B:B,0)-1,0))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T16" t="str">
+        <f>VLOOKUP(A16,Mechanisms!B:C,2,FALSE)</f>
+        <v>Data and process provenance</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>268</v>
       </c>
@@ -10254,8 +10321,8 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>0</v>
+      <c r="I17" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -10281,8 +10348,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A17,Mechanisms!B:B,0)-1,0))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T17" t="str">
+        <f>VLOOKUP(A17,Mechanisms!B:C,2,FALSE)</f>
+        <v>Data and process provenance</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>268</v>
       </c>
@@ -10295,7 +10366,7 @@
       <c r="D18" t="s">
         <v>386</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="10" t="s">
         <v>426</v>
       </c>
       <c r="F18" t="s">
@@ -10307,8 +10378,8 @@
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>0</v>
+      <c r="I18" s="9" t="s">
+        <v>1923</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -10334,8 +10405,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A18,Mechanisms!B:B,0)-1,0))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T18" t="str">
+        <f>VLOOKUP(A18,Mechanisms!B:C,2,FALSE)</f>
+        <v>Data and process provenance</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>268</v>
       </c>
@@ -10360,8 +10435,8 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>0</v>
+      <c r="I19" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -10387,8 +10462,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A19,Mechanisms!B:B,0)-1,0))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T19" t="str">
+        <f>VLOOKUP(A19,Mechanisms!B:C,2,FALSE)</f>
+        <v>Data and process provenance</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>277</v>
       </c>
@@ -10413,8 +10492,8 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>0</v>
+      <c r="I20" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -10437,8 +10516,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A20,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T20" t="str">
+        <f>VLOOKUP(A20,Mechanisms!B:C,2,FALSE)</f>
+        <v>Evidence of user empowerment to monitor use and potential misuse</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>277</v>
       </c>
@@ -10451,7 +10534,7 @@
       <c r="D21" t="s">
         <v>386</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="10" t="s">
         <v>432</v>
       </c>
       <c r="F21" t="s">
@@ -10463,8 +10546,8 @@
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>0</v>
+      <c r="I21" s="9" t="s">
+        <v>1923</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -10487,8 +10570,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A21,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T21" t="str">
+        <f>VLOOKUP(A21,Mechanisms!B:C,2,FALSE)</f>
+        <v>Evidence of user empowerment to monitor use and potential misuse</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>282</v>
       </c>
@@ -10513,8 +10600,8 @@
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>0</v>
+      <c r="I22" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -10535,7 +10622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>282</v>
       </c>
@@ -10560,8 +10647,8 @@
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>0</v>
+      <c r="I23" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -10582,7 +10669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -10607,8 +10694,8 @@
       <c r="H24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>0</v>
+      <c r="I24" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -10632,7 +10719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>142</v>
       </c>
@@ -10657,8 +10744,8 @@
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>0</v>
+      <c r="I25" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -10682,7 +10769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -10695,7 +10782,7 @@
       <c r="D26" t="s">
         <v>386</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="10" t="s">
         <v>443</v>
       </c>
       <c r="F26" t="s">
@@ -10707,8 +10794,8 @@
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>0</v>
+      <c r="I26" s="9" t="s">
+        <v>1923</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -10731,8 +10818,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A26,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T26" t="str">
+        <f>VLOOKUP(A26,Mechanisms!B:C,2,FALSE)</f>
+        <v>Collection and Data minimisation</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -10757,8 +10848,8 @@
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>0</v>
+      <c r="I27" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -10781,8 +10872,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A27,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T27" t="str">
+        <f>VLOOKUP(A27,Mechanisms!B:C,2,FALSE)</f>
+        <v>Collection and Data minimisation</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -10807,8 +10902,8 @@
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28">
-        <v>0</v>
+      <c r="I28" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -10831,8 +10926,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A28,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T28" t="str">
+        <f>VLOOKUP(A28,Mechanisms!B:C,2,FALSE)</f>
+        <v>Collection and Data minimisation</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>180</v>
       </c>
@@ -10857,8 +10956,8 @@
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>0</v>
+      <c r="I29" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -10882,7 +10981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>180</v>
       </c>
@@ -10907,8 +11006,8 @@
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30">
-        <v>0</v>
+      <c r="I30" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -10932,7 +11031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>180</v>
       </c>
@@ -10957,8 +11056,8 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31">
-        <v>0</v>
+      <c r="I31" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -10982,7 +11081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>180</v>
       </c>
@@ -11007,8 +11106,8 @@
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32">
-        <v>0</v>
+      <c r="I32" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -11032,7 +11131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>180</v>
       </c>
@@ -11057,8 +11156,8 @@
       <c r="H33">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>0</v>
+      <c r="I33" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -11082,7 +11181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>180</v>
       </c>
@@ -11107,8 +11206,8 @@
       <c r="H34">
         <v>1</v>
       </c>
-      <c r="I34">
-        <v>0</v>
+      <c r="I34" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -11131,8 +11230,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A34,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T34" t="str">
+        <f>VLOOKUP(A34,Mechanisms!B:C,2,FALSE)</f>
+        <v>ID attributes collected fit for scope and purpose</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>180</v>
       </c>
@@ -11145,7 +11248,7 @@
       <c r="D35" t="s">
         <v>386</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="10" t="s">
         <v>466</v>
       </c>
       <c r="F35" t="s">
@@ -11154,8 +11257,8 @@
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="I35">
-        <v>0</v>
+      <c r="I35" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -11178,8 +11281,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A35,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T35" t="str">
+        <f>VLOOKUP(A35,Mechanisms!B:C,2,FALSE)</f>
+        <v>ID attributes collected fit for scope and purpose</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>180</v>
       </c>
@@ -11204,8 +11311,8 @@
       <c r="H36">
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>0</v>
+      <c r="I36" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -11228,8 +11335,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A36,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T36" t="str">
+        <f>VLOOKUP(A36,Mechanisms!B:C,2,FALSE)</f>
+        <v>ID attributes collected fit for scope and purpose</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>180</v>
       </c>
@@ -11251,8 +11362,8 @@
       <c r="H37">
         <v>1</v>
       </c>
-      <c r="I37">
-        <v>0</v>
+      <c r="I37" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -11275,8 +11386,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A37,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T37" t="str">
+        <f>VLOOKUP(A37,Mechanisms!B:C,2,FALSE)</f>
+        <v>ID attributes collected fit for scope and purpose</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -11298,8 +11413,8 @@
       <c r="H38">
         <v>1</v>
       </c>
-      <c r="I38">
-        <v>0</v>
+      <c r="I38" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -11322,8 +11437,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A38,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T38" t="str">
+        <f>VLOOKUP(A38,Mechanisms!B:C,2,FALSE)</f>
+        <v>ID attributes collected fit for scope and purpose</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>180</v>
       </c>
@@ -11348,8 +11467,8 @@
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="I39">
-        <v>0</v>
+      <c r="I39" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -11372,8 +11491,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A39,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T39" t="str">
+        <f>VLOOKUP(A39,Mechanisms!B:C,2,FALSE)</f>
+        <v>ID attributes collected fit for scope and purpose</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -11398,8 +11521,8 @@
       <c r="H40">
         <v>1</v>
       </c>
-      <c r="I40">
-        <v>0</v>
+      <c r="I40" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -11420,7 +11543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>160</v>
       </c>
@@ -11445,8 +11568,8 @@
       <c r="H41">
         <v>1</v>
       </c>
-      <c r="I41">
-        <v>0</v>
+      <c r="I41" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -11467,7 +11590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -11489,8 +11612,8 @@
       <c r="H42">
         <v>1</v>
       </c>
-      <c r="I42">
-        <v>0</v>
+      <c r="I42" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -11510,8 +11633,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A42,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T42" t="str">
+        <f>VLOOKUP(A42,Mechanisms!B:C,2,FALSE)</f>
+        <v>Limited attribute retention</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>160</v>
       </c>
@@ -11533,8 +11660,8 @@
       <c r="H43">
         <v>1</v>
       </c>
-      <c r="I43">
-        <v>0</v>
+      <c r="I43" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -11554,8 +11681,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A43,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T43" t="str">
+        <f>VLOOKUP(A43,Mechanisms!B:C,2,FALSE)</f>
+        <v>Limited attribute retention</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -11577,8 +11708,8 @@
       <c r="H44">
         <v>1</v>
       </c>
-      <c r="I44">
-        <v>0</v>
+      <c r="I44" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -11598,8 +11729,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A44,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T44" t="str">
+        <f>VLOOKUP(A44,Mechanisms!B:C,2,FALSE)</f>
+        <v>Limited attribute retention</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>160</v>
       </c>
@@ -11621,8 +11756,8 @@
       <c r="H45">
         <v>1</v>
       </c>
-      <c r="I45">
-        <v>0</v>
+      <c r="I45" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -11642,8 +11777,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A45,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T45" t="str">
+        <f>VLOOKUP(A45,Mechanisms!B:C,2,FALSE)</f>
+        <v>Limited attribute retention</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>160</v>
       </c>
@@ -11668,8 +11807,8 @@
       <c r="H46">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>0</v>
+      <c r="I46" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -11689,8 +11828,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A46,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T46" t="str">
+        <f>VLOOKUP(A46,Mechanisms!B:C,2,FALSE)</f>
+        <v>Limited attribute retention</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>194</v>
       </c>
@@ -11715,8 +11858,8 @@
       <c r="H47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>0</v>
+      <c r="I47" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -11743,7 +11886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>194</v>
       </c>
@@ -11768,8 +11911,8 @@
       <c r="H48">
         <v>1</v>
       </c>
-      <c r="I48">
-        <v>0</v>
+      <c r="I48" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -11796,7 +11939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>194</v>
       </c>
@@ -11818,8 +11961,8 @@
       <c r="H49">
         <v>1</v>
       </c>
-      <c r="I49">
-        <v>0</v>
+      <c r="I49" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -11846,7 +11989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>194</v>
       </c>
@@ -11868,8 +12011,8 @@
       <c r="H50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>0</v>
+      <c r="I50" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -11896,7 +12039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -11918,8 +12061,8 @@
       <c r="H51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>0</v>
+      <c r="I51" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -11939,8 +12082,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A51,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T51" t="str">
+        <f>VLOOKUP(A51,Mechanisms!B:C,2,FALSE)</f>
+        <v>Privacy Impact Assessment (PIA)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -11953,7 +12100,7 @@
       <c r="D52" t="s">
         <v>386</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="10" t="s">
         <v>513</v>
       </c>
       <c r="F52" t="s">
@@ -11965,8 +12112,8 @@
       <c r="H52">
         <v>1</v>
       </c>
-      <c r="I52">
-        <v>0</v>
+      <c r="I52" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -11986,8 +12133,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A52,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T52" t="str">
+        <f>VLOOKUP(A52,Mechanisms!B:C,2,FALSE)</f>
+        <v>Privacy Impact Assessment (PIA)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -12009,8 +12160,8 @@
       <c r="H53">
         <v>1</v>
       </c>
-      <c r="I53">
-        <v>0</v>
+      <c r="I53" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -12030,8 +12181,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A53,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T53" t="str">
+        <f>VLOOKUP(A53,Mechanisms!B:C,2,FALSE)</f>
+        <v>Privacy Impact Assessment (PIA)</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>194</v>
       </c>
@@ -12044,7 +12199,7 @@
       <c r="D54" t="s">
         <v>386</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="10" t="s">
         <v>517</v>
       </c>
       <c r="F54" t="s">
@@ -12053,8 +12208,8 @@
       <c r="H54">
         <v>1</v>
       </c>
-      <c r="I54">
-        <v>0</v>
+      <c r="I54" s="9" t="s">
+        <v>1923</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -12074,8 +12229,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A54,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T54" t="str">
+        <f>VLOOKUP(A54,Mechanisms!B:C,2,FALSE)</f>
+        <v>Privacy Impact Assessment (PIA)</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>194</v>
       </c>
@@ -12097,8 +12256,8 @@
       <c r="H55">
         <v>1</v>
       </c>
-      <c r="I55">
-        <v>0</v>
+      <c r="I55" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -12118,8 +12277,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A55,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T55" t="str">
+        <f>VLOOKUP(A55,Mechanisms!B:C,2,FALSE)</f>
+        <v>Privacy Impact Assessment (PIA)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>202</v>
       </c>
@@ -12144,8 +12307,8 @@
       <c r="H56">
         <v>1</v>
       </c>
-      <c r="I56">
-        <v>0</v>
+      <c r="I56" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -12169,7 +12332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>202</v>
       </c>
@@ -12194,8 +12357,8 @@
       <c r="H57">
         <v>1</v>
       </c>
-      <c r="I57">
-        <v>0</v>
+      <c r="I57" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -12219,7 +12382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>202</v>
       </c>
@@ -12244,8 +12407,8 @@
       <c r="H58">
         <v>1</v>
       </c>
-      <c r="I58">
-        <v>0</v>
+      <c r="I58" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -12269,7 +12432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>202</v>
       </c>
@@ -12291,8 +12454,8 @@
       <c r="H59">
         <v>1</v>
       </c>
-      <c r="I59">
-        <v>0</v>
+      <c r="I59" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -12316,7 +12479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>202</v>
       </c>
@@ -12338,8 +12501,8 @@
       <c r="H60">
         <v>1</v>
       </c>
-      <c r="I60">
-        <v>0</v>
+      <c r="I60" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -12363,7 +12526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>202</v>
       </c>
@@ -12385,8 +12548,8 @@
       <c r="H61">
         <v>1</v>
       </c>
-      <c r="I61">
-        <v>0</v>
+      <c r="I61" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -12409,8 +12572,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A61,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T61" t="str">
+        <f>VLOOKUP(A61,Mechanisms!B:C,2,FALSE)</f>
+        <v>Privacy Risk Mitigation Plans</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>202</v>
       </c>
@@ -12435,8 +12602,8 @@
       <c r="H62">
         <v>1</v>
       </c>
-      <c r="I62">
-        <v>0</v>
+      <c r="I62" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -12459,8 +12626,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A62,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T62" t="str">
+        <f>VLOOKUP(A62,Mechanisms!B:C,2,FALSE)</f>
+        <v>Privacy Risk Mitigation Plans</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>228</v>
       </c>
@@ -12482,8 +12653,8 @@
       <c r="H63">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>0</v>
+      <c r="I63" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -12504,7 +12675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>228</v>
       </c>
@@ -12529,8 +12700,8 @@
       <c r="H64">
         <v>1</v>
       </c>
-      <c r="I64">
-        <v>0</v>
+      <c r="I64" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -12553,8 +12724,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A64,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T64" t="str">
+        <f>VLOOKUP(A64,Mechanisms!B:C,2,FALSE)</f>
+        <v>Privacy Standard(s)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>228</v>
       </c>
@@ -12579,8 +12754,8 @@
       <c r="H65">
         <v>1</v>
       </c>
-      <c r="I65">
-        <v>0</v>
+      <c r="I65" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -12603,8 +12778,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A65,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T65" t="str">
+        <f>VLOOKUP(A65,Mechanisms!B:C,2,FALSE)</f>
+        <v>Privacy Standard(s)</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>228</v>
       </c>
@@ -12629,8 +12808,8 @@
       <c r="H66">
         <v>1</v>
       </c>
-      <c r="I66">
-        <v>0</v>
+      <c r="I66" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -12653,8 +12832,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A66,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T66" t="str">
+        <f>VLOOKUP(A66,Mechanisms!B:C,2,FALSE)</f>
+        <v>Privacy Standard(s)</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>228</v>
       </c>
@@ -12679,8 +12862,8 @@
       <c r="H67">
         <v>1</v>
       </c>
-      <c r="I67">
-        <v>0</v>
+      <c r="I67" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -12703,8 +12886,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A67,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T67" t="str">
+        <f>VLOOKUP(A67,Mechanisms!B:C,2,FALSE)</f>
+        <v>Privacy Standard(s)</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>166</v>
       </c>
@@ -12729,8 +12916,8 @@
       <c r="H68">
         <v>1</v>
       </c>
-      <c r="I68">
-        <v>0</v>
+      <c r="I68" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -12751,7 +12938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>166</v>
       </c>
@@ -12776,8 +12963,8 @@
       <c r="H69">
         <v>1</v>
       </c>
-      <c r="I69">
-        <v>0</v>
+      <c r="I69" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -12798,7 +12985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>166</v>
       </c>
@@ -12820,8 +13007,8 @@
       <c r="H70">
         <v>1</v>
       </c>
-      <c r="I70">
-        <v>0</v>
+      <c r="I70" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -12842,7 +13029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>166</v>
       </c>
@@ -12864,8 +13051,8 @@
       <c r="H71">
         <v>1</v>
       </c>
-      <c r="I71">
-        <v>0</v>
+      <c r="I71" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -12886,7 +13073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>166</v>
       </c>
@@ -12908,8 +13095,8 @@
       <c r="H72">
         <v>1</v>
       </c>
-      <c r="I72">
-        <v>0</v>
+      <c r="I72" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -12930,7 +13117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>166</v>
       </c>
@@ -12952,8 +13139,8 @@
       <c r="H73">
         <v>1</v>
       </c>
-      <c r="I73">
-        <v>0</v>
+      <c r="I73" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -12974,7 +13161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>166</v>
       </c>
@@ -12999,8 +13186,8 @@
       <c r="H74">
         <v>1</v>
       </c>
-      <c r="I74">
-        <v>0</v>
+      <c r="I74" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -13020,8 +13207,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A74,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T74" t="str">
+        <f>VLOOKUP(A74,Mechanisms!B:C,2,FALSE)</f>
+        <v>Remote Identity Proofing and Non-Face-to-face Onboarding</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>166</v>
       </c>
@@ -13043,8 +13234,8 @@
       <c r="H75">
         <v>1</v>
       </c>
-      <c r="I75">
-        <v>0</v>
+      <c r="I75" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -13064,8 +13255,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A75,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T75" t="str">
+        <f>VLOOKUP(A75,Mechanisms!B:C,2,FALSE)</f>
+        <v>Remote Identity Proofing and Non-Face-to-face Onboarding</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>166</v>
       </c>
@@ -13078,7 +13273,7 @@
       <c r="D76" t="s">
         <v>386</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="10" t="s">
         <v>561</v>
       </c>
       <c r="F76" t="s">
@@ -13087,8 +13282,8 @@
       <c r="H76">
         <v>1</v>
       </c>
-      <c r="I76">
-        <v>0</v>
+      <c r="I76" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -13108,8 +13303,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A76,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T76" t="str">
+        <f>VLOOKUP(A76,Mechanisms!B:C,2,FALSE)</f>
+        <v>Remote Identity Proofing and Non-Face-to-face Onboarding</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>220</v>
       </c>
@@ -13134,8 +13333,8 @@
       <c r="H77">
         <v>1</v>
       </c>
-      <c r="I77">
-        <v>0</v>
+      <c r="I77" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -13159,7 +13358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>220</v>
       </c>
@@ -13184,8 +13383,8 @@
       <c r="H78">
         <v>1</v>
       </c>
-      <c r="I78">
-        <v>0</v>
+      <c r="I78" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -13209,7 +13408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>220</v>
       </c>
@@ -13234,8 +13433,8 @@
       <c r="H79">
         <v>1</v>
       </c>
-      <c r="I79">
-        <v>0</v>
+      <c r="I79" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -13259,7 +13458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>220</v>
       </c>
@@ -13281,8 +13480,8 @@
       <c r="H80">
         <v>1</v>
       </c>
-      <c r="I80">
-        <v>0</v>
+      <c r="I80" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -13302,8 +13501,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A80,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T80" t="str">
+        <f>VLOOKUP(A80,Mechanisms!B:C,2,FALSE)</f>
+        <v>Secondary use service</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>220</v>
       </c>
@@ -13316,7 +13519,7 @@
       <c r="D81" t="s">
         <v>386</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="10" t="s">
         <v>572</v>
       </c>
       <c r="F81" t="s">
@@ -13325,8 +13528,8 @@
       <c r="H81">
         <v>1</v>
       </c>
-      <c r="I81">
-        <v>0</v>
+      <c r="I81" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -13346,8 +13549,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A81,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T81" t="str">
+        <f>VLOOKUP(A81,Mechanisms!B:C,2,FALSE)</f>
+        <v>Secondary use service</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>220</v>
       </c>
@@ -13372,8 +13579,8 @@
       <c r="H82">
         <v>1</v>
       </c>
-      <c r="I82">
-        <v>0</v>
+      <c r="I82" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -13393,8 +13600,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A82,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T82" t="str">
+        <f>VLOOKUP(A82,Mechanisms!B:C,2,FALSE)</f>
+        <v>Secondary use service</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>188</v>
       </c>
@@ -13416,8 +13627,8 @@
       <c r="H83">
         <v>1</v>
       </c>
-      <c r="I83">
-        <v>0</v>
+      <c r="I83" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -13438,7 +13649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>188</v>
       </c>
@@ -13463,8 +13674,8 @@
       <c r="H84">
         <v>1</v>
       </c>
-      <c r="I84">
-        <v>0</v>
+      <c r="I84" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -13485,7 +13696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>188</v>
       </c>
@@ -13498,7 +13709,7 @@
       <c r="D85" t="s">
         <v>386</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="10" t="s">
         <v>581</v>
       </c>
       <c r="F85" t="s">
@@ -13510,8 +13721,8 @@
       <c r="H85">
         <v>1</v>
       </c>
-      <c r="I85">
-        <v>0</v>
+      <c r="I85" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -13531,8 +13742,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A85,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T85" t="str">
+        <f>VLOOKUP(A85,Mechanisms!B:C,2,FALSE)</f>
+        <v>Troubleshooting identity proofing</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>151</v>
       </c>
@@ -13557,8 +13772,8 @@
       <c r="H86">
         <v>1</v>
       </c>
-      <c r="I86">
-        <v>0</v>
+      <c r="I86" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -13582,7 +13797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>151</v>
       </c>
@@ -13607,8 +13822,8 @@
       <c r="H87">
         <v>1</v>
       </c>
-      <c r="I87">
-        <v>0</v>
+      <c r="I87" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -13632,7 +13847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>151</v>
       </c>
@@ -13657,8 +13872,8 @@
       <c r="H88">
         <v>1</v>
       </c>
-      <c r="I88">
-        <v>0</v>
+      <c r="I88" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -13682,7 +13897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>151</v>
       </c>
@@ -13704,8 +13919,8 @@
       <c r="H89">
         <v>1</v>
       </c>
-      <c r="I89">
-        <v>0</v>
+      <c r="I89" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -13729,7 +13944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>151</v>
       </c>
@@ -13751,8 +13966,8 @@
       <c r="H90">
         <v>1</v>
       </c>
-      <c r="I90">
-        <v>0</v>
+      <c r="I90" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -13776,7 +13991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>151</v>
       </c>
@@ -13798,8 +14013,8 @@
       <c r="H91">
         <v>1</v>
       </c>
-      <c r="I91">
-        <v>0</v>
+      <c r="I91" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -13823,7 +14038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>151</v>
       </c>
@@ -13845,8 +14060,8 @@
       <c r="H92">
         <v>1</v>
       </c>
-      <c r="I92">
-        <v>0</v>
+      <c r="I92" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -13870,7 +14085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>151</v>
       </c>
@@ -13892,8 +14107,8 @@
       <c r="H93">
         <v>1</v>
       </c>
-      <c r="I93">
-        <v>0</v>
+      <c r="I93" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -13917,7 +14132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>151</v>
       </c>
@@ -13939,8 +14154,8 @@
       <c r="H94">
         <v>1</v>
       </c>
-      <c r="I94">
-        <v>0</v>
+      <c r="I94" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -13963,8 +14178,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A94,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T94" t="str">
+        <f>VLOOKUP(A94,Mechanisms!B:C,2,FALSE)</f>
+        <v>User Consent for attributes' collection, processing, re-use and release</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>151</v>
       </c>
@@ -13977,7 +14196,7 @@
       <c r="D95" t="s">
         <v>386</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="10" t="s">
         <v>611</v>
       </c>
       <c r="F95" t="s">
@@ -13986,8 +14205,8 @@
       <c r="H95">
         <v>1</v>
       </c>
-      <c r="I95">
-        <v>0</v>
+      <c r="I95" s="9" t="s">
+        <v>1923</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -14010,8 +14229,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A95,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T95" t="str">
+        <f>VLOOKUP(A95,Mechanisms!B:C,2,FALSE)</f>
+        <v>User Consent for attributes' collection, processing, re-use and release</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>151</v>
       </c>
@@ -14033,8 +14256,8 @@
       <c r="H96">
         <v>1</v>
       </c>
-      <c r="I96">
-        <v>0</v>
+      <c r="I96" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -14057,8 +14280,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A96,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T96" t="str">
+        <f>VLOOKUP(A96,Mechanisms!B:C,2,FALSE)</f>
+        <v>User Consent for attributes' collection, processing, re-use and release</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>151</v>
       </c>
@@ -14080,8 +14307,8 @@
       <c r="H97">
         <v>1</v>
       </c>
-      <c r="I97">
-        <v>0</v>
+      <c r="I97" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -14104,8 +14331,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A97,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T97" t="str">
+        <f>VLOOKUP(A97,Mechanisms!B:C,2,FALSE)</f>
+        <v>User Consent for attributes' collection, processing, re-use and release</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>151</v>
       </c>
@@ -14127,8 +14358,8 @@
       <c r="H98">
         <v>1</v>
       </c>
-      <c r="I98">
-        <v>0</v>
+      <c r="I98" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -14151,8 +14382,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A98,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T98" t="str">
+        <f>VLOOKUP(A98,Mechanisms!B:C,2,FALSE)</f>
+        <v>User Consent for attributes' collection, processing, re-use and release</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>151</v>
       </c>
@@ -14165,7 +14400,7 @@
       <c r="D99" t="s">
         <v>386</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="10" t="s">
         <v>619</v>
       </c>
       <c r="F99" t="s">
@@ -14177,8 +14412,8 @@
       <c r="H99">
         <v>1</v>
       </c>
-      <c r="I99">
-        <v>0</v>
+      <c r="I99" s="9" t="s">
+        <v>1923</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -14201,8 +14436,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A99,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T99" t="str">
+        <f>VLOOKUP(A99,Mechanisms!B:C,2,FALSE)</f>
+        <v>User Consent for attributes' collection, processing, re-use and release</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>172</v>
       </c>
@@ -14224,8 +14463,8 @@
       <c r="H100">
         <v>1</v>
       </c>
-      <c r="I100">
-        <v>0</v>
+      <c r="I100" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -14249,7 +14488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>172</v>
       </c>
@@ -14271,8 +14510,8 @@
       <c r="H101">
         <v>1</v>
       </c>
-      <c r="I101">
-        <v>0</v>
+      <c r="I101" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -14296,7 +14535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>172</v>
       </c>
@@ -14318,8 +14557,8 @@
       <c r="H102">
         <v>1</v>
       </c>
-      <c r="I102">
-        <v>0</v>
+      <c r="I102" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -14342,8 +14581,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A102,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T102" t="str">
+        <f>VLOOKUP(A102,Mechanisms!B:C,2,FALSE)</f>
+        <v>Use Limitation</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>172</v>
       </c>
@@ -14356,7 +14599,7 @@
       <c r="D103" t="s">
         <v>386</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="10" t="s">
         <v>629</v>
       </c>
       <c r="F103" t="s">
@@ -14365,8 +14608,8 @@
       <c r="H103">
         <v>1</v>
       </c>
-      <c r="I103">
-        <v>0</v>
+      <c r="I103" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -14389,8 +14632,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A103,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T103" t="str">
+        <f>VLOOKUP(A103,Mechanisms!B:C,2,FALSE)</f>
+        <v>Use Limitation</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>172</v>
       </c>
@@ -14412,8 +14659,8 @@
       <c r="H104">
         <v>1</v>
       </c>
-      <c r="I104">
-        <v>0</v>
+      <c r="I104" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -14436,8 +14683,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A104,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T104" t="str">
+        <f>VLOOKUP(A104,Mechanisms!B:C,2,FALSE)</f>
+        <v>Use Limitation</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>210</v>
       </c>
@@ -14459,8 +14710,8 @@
       <c r="H105">
         <v>1</v>
       </c>
-      <c r="I105">
-        <v>0</v>
+      <c r="I105" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -14484,7 +14735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>210</v>
       </c>
@@ -14506,8 +14757,8 @@
       <c r="H106">
         <v>1</v>
       </c>
-      <c r="I106">
-        <v>0</v>
+      <c r="I106" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -14531,7 +14782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>210</v>
       </c>
@@ -14553,8 +14804,8 @@
       <c r="H107">
         <v>1</v>
       </c>
-      <c r="I107">
-        <v>0</v>
+      <c r="I107" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -14578,7 +14829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>210</v>
       </c>
@@ -14603,8 +14854,8 @@
       <c r="H108">
         <v>1</v>
       </c>
-      <c r="I108">
-        <v>0</v>
+      <c r="I108" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -14633,8 +14884,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A108,Mechanisms!B:B,0)-1,0))</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T108" t="str">
+        <f>VLOOKUP(A108,Mechanisms!B:C,2,FALSE)</f>
+        <v>Well defined privacy models and policies</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>210</v>
       </c>
@@ -14656,8 +14911,8 @@
       <c r="H109">
         <v>1</v>
       </c>
-      <c r="I109">
-        <v>0</v>
+      <c r="I109" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -14686,8 +14941,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A109,Mechanisms!B:B,0)-1,0))</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T109" t="str">
+        <f>VLOOKUP(A109,Mechanisms!B:C,2,FALSE)</f>
+        <v>Well defined privacy models and policies</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>210</v>
       </c>
@@ -14700,7 +14959,7 @@
       <c r="D110" t="s">
         <v>386</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="10" t="s">
         <v>643</v>
       </c>
       <c r="F110" t="s">
@@ -14709,8 +14968,8 @@
       <c r="H110">
         <v>1</v>
       </c>
-      <c r="I110">
-        <v>0</v>
+      <c r="I110" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -14739,8 +14998,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A110,Mechanisms!B:B,0)-1,0))</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T110" t="str">
+        <f>VLOOKUP(A110,Mechanisms!B:C,2,FALSE)</f>
+        <v>Well defined privacy models and policies</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>343</v>
       </c>
@@ -14748,7 +15011,7 @@
         <v>384</v>
       </c>
       <c r="C111" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D111" t="s">
         <v>386</v>
@@ -14762,8 +15025,8 @@
       <c r="H111">
         <v>1</v>
       </c>
-      <c r="I111">
-        <v>1</v>
+      <c r="I111" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -14784,7 +15047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>343</v>
       </c>
@@ -14792,7 +15055,7 @@
         <v>384</v>
       </c>
       <c r="C112" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D112" t="s">
         <v>386</v>
@@ -14806,8 +15069,8 @@
       <c r="H112">
         <v>1</v>
       </c>
-      <c r="I112">
-        <v>0</v>
+      <c r="I112" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -14828,7 +15091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>343</v>
       </c>
@@ -14836,7 +15099,7 @@
         <v>384</v>
       </c>
       <c r="C113" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D113" t="s">
         <v>386</v>
@@ -14850,8 +15113,8 @@
       <c r="H113">
         <v>1</v>
       </c>
-      <c r="I113">
-        <v>0</v>
+      <c r="I113" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -14872,7 +15135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>343</v>
       </c>
@@ -14880,7 +15143,7 @@
         <v>384</v>
       </c>
       <c r="C114" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D114" t="s">
         <v>386</v>
@@ -14894,8 +15157,8 @@
       <c r="H114">
         <v>1</v>
       </c>
-      <c r="I114">
-        <v>0</v>
+      <c r="I114" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -14916,7 +15179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>343</v>
       </c>
@@ -14924,7 +15187,7 @@
         <v>384</v>
       </c>
       <c r="C115" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D115" t="s">
         <v>386</v>
@@ -14941,8 +15204,8 @@
       <c r="H115">
         <v>1</v>
       </c>
-      <c r="I115">
-        <v>0</v>
+      <c r="I115" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -14963,7 +15226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>343</v>
       </c>
@@ -14971,12 +15234,12 @@
         <v>392</v>
       </c>
       <c r="C116" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="D116" t="s">
         <v>386</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="10" t="s">
         <v>655</v>
       </c>
       <c r="F116" t="s">
@@ -14985,8 +15248,8 @@
       <c r="H116">
         <v>1</v>
       </c>
-      <c r="I116">
-        <v>0</v>
+      <c r="I116" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -15006,8 +15269,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A116,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T116" t="str">
+        <f>VLOOKUP(A116,Mechanisms!B:C,2,FALSE)</f>
+        <v>ID recovery</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>343</v>
       </c>
@@ -15015,12 +15282,12 @@
         <v>392</v>
       </c>
       <c r="C117" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="D117" t="s">
         <v>386</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="10" t="s">
         <v>657</v>
       </c>
       <c r="F117" t="s">
@@ -15029,8 +15296,8 @@
       <c r="H117">
         <v>1</v>
       </c>
-      <c r="I117">
-        <v>0</v>
+      <c r="I117" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -15050,8 +15317,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A117,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T117" t="str">
+        <f>VLOOKUP(A117,Mechanisms!B:C,2,FALSE)</f>
+        <v>ID recovery</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>343</v>
       </c>
@@ -15059,12 +15330,12 @@
         <v>392</v>
       </c>
       <c r="C118" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="D118" t="s">
         <v>386</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="10" t="s">
         <v>659</v>
       </c>
       <c r="F118" t="s">
@@ -15073,8 +15344,8 @@
       <c r="H118">
         <v>1</v>
       </c>
-      <c r="I118">
-        <v>0</v>
+      <c r="I118" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -15094,8 +15365,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A118,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T118" t="str">
+        <f>VLOOKUP(A118,Mechanisms!B:C,2,FALSE)</f>
+        <v>ID recovery</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>343</v>
       </c>
@@ -15103,12 +15378,12 @@
         <v>392</v>
       </c>
       <c r="C119" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="D119" t="s">
         <v>386</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="10" t="s">
         <v>661</v>
       </c>
       <c r="F119" t="s">
@@ -15117,8 +15392,8 @@
       <c r="H119">
         <v>1</v>
       </c>
-      <c r="I119">
-        <v>0</v>
+      <c r="I119" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -15138,8 +15413,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A119,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T119" t="str">
+        <f>VLOOKUP(A119,Mechanisms!B:C,2,FALSE)</f>
+        <v>ID recovery</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>343</v>
       </c>
@@ -15147,7 +15426,7 @@
         <v>392</v>
       </c>
       <c r="C120" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="D120" t="s">
         <v>386</v>
@@ -15161,8 +15440,8 @@
       <c r="H120">
         <v>1</v>
       </c>
-      <c r="I120">
-        <v>0</v>
+      <c r="I120" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -15182,8 +15461,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A120,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T120" t="str">
+        <f>VLOOKUP(A120,Mechanisms!B:C,2,FALSE)</f>
+        <v>ID recovery</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>343</v>
       </c>
@@ -15191,12 +15474,12 @@
         <v>392</v>
       </c>
       <c r="C121" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="D121" t="s">
         <v>386</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="10" t="s">
         <v>665</v>
       </c>
       <c r="F121" t="s">
@@ -15205,8 +15488,8 @@
       <c r="H121">
         <v>1</v>
       </c>
-      <c r="I121">
-        <v>0</v>
+      <c r="I121" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -15226,8 +15509,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A121,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T121" t="str">
+        <f>VLOOKUP(A121,Mechanisms!B:C,2,FALSE)</f>
+        <v>ID recovery</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>356</v>
       </c>
@@ -15252,8 +15539,8 @@
       <c r="H122">
         <v>1</v>
       </c>
-      <c r="I122">
-        <v>0</v>
+      <c r="I122" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O122" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -15268,7 +15555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>356</v>
       </c>
@@ -15290,8 +15577,8 @@
       <c r="H123">
         <v>1</v>
       </c>
-      <c r="I123">
-        <v>0</v>
+      <c r="I123" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O123" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -15306,7 +15593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>356</v>
       </c>
@@ -15331,8 +15618,8 @@
       <c r="H124">
         <v>1</v>
       </c>
-      <c r="I124">
-        <v>0</v>
+      <c r="I124" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O124" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -15347,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>356</v>
       </c>
@@ -15372,8 +15659,8 @@
       <c r="H125">
         <v>1</v>
       </c>
-      <c r="I125">
-        <v>0</v>
+      <c r="I125" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O125" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -15388,7 +15675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>356</v>
       </c>
@@ -15413,8 +15700,8 @@
       <c r="H126">
         <v>1</v>
       </c>
-      <c r="I126">
-        <v>0</v>
+      <c r="I126" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O126" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -15429,7 +15716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>356</v>
       </c>
@@ -15451,8 +15738,8 @@
       <c r="H127">
         <v>1</v>
       </c>
-      <c r="I127">
-        <v>0</v>
+      <c r="I127" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O127" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -15467,7 +15754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>356</v>
       </c>
@@ -15489,8 +15776,8 @@
       <c r="H128">
         <v>1</v>
       </c>
-      <c r="I128">
-        <v>0</v>
+      <c r="I128" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O128" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -15505,7 +15792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>356</v>
       </c>
@@ -15527,8 +15814,8 @@
       <c r="H129">
         <v>1</v>
       </c>
-      <c r="I129">
-        <v>0</v>
+      <c r="I129" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O129" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -15543,7 +15830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>356</v>
       </c>
@@ -15565,8 +15852,8 @@
       <c r="H130">
         <v>1</v>
       </c>
-      <c r="I130">
-        <v>0</v>
+      <c r="I130" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O130" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -15581,7 +15868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>356</v>
       </c>
@@ -15603,8 +15890,8 @@
       <c r="H131">
         <v>1</v>
       </c>
-      <c r="I131">
-        <v>0</v>
+      <c r="I131" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O131" t="str">
         <f t="shared" ref="O131:O194" ca="1" si="2">IF(5-COUNTBLANK(J131:N131)=IF(B131="Design",P131,Q131),"","No")</f>
@@ -15618,8 +15905,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A131,Mechanisms!B:B,0)-1,0))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T131" t="str">
+        <f>VLOOKUP(A131,Mechanisms!B:C,2,FALSE)</f>
+        <v xml:space="preserve">EIDS sufficient Assurance Levels against Fraud risks </v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>356</v>
       </c>
@@ -15641,8 +15932,8 @@
       <c r="H132">
         <v>1</v>
       </c>
-      <c r="I132">
-        <v>0</v>
+      <c r="I132" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O132" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -15656,8 +15947,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A132,Mechanisms!B:B,0)-1,0))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T132" t="str">
+        <f>VLOOKUP(A132,Mechanisms!B:C,2,FALSE)</f>
+        <v xml:space="preserve">EIDS sufficient Assurance Levels against Fraud risks </v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>356</v>
       </c>
@@ -15679,8 +15974,8 @@
       <c r="H133">
         <v>1</v>
       </c>
-      <c r="I133">
-        <v>0</v>
+      <c r="I133" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O133" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -15694,8 +15989,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A133,Mechanisms!B:B,0)-1,0))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T133" t="str">
+        <f>VLOOKUP(A133,Mechanisms!B:C,2,FALSE)</f>
+        <v xml:space="preserve">EIDS sufficient Assurance Levels against Fraud risks </v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>356</v>
       </c>
@@ -15708,7 +16007,7 @@
       <c r="D134" t="s">
         <v>386</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="10" t="s">
         <v>691</v>
       </c>
       <c r="F134" t="s">
@@ -15717,8 +16016,8 @@
       <c r="H134">
         <v>1</v>
       </c>
-      <c r="I134">
-        <v>0</v>
+      <c r="I134" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="O134" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -15732,8 +16031,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A134,Mechanisms!B:B,0)-1,0))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T134" t="str">
+        <f>VLOOKUP(A134,Mechanisms!B:C,2,FALSE)</f>
+        <v xml:space="preserve">EIDS sufficient Assurance Levels against Fraud risks </v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>356</v>
       </c>
@@ -15755,8 +16058,8 @@
       <c r="H135">
         <v>1</v>
       </c>
-      <c r="I135">
-        <v>0</v>
+      <c r="I135" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O135" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -15770,8 +16073,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A135,Mechanisms!B:B,0)-1,0))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T135" t="str">
+        <f>VLOOKUP(A135,Mechanisms!B:C,2,FALSE)</f>
+        <v xml:space="preserve">EIDS sufficient Assurance Levels against Fraud risks </v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>356</v>
       </c>
@@ -15784,7 +16091,7 @@
       <c r="D136" t="s">
         <v>386</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="10" t="s">
         <v>695</v>
       </c>
       <c r="F136" t="s">
@@ -15793,8 +16100,8 @@
       <c r="H136">
         <v>1</v>
       </c>
-      <c r="I136">
-        <v>0</v>
+      <c r="I136" s="9" t="s">
+        <v>1923</v>
       </c>
       <c r="O136" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -15808,8 +16115,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A136,Mechanisms!B:B,0)-1,0))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T136" t="str">
+        <f>VLOOKUP(A136,Mechanisms!B:C,2,FALSE)</f>
+        <v xml:space="preserve">EIDS sufficient Assurance Levels against Fraud risks </v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>356</v>
       </c>
@@ -15831,8 +16142,8 @@
       <c r="H137">
         <v>1</v>
       </c>
-      <c r="I137">
-        <v>0</v>
+      <c r="I137" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O137" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -15846,8 +16157,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A137,Mechanisms!B:B,0)-1,0))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T137" t="str">
+        <f>VLOOKUP(A137,Mechanisms!B:C,2,FALSE)</f>
+        <v xml:space="preserve">EIDS sufficient Assurance Levels against Fraud risks </v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>356</v>
       </c>
@@ -15869,8 +16184,8 @@
       <c r="H138">
         <v>1</v>
       </c>
-      <c r="I138">
-        <v>0</v>
+      <c r="I138" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O138" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -15884,8 +16199,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A138,Mechanisms!B:B,0)-1,0))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T138" t="str">
+        <f>VLOOKUP(A138,Mechanisms!B:C,2,FALSE)</f>
+        <v xml:space="preserve">EIDS sufficient Assurance Levels against Fraud risks </v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>356</v>
       </c>
@@ -15910,8 +16229,8 @@
       <c r="H139">
         <v>1</v>
       </c>
-      <c r="I139">
-        <v>0</v>
+      <c r="I139" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O139" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -15925,8 +16244,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A139,Mechanisms!B:B,0)-1,0))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T139" t="str">
+        <f>VLOOKUP(A139,Mechanisms!B:C,2,FALSE)</f>
+        <v xml:space="preserve">EIDS sufficient Assurance Levels against Fraud risks </v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>356</v>
       </c>
@@ -15948,8 +16271,8 @@
       <c r="H140">
         <v>1</v>
       </c>
-      <c r="I140">
-        <v>0</v>
+      <c r="I140" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O140" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -15963,8 +16286,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A140,Mechanisms!B:B,0)-1,0))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T140" t="str">
+        <f>VLOOKUP(A140,Mechanisms!B:C,2,FALSE)</f>
+        <v xml:space="preserve">EIDS sufficient Assurance Levels against Fraud risks </v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>360</v>
       </c>
@@ -15986,8 +16313,8 @@
       <c r="H141">
         <v>1</v>
       </c>
-      <c r="I141">
-        <v>0</v>
+      <c r="I141" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -16011,7 +16338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>360</v>
       </c>
@@ -16033,8 +16360,8 @@
       <c r="H142">
         <v>1</v>
       </c>
-      <c r="I142">
-        <v>0</v>
+      <c r="I142" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -16058,7 +16385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>360</v>
       </c>
@@ -16080,8 +16407,8 @@
       <c r="H143">
         <v>1</v>
       </c>
-      <c r="I143">
-        <v>0</v>
+      <c r="I143" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O143" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -16095,8 +16422,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A143,Mechanisms!B:B,0)-1,0))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T143" t="str">
+        <f>VLOOKUP(A143,Mechanisms!B:C,2,FALSE)</f>
+        <v xml:space="preserve">Evidence of assurance assessment </v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>360</v>
       </c>
@@ -16118,8 +16449,8 @@
       <c r="H144">
         <v>1</v>
       </c>
-      <c r="I144">
-        <v>0</v>
+      <c r="I144" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O144" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -16133,8 +16464,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A144,Mechanisms!B:B,0)-1,0))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T144" t="str">
+        <f>VLOOKUP(A144,Mechanisms!B:C,2,FALSE)</f>
+        <v xml:space="preserve">Evidence of assurance assessment </v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>358</v>
       </c>
@@ -16156,8 +16491,8 @@
       <c r="H145">
         <v>1</v>
       </c>
-      <c r="I145">
-        <v>0</v>
+      <c r="I145" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O145" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -16172,7 +16507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>358</v>
       </c>
@@ -16194,8 +16529,8 @@
       <c r="H146">
         <v>1</v>
       </c>
-      <c r="I146">
-        <v>0</v>
+      <c r="I146" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O146" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -16209,8 +16544,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A146,Mechanisms!B:B,0)-1,0))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T146" t="str">
+        <f>VLOOKUP(A146,Mechanisms!B:C,2,FALSE)</f>
+        <v xml:space="preserve">Government approved audits </v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>365</v>
       </c>
@@ -16232,8 +16571,8 @@
       <c r="H147">
         <v>1</v>
       </c>
-      <c r="I147">
-        <v>0</v>
+      <c r="I147" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -16254,7 +16593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>365</v>
       </c>
@@ -16276,8 +16615,8 @@
       <c r="H148">
         <v>1</v>
       </c>
-      <c r="I148">
-        <v>0</v>
+      <c r="I148" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -16298,7 +16637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>365</v>
       </c>
@@ -16320,8 +16659,8 @@
       <c r="H149">
         <v>1</v>
       </c>
-      <c r="I149">
-        <v>0</v>
+      <c r="I149" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -16342,7 +16681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>365</v>
       </c>
@@ -16364,8 +16703,8 @@
       <c r="H150">
         <v>1</v>
       </c>
-      <c r="I150">
-        <v>0</v>
+      <c r="I150" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -16385,8 +16724,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A150,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T150" t="str">
+        <f>VLOOKUP(A150,Mechanisms!B:C,2,FALSE)</f>
+        <v xml:space="preserve">Handling unexpected termination and unexpected actions </v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>350</v>
       </c>
@@ -16408,8 +16751,8 @@
       <c r="H151">
         <v>1</v>
       </c>
-      <c r="I151">
-        <v>0</v>
+      <c r="I151" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -16430,7 +16773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>350</v>
       </c>
@@ -16443,7 +16786,7 @@
       <c r="D152" t="s">
         <v>386</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="10" t="s">
         <v>695</v>
       </c>
       <c r="F152" t="s">
@@ -16452,8 +16795,8 @@
       <c r="H152">
         <v>1</v>
       </c>
-      <c r="I152">
-        <v>0</v>
+      <c r="I152" s="9" t="s">
+        <v>1923</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -16473,8 +16816,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A152,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T152" t="str">
+        <f>VLOOKUP(A152,Mechanisms!B:C,2,FALSE)</f>
+        <v xml:space="preserve">Streamlined user contact points and processes </v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>350</v>
       </c>
@@ -16496,8 +16843,8 @@
       <c r="H153">
         <v>1</v>
       </c>
-      <c r="I153">
-        <v>0</v>
+      <c r="I153" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -16517,8 +16864,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A153,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T153" t="str">
+        <f>VLOOKUP(A153,Mechanisms!B:C,2,FALSE)</f>
+        <v xml:space="preserve">Streamlined user contact points and processes </v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>350</v>
       </c>
@@ -16540,8 +16891,8 @@
       <c r="H154">
         <v>1</v>
       </c>
-      <c r="I154">
-        <v>0</v>
+      <c r="I154" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -16561,8 +16912,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A154,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T154" t="str">
+        <f>VLOOKUP(A154,Mechanisms!B:C,2,FALSE)</f>
+        <v xml:space="preserve">Streamlined user contact points and processes </v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>315</v>
       </c>
@@ -16584,8 +16939,8 @@
       <c r="H155">
         <v>1</v>
       </c>
-      <c r="I155">
-        <v>0</v>
+      <c r="I155" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -16609,7 +16964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>315</v>
       </c>
@@ -16634,8 +16989,8 @@
       <c r="H156">
         <v>1</v>
       </c>
-      <c r="I156">
-        <v>0</v>
+      <c r="I156" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -16659,7 +17014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>315</v>
       </c>
@@ -16681,8 +17036,8 @@
       <c r="H157">
         <v>1</v>
       </c>
-      <c r="I157">
-        <v>0</v>
+      <c r="I157" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -16706,7 +17061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>315</v>
       </c>
@@ -16728,8 +17083,8 @@
       <c r="H158">
         <v>1</v>
       </c>
-      <c r="I158">
-        <v>0</v>
+      <c r="I158" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -16753,7 +17108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>315</v>
       </c>
@@ -16775,8 +17130,8 @@
       <c r="H159">
         <v>1</v>
       </c>
-      <c r="I159">
-        <v>0</v>
+      <c r="I159" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -16800,7 +17155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>315</v>
       </c>
@@ -16822,8 +17177,8 @@
       <c r="H160">
         <v>1</v>
       </c>
-      <c r="I160">
-        <v>0</v>
+      <c r="I160" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -16847,7 +17202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>315</v>
       </c>
@@ -16869,8 +17224,8 @@
       <c r="H161">
         <v>1</v>
       </c>
-      <c r="I161">
-        <v>0</v>
+      <c r="I161" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -16894,7 +17249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>315</v>
       </c>
@@ -16916,8 +17271,8 @@
       <c r="H162">
         <v>1</v>
       </c>
-      <c r="I162">
-        <v>0</v>
+      <c r="I162" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -16940,8 +17295,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A162,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T162" t="str">
+        <f>VLOOKUP(A162,Mechanisms!B:C,2,FALSE)</f>
+        <v>Back up and Disaster Recovery Plans</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>315</v>
       </c>
@@ -16963,8 +17322,8 @@
       <c r="H163">
         <v>1</v>
       </c>
-      <c r="I163">
-        <v>0</v>
+      <c r="I163" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -16987,8 +17346,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A163,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T163" t="str">
+        <f>VLOOKUP(A163,Mechanisms!B:C,2,FALSE)</f>
+        <v>Back up and Disaster Recovery Plans</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>315</v>
       </c>
@@ -17001,7 +17364,7 @@
       <c r="D164" t="s">
         <v>386</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="10" t="s">
         <v>750</v>
       </c>
       <c r="F164" t="s">
@@ -17010,8 +17373,8 @@
       <c r="H164">
         <v>1</v>
       </c>
-      <c r="I164">
-        <v>0</v>
+      <c r="I164" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -17034,8 +17397,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A164,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T164" t="str">
+        <f>VLOOKUP(A164,Mechanisms!B:C,2,FALSE)</f>
+        <v>Back up and Disaster Recovery Plans</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>315</v>
       </c>
@@ -17057,8 +17424,8 @@
       <c r="H165">
         <v>1</v>
       </c>
-      <c r="I165">
-        <v>0</v>
+      <c r="I165" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -17081,8 +17448,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A165,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T165" t="str">
+        <f>VLOOKUP(A165,Mechanisms!B:C,2,FALSE)</f>
+        <v>Back up and Disaster Recovery Plans</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>315</v>
       </c>
@@ -17104,8 +17475,8 @@
       <c r="H166">
         <v>1</v>
       </c>
-      <c r="I166">
-        <v>0</v>
+      <c r="I166" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -17128,8 +17499,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A166,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T166" t="str">
+        <f>VLOOKUP(A166,Mechanisms!B:C,2,FALSE)</f>
+        <v>Back up and Disaster Recovery Plans</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>315</v>
       </c>
@@ -17151,8 +17526,8 @@
       <c r="H167">
         <v>1</v>
       </c>
-      <c r="I167">
-        <v>0</v>
+      <c r="I167" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J167">
         <v>0</v>
@@ -17175,8 +17550,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A167,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T167" t="str">
+        <f>VLOOKUP(A167,Mechanisms!B:C,2,FALSE)</f>
+        <v>Back up and Disaster Recovery Plans</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>315</v>
       </c>
@@ -17198,8 +17577,8 @@
       <c r="H168">
         <v>1</v>
       </c>
-      <c r="I168">
-        <v>0</v>
+      <c r="I168" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -17222,8 +17601,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A168,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T168" t="str">
+        <f>VLOOKUP(A168,Mechanisms!B:C,2,FALSE)</f>
+        <v>Back up and Disaster Recovery Plans</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>330</v>
       </c>
@@ -17245,8 +17628,8 @@
       <c r="H169">
         <v>1</v>
       </c>
-      <c r="I169">
-        <v>0</v>
+      <c r="I169" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -17267,7 +17650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>330</v>
       </c>
@@ -17289,8 +17672,8 @@
       <c r="H170">
         <v>1</v>
       </c>
-      <c r="I170">
-        <v>0</v>
+      <c r="I170" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -17311,7 +17694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>330</v>
       </c>
@@ -17333,8 +17716,8 @@
       <c r="H171">
         <v>1</v>
       </c>
-      <c r="I171">
-        <v>0</v>
+      <c r="I171" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -17355,7 +17738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>330</v>
       </c>
@@ -17377,8 +17760,8 @@
       <c r="H172">
         <v>1</v>
       </c>
-      <c r="I172">
-        <v>0</v>
+      <c r="I172" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -17398,8 +17781,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A172,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T172" t="str">
+        <f>VLOOKUP(A172,Mechanisms!B:C,2,FALSE)</f>
+        <v>Demonstrate balance between preventive and detective controls</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>330</v>
       </c>
@@ -17421,8 +17808,8 @@
       <c r="H173">
         <v>1</v>
       </c>
-      <c r="I173">
-        <v>0</v>
+      <c r="I173" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -17442,8 +17829,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A173,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T173" t="str">
+        <f>VLOOKUP(A173,Mechanisms!B:C,2,FALSE)</f>
+        <v>Demonstrate balance between preventive and detective controls</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>330</v>
       </c>
@@ -17465,8 +17856,8 @@
       <c r="H174">
         <v>1</v>
       </c>
-      <c r="I174">
-        <v>0</v>
+      <c r="I174" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -17486,8 +17877,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A174,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T174" t="str">
+        <f>VLOOKUP(A174,Mechanisms!B:C,2,FALSE)</f>
+        <v>Demonstrate balance between preventive and detective controls</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>330</v>
       </c>
@@ -17509,8 +17904,8 @@
       <c r="H175">
         <v>1</v>
       </c>
-      <c r="I175">
-        <v>0</v>
+      <c r="I175" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -17530,8 +17925,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A175,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T175" t="str">
+        <f>VLOOKUP(A175,Mechanisms!B:C,2,FALSE)</f>
+        <v>Demonstrate balance between preventive and detective controls</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>330</v>
       </c>
@@ -17544,7 +17943,7 @@
       <c r="D176" t="s">
         <v>386</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="10" t="s">
         <v>774</v>
       </c>
       <c r="F176" t="s">
@@ -17553,8 +17952,8 @@
       <c r="H176">
         <v>1</v>
       </c>
-      <c r="I176">
-        <v>0</v>
+      <c r="I176" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -17574,8 +17973,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A176,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T176" t="str">
+        <f>VLOOKUP(A176,Mechanisms!B:C,2,FALSE)</f>
+        <v>Demonstrate balance between preventive and detective controls</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>323</v>
       </c>
@@ -17597,8 +18000,8 @@
       <c r="H177">
         <v>1</v>
       </c>
-      <c r="I177">
-        <v>0</v>
+      <c r="I177" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -17622,7 +18025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>323</v>
       </c>
@@ -17644,8 +18047,8 @@
       <c r="H178">
         <v>1</v>
       </c>
-      <c r="I178">
-        <v>0</v>
+      <c r="I178" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -17669,7 +18072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>323</v>
       </c>
@@ -17691,8 +18094,8 @@
       <c r="H179">
         <v>1</v>
       </c>
-      <c r="I179">
-        <v>0</v>
+      <c r="I179" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -17712,8 +18115,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A179,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T179" t="str">
+        <f>VLOOKUP(A179,Mechanisms!B:C,2,FALSE)</f>
+        <v>Cyber resilience strategy in place</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>304</v>
       </c>
@@ -17738,8 +18145,8 @@
       <c r="H180">
         <v>1</v>
       </c>
-      <c r="I180">
-        <v>0</v>
+      <c r="I180" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -17760,7 +18167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>304</v>
       </c>
@@ -17785,8 +18192,8 @@
       <c r="H181">
         <v>1</v>
       </c>
-      <c r="I181">
-        <v>0</v>
+      <c r="I181" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -17807,7 +18214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>304</v>
       </c>
@@ -17832,8 +18239,8 @@
       <c r="H182">
         <v>1</v>
       </c>
-      <c r="I182">
-        <v>0</v>
+      <c r="I182" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -17854,7 +18261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>304</v>
       </c>
@@ -17879,8 +18286,8 @@
       <c r="H183">
         <v>1</v>
       </c>
-      <c r="I183">
-        <v>0</v>
+      <c r="I183" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J183">
         <v>0</v>
@@ -17901,7 +18308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>304</v>
       </c>
@@ -17923,8 +18330,8 @@
       <c r="H184">
         <v>1</v>
       </c>
-      <c r="I184">
-        <v>0</v>
+      <c r="I184" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -17945,7 +18352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>336</v>
       </c>
@@ -17970,8 +18377,8 @@
       <c r="H185">
         <v>1</v>
       </c>
-      <c r="I185">
-        <v>0</v>
+      <c r="I185" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J185">
         <v>0</v>
@@ -17992,7 +18399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>336</v>
       </c>
@@ -18017,8 +18424,8 @@
       <c r="H186">
         <v>1</v>
       </c>
-      <c r="I186">
-        <v>0</v>
+      <c r="I186" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -18039,7 +18446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>336</v>
       </c>
@@ -18052,7 +18459,7 @@
       <c r="D187" t="s">
         <v>386</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="10" t="s">
         <v>796</v>
       </c>
       <c r="F187" t="s">
@@ -18061,8 +18468,8 @@
       <c r="H187">
         <v>1</v>
       </c>
-      <c r="I187">
-        <v>0</v>
+      <c r="I187" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J187">
         <v>0</v>
@@ -18085,8 +18492,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A187,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T187" t="str">
+        <f>VLOOKUP(A187,Mechanisms!B:C,2,FALSE)</f>
+        <v>Reaction to Security incidents against the EIDS</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>336</v>
       </c>
@@ -18108,8 +18519,8 @@
       <c r="H188">
         <v>1</v>
       </c>
-      <c r="I188">
-        <v>0</v>
+      <c r="I188" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -18132,8 +18543,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A188,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T188" t="str">
+        <f>VLOOKUP(A188,Mechanisms!B:C,2,FALSE)</f>
+        <v>Reaction to Security incidents against the EIDS</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>336</v>
       </c>
@@ -18146,7 +18561,7 @@
       <c r="D189" t="s">
         <v>386</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" s="10" t="s">
         <v>801</v>
       </c>
       <c r="F189" t="s">
@@ -18155,8 +18570,8 @@
       <c r="H189">
         <v>1</v>
       </c>
-      <c r="I189">
-        <v>0</v>
+      <c r="I189" s="9" t="s">
+        <v>1923</v>
       </c>
       <c r="J189">
         <v>0</v>
@@ -18179,8 +18594,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A189,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T189" t="str">
+        <f>VLOOKUP(A189,Mechanisms!B:C,2,FALSE)</f>
+        <v>Reaction to Security incidents against the EIDS</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>336</v>
       </c>
@@ -18193,7 +18612,7 @@
       <c r="D190" t="s">
         <v>386</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="10" t="s">
         <v>803</v>
       </c>
       <c r="F190" t="s">
@@ -18202,8 +18621,8 @@
       <c r="H190">
         <v>1</v>
       </c>
-      <c r="I190">
-        <v>0</v>
+      <c r="I190" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -18226,8 +18645,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A190,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T190" t="str">
+        <f>VLOOKUP(A190,Mechanisms!B:C,2,FALSE)</f>
+        <v>Reaction to Security incidents against the EIDS</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>308</v>
       </c>
@@ -18249,8 +18672,8 @@
       <c r="H191">
         <v>1</v>
       </c>
-      <c r="I191">
-        <v>0</v>
+      <c r="I191" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J191">
         <v>0</v>
@@ -18274,7 +18697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>308</v>
       </c>
@@ -18296,8 +18719,8 @@
       <c r="H192">
         <v>1</v>
       </c>
-      <c r="I192">
-        <v>0</v>
+      <c r="I192" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -18321,7 +18744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>308</v>
       </c>
@@ -18343,8 +18766,8 @@
       <c r="H193">
         <v>1</v>
       </c>
-      <c r="I193">
-        <v>0</v>
+      <c r="I193" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J193">
         <v>0</v>
@@ -18368,7 +18791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>308</v>
       </c>
@@ -18390,8 +18813,8 @@
       <c r="H194">
         <v>1</v>
       </c>
-      <c r="I194">
-        <v>0</v>
+      <c r="I194" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -18415,7 +18838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>308</v>
       </c>
@@ -18437,8 +18860,8 @@
       <c r="H195">
         <v>1</v>
       </c>
-      <c r="I195">
-        <v>0</v>
+      <c r="I195" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J195">
         <v>0</v>
@@ -18458,8 +18881,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A195,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T195" t="str">
+        <f>VLOOKUP(A195,Mechanisms!B:C,2,FALSE)</f>
+        <v>Internal EIDS security processes enforced</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>260</v>
       </c>
@@ -18481,8 +18908,8 @@
       <c r="H196">
         <v>1</v>
       </c>
-      <c r="I196">
-        <v>0</v>
+      <c r="I196" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -18503,7 +18930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>260</v>
       </c>
@@ -18525,8 +18952,8 @@
       <c r="H197">
         <v>1</v>
       </c>
-      <c r="I197">
-        <v>0</v>
+      <c r="I197" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -18547,7 +18974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>260</v>
       </c>
@@ -18560,7 +18987,7 @@
       <c r="D198" t="s">
         <v>386</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="10" t="s">
         <v>820</v>
       </c>
       <c r="F198" t="s">
@@ -18569,8 +18996,8 @@
       <c r="H198">
         <v>1</v>
       </c>
-      <c r="I198">
-        <v>0</v>
+      <c r="I198" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J198">
         <v>0</v>
@@ -18593,8 +19020,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A198,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T198" t="str">
+        <f>VLOOKUP(A198,Mechanisms!B:C,2,FALSE)</f>
+        <v>Evidence of maintainability Requirements</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>260</v>
       </c>
@@ -18607,7 +19038,7 @@
       <c r="D199" t="s">
         <v>386</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="10" t="s">
         <v>822</v>
       </c>
       <c r="F199" t="s">
@@ -18616,8 +19047,8 @@
       <c r="H199">
         <v>1</v>
       </c>
-      <c r="I199">
-        <v>0</v>
+      <c r="I199" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J199">
         <v>0</v>
@@ -18640,8 +19071,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A199,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T199" t="str">
+        <f>VLOOKUP(A199,Mechanisms!B:C,2,FALSE)</f>
+        <v>Evidence of maintainability Requirements</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>260</v>
       </c>
@@ -18663,8 +19098,8 @@
       <c r="H200">
         <v>1</v>
       </c>
-      <c r="I200">
-        <v>0</v>
+      <c r="I200" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J200">
         <v>0</v>
@@ -18687,8 +19122,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A200,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T200" t="str">
+        <f>VLOOKUP(A200,Mechanisms!B:C,2,FALSE)</f>
+        <v>Evidence of maintainability Requirements</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>237</v>
       </c>
@@ -18710,8 +19149,8 @@
       <c r="H201">
         <v>1</v>
       </c>
-      <c r="I201">
-        <v>0</v>
+      <c r="I201" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J201">
         <v>0</v>
@@ -18732,7 +19171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>237</v>
       </c>
@@ -18754,8 +19193,8 @@
       <c r="H202">
         <v>1</v>
       </c>
-      <c r="I202">
-        <v>0</v>
+      <c r="I202" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J202">
         <v>0</v>
@@ -18775,8 +19214,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A202,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T202" t="str">
+        <f>VLOOKUP(A202,Mechanisms!B:C,2,FALSE)</f>
+        <v>Expected outcomes from unexpected inputs</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>237</v>
       </c>
@@ -18798,8 +19241,8 @@
       <c r="H203">
         <v>1</v>
       </c>
-      <c r="I203">
-        <v>0</v>
+      <c r="I203" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J203">
         <v>0</v>
@@ -18819,8 +19262,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A203,Mechanisms!B:B,0)-1,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T203" t="str">
+        <f>VLOOKUP(A203,Mechanisms!B:C,2,FALSE)</f>
+        <v>Expected outcomes from unexpected inputs</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>243</v>
       </c>
@@ -18842,8 +19289,8 @@
       <c r="H204">
         <v>1</v>
       </c>
-      <c r="I204">
-        <v>0</v>
+      <c r="I204" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -18867,7 +19314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>243</v>
       </c>
@@ -18889,8 +19336,8 @@
       <c r="H205">
         <v>1</v>
       </c>
-      <c r="I205">
-        <v>0</v>
+      <c r="I205" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J205">
         <v>0</v>
@@ -18914,7 +19361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>243</v>
       </c>
@@ -18936,8 +19383,8 @@
       <c r="H206">
         <v>1</v>
       </c>
-      <c r="I206">
-        <v>0</v>
+      <c r="I206" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J206">
         <v>0</v>
@@ -18961,7 +19408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>243</v>
       </c>
@@ -18983,8 +19430,8 @@
       <c r="H207">
         <v>1</v>
       </c>
-      <c r="I207">
-        <v>0</v>
+      <c r="I207" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J207">
         <v>0</v>
@@ -19008,7 +19455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>252</v>
       </c>
@@ -19030,8 +19477,8 @@
       <c r="H208">
         <v>1</v>
       </c>
-      <c r="I208">
-        <v>0</v>
+      <c r="I208" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J208">
         <v>0</v>
@@ -19055,7 +19502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>252</v>
       </c>
@@ -19077,8 +19524,8 @@
       <c r="H209">
         <v>1</v>
       </c>
-      <c r="I209">
-        <v>0</v>
+      <c r="I209" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J209">
         <v>0</v>
@@ -19101,8 +19548,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A209,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T209" t="str">
+        <f>VLOOKUP(A209,Mechanisms!B:C,2,FALSE)</f>
+        <v>Tolerate process variability in operating and environmental conditions</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>252</v>
       </c>
@@ -19124,8 +19575,8 @@
       <c r="H210">
         <v>1</v>
       </c>
-      <c r="I210">
-        <v>0</v>
+      <c r="I210" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J210">
         <v>0</v>
@@ -19148,8 +19599,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A210,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T210" t="str">
+        <f>VLOOKUP(A210,Mechanisms!B:C,2,FALSE)</f>
+        <v>Tolerate process variability in operating and environmental conditions</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>38</v>
       </c>
@@ -19171,8 +19626,8 @@
       <c r="H211">
         <v>1</v>
       </c>
-      <c r="I211">
-        <v>0</v>
+      <c r="I211" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J211">
         <v>0</v>
@@ -19199,7 +19654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>38</v>
       </c>
@@ -19221,8 +19676,8 @@
       <c r="H212">
         <v>1</v>
       </c>
-      <c r="I212">
-        <v>0</v>
+      <c r="I212" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J212">
         <v>0</v>
@@ -19249,7 +19704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>38</v>
       </c>
@@ -19271,8 +19726,8 @@
       <c r="H213">
         <v>1</v>
       </c>
-      <c r="I213">
-        <v>0</v>
+      <c r="I213" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -19299,7 +19754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>38</v>
       </c>
@@ -19321,8 +19776,8 @@
       <c r="H214">
         <v>1</v>
       </c>
-      <c r="I214">
-        <v>0</v>
+      <c r="I214" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -19349,7 +19804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>38</v>
       </c>
@@ -19374,8 +19829,8 @@
       <c r="H215">
         <v>1</v>
       </c>
-      <c r="I215">
-        <v>0</v>
+      <c r="I215" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J215">
         <v>0</v>
@@ -19402,7 +19857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>38</v>
       </c>
@@ -19424,8 +19879,8 @@
       <c r="H216">
         <v>1</v>
       </c>
-      <c r="I216">
-        <v>0</v>
+      <c r="I216" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J216">
         <v>0</v>
@@ -19452,7 +19907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>38</v>
       </c>
@@ -19474,8 +19929,8 @@
       <c r="H217">
         <v>1</v>
       </c>
-      <c r="I217">
-        <v>0</v>
+      <c r="I217" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J217">
         <v>0</v>
@@ -19502,7 +19957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>19</v>
       </c>
@@ -19527,8 +19982,8 @@
       <c r="H218">
         <v>1</v>
       </c>
-      <c r="I218">
-        <v>0</v>
+      <c r="I218" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J218">
         <v>0</v>
@@ -19555,7 +20010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>19</v>
       </c>
@@ -19580,8 +20035,8 @@
       <c r="H219">
         <v>1</v>
       </c>
-      <c r="I219">
-        <v>0</v>
+      <c r="I219" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J219">
         <v>0</v>
@@ -19608,7 +20063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>19</v>
       </c>
@@ -19633,8 +20088,8 @@
       <c r="H220">
         <v>1</v>
       </c>
-      <c r="I220">
-        <v>0</v>
+      <c r="I220" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J220">
         <v>0</v>
@@ -19661,7 +20116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>19</v>
       </c>
@@ -19686,8 +20141,8 @@
       <c r="H221">
         <v>1</v>
       </c>
-      <c r="I221">
-        <v>0</v>
+      <c r="I221" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J221">
         <v>0</v>
@@ -19714,7 +20169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>19</v>
       </c>
@@ -19739,8 +20194,8 @@
       <c r="H222">
         <v>1</v>
       </c>
-      <c r="I222">
-        <v>0</v>
+      <c r="I222" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J222">
         <v>0</v>
@@ -19767,7 +20222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>19</v>
       </c>
@@ -19789,8 +20244,8 @@
       <c r="H223">
         <v>1</v>
       </c>
-      <c r="I223">
-        <v>0</v>
+      <c r="I223" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J223">
         <v>0</v>
@@ -19817,7 +20272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>19</v>
       </c>
@@ -19839,8 +20294,8 @@
       <c r="H224">
         <v>1</v>
       </c>
-      <c r="I224">
-        <v>0</v>
+      <c r="I224" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J224">
         <v>0</v>
@@ -19867,7 +20322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>19</v>
       </c>
@@ -19889,8 +20344,8 @@
       <c r="H225">
         <v>1</v>
       </c>
-      <c r="I225">
-        <v>0</v>
+      <c r="I225" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J225">
         <v>0</v>
@@ -19917,7 +20372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>19</v>
       </c>
@@ -19930,7 +20385,7 @@
       <c r="D226" t="s">
         <v>386</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="10" t="s">
         <v>892</v>
       </c>
       <c r="F226" t="s">
@@ -19942,8 +20397,8 @@
       <c r="H226">
         <v>1</v>
       </c>
-      <c r="I226">
-        <v>0</v>
+      <c r="I226" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J226">
         <v>0</v>
@@ -19969,8 +20424,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A226,Mechanisms!B:B,0)-1,0))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T226" t="str">
+        <f>VLOOKUP(A226,Mechanisms!B:C,2,FALSE)</f>
+        <v>Access Control (AC) Methods</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>19</v>
       </c>
@@ -19983,7 +20442,7 @@
       <c r="D227" t="s">
         <v>386</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="10" t="s">
         <v>894</v>
       </c>
       <c r="F227" t="s">
@@ -19995,8 +20454,8 @@
       <c r="H227">
         <v>1</v>
       </c>
-      <c r="I227">
-        <v>0</v>
+      <c r="I227" s="9" t="s">
+        <v>1923</v>
       </c>
       <c r="J227">
         <v>0</v>
@@ -20022,8 +20481,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A227,Mechanisms!B:B,0)-1,0))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T227" t="str">
+        <f>VLOOKUP(A227,Mechanisms!B:C,2,FALSE)</f>
+        <v>Access Control (AC) Methods</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>19</v>
       </c>
@@ -20036,7 +20499,7 @@
       <c r="D228" t="s">
         <v>386</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E228" s="10" t="s">
         <v>896</v>
       </c>
       <c r="F228" t="s">
@@ -20048,8 +20511,8 @@
       <c r="H228">
         <v>1</v>
       </c>
-      <c r="I228">
-        <v>0</v>
+      <c r="I228" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J228">
         <v>0</v>
@@ -20075,8 +20538,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A228,Mechanisms!B:B,0)-1,0))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T228" t="str">
+        <f>VLOOKUP(A228,Mechanisms!B:C,2,FALSE)</f>
+        <v>Access Control (AC) Methods</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>19</v>
       </c>
@@ -20089,7 +20556,7 @@
       <c r="D229" t="s">
         <v>386</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="10" t="s">
         <v>898</v>
       </c>
       <c r="F229" t="s">
@@ -20101,8 +20568,8 @@
       <c r="H229">
         <v>1</v>
       </c>
-      <c r="I229">
-        <v>0</v>
+      <c r="I229" s="9" t="s">
+        <v>1923</v>
       </c>
       <c r="J229">
         <v>0</v>
@@ -20128,8 +20595,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A229,Mechanisms!B:B,0)-1,0))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T229" t="str">
+        <f>VLOOKUP(A229,Mechanisms!B:C,2,FALSE)</f>
+        <v>Access Control (AC) Methods</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>19</v>
       </c>
@@ -20154,8 +20625,8 @@
       <c r="H230">
         <v>1</v>
       </c>
-      <c r="I230">
-        <v>0</v>
+      <c r="I230" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J230">
         <v>0</v>
@@ -20181,8 +20652,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A230,Mechanisms!B:B,0)-1,0))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T230" t="str">
+        <f>VLOOKUP(A230,Mechanisms!B:C,2,FALSE)</f>
+        <v>Access Control (AC) Methods</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>19</v>
       </c>
@@ -20207,8 +20682,8 @@
       <c r="H231">
         <v>1</v>
       </c>
-      <c r="I231">
-        <v>0</v>
+      <c r="I231" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J231">
         <v>0</v>
@@ -20234,8 +20709,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A231,Mechanisms!B:B,0)-1,0))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T231" t="str">
+        <f>VLOOKUP(A231,Mechanisms!B:C,2,FALSE)</f>
+        <v>Access Control (AC) Methods</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -20260,8 +20739,8 @@
       <c r="H232">
         <v>1</v>
       </c>
-      <c r="I232">
-        <v>0</v>
+      <c r="I232" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J232">
         <v>0</v>
@@ -20287,8 +20766,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A232,Mechanisms!B:B,0)-1,0))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T232" t="str">
+        <f>VLOOKUP(A232,Mechanisms!B:C,2,FALSE)</f>
+        <v>Access Control (AC) Methods</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>19</v>
       </c>
@@ -20313,8 +20796,8 @@
       <c r="H233">
         <v>1</v>
       </c>
-      <c r="I233">
-        <v>0</v>
+      <c r="I233" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J233">
         <v>0</v>
@@ -20340,8 +20823,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A233,Mechanisms!B:B,0)-1,0))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T233" t="str">
+        <f>VLOOKUP(A233,Mechanisms!B:C,2,FALSE)</f>
+        <v>Access Control (AC) Methods</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>93</v>
       </c>
@@ -20363,8 +20850,8 @@
       <c r="H234">
         <v>1</v>
       </c>
-      <c r="I234">
-        <v>0</v>
+      <c r="I234" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J234">
         <v>0</v>
@@ -20385,7 +20872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>93</v>
       </c>
@@ -20407,8 +20894,8 @@
       <c r="H235">
         <v>1</v>
       </c>
-      <c r="I235">
-        <v>0</v>
+      <c r="I235" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J235">
         <v>0</v>
@@ -20429,7 +20916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>93</v>
       </c>
@@ -20454,8 +20941,8 @@
       <c r="H236">
         <v>1</v>
       </c>
-      <c r="I236">
-        <v>0</v>
+      <c r="I236" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J236">
         <v>0</v>
@@ -20476,7 +20963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>93</v>
       </c>
@@ -20498,8 +20985,8 @@
       <c r="H237">
         <v>1</v>
       </c>
-      <c r="I237">
-        <v>0</v>
+      <c r="I237" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J237">
         <v>0</v>
@@ -20522,8 +21009,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A237,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T237" t="str">
+        <f>VLOOKUP(A237,Mechanisms!B:C,2,FALSE)</f>
+        <v>Cryptographic protection</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>93</v>
       </c>
@@ -20545,8 +21036,8 @@
       <c r="H238">
         <v>1</v>
       </c>
-      <c r="I238">
-        <v>0</v>
+      <c r="I238" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J238">
         <v>0</v>
@@ -20569,8 +21060,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A238,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T238" t="str">
+        <f>VLOOKUP(A238,Mechanisms!B:C,2,FALSE)</f>
+        <v>Cryptographic protection</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>93</v>
       </c>
@@ -20595,8 +21090,8 @@
       <c r="H239">
         <v>1</v>
       </c>
-      <c r="I239">
-        <v>0</v>
+      <c r="I239" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J239">
         <v>0</v>
@@ -20619,8 +21114,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A239,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T239" t="str">
+        <f>VLOOKUP(A239,Mechanisms!B:C,2,FALSE)</f>
+        <v>Cryptographic protection</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>93</v>
       </c>
@@ -20645,8 +21144,8 @@
       <c r="H240">
         <v>1</v>
       </c>
-      <c r="I240">
-        <v>0</v>
+      <c r="I240" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J240">
         <v>0</v>
@@ -20669,8 +21168,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A240,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T240" t="str">
+        <f>VLOOKUP(A240,Mechanisms!B:C,2,FALSE)</f>
+        <v>Cryptographic protection</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>71</v>
       </c>
@@ -20695,8 +21198,8 @@
       <c r="H241">
         <v>1</v>
       </c>
-      <c r="I241">
-        <v>0</v>
+      <c r="I241" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J241">
         <v>0</v>
@@ -20717,7 +21220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>71</v>
       </c>
@@ -20742,8 +21245,8 @@
       <c r="H242">
         <v>1</v>
       </c>
-      <c r="I242">
-        <v>0</v>
+      <c r="I242" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J242">
         <v>0</v>
@@ -20764,7 +21267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>71</v>
       </c>
@@ -20789,8 +21292,8 @@
       <c r="H243">
         <v>1</v>
       </c>
-      <c r="I243">
-        <v>0</v>
+      <c r="I243" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J243">
         <v>0</v>
@@ -20811,7 +21314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>71</v>
       </c>
@@ -20836,8 +21339,8 @@
       <c r="H244">
         <v>1</v>
       </c>
-      <c r="I244">
-        <v>0</v>
+      <c r="I244" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J244">
         <v>0</v>
@@ -20860,8 +21363,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A244,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T244" t="str">
+        <f>VLOOKUP(A244,Mechanisms!B:C,2,FALSE)</f>
+        <v>Defence-in-depth</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>71</v>
       </c>
@@ -20874,7 +21381,7 @@
       <c r="D245" t="s">
         <v>386</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E245" s="10" t="s">
         <v>940</v>
       </c>
       <c r="F245" t="s">
@@ -20886,8 +21393,8 @@
       <c r="H245">
         <v>1</v>
       </c>
-      <c r="I245">
-        <v>0</v>
+      <c r="I245" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J245">
         <v>0</v>
@@ -20910,8 +21417,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A245,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T245" t="str">
+        <f>VLOOKUP(A245,Mechanisms!B:C,2,FALSE)</f>
+        <v>Defence-in-depth</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>64</v>
       </c>
@@ -20936,8 +21447,8 @@
       <c r="H246">
         <v>1</v>
       </c>
-      <c r="I246">
-        <v>0</v>
+      <c r="I246" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J246">
         <v>0</v>
@@ -20958,7 +21469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>64</v>
       </c>
@@ -20983,8 +21494,8 @@
       <c r="H247">
         <v>1</v>
       </c>
-      <c r="I247">
-        <v>0</v>
+      <c r="I247" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J247">
         <v>0</v>
@@ -21005,7 +21516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>64</v>
       </c>
@@ -21030,8 +21541,8 @@
       <c r="H248">
         <v>1</v>
       </c>
-      <c r="I248">
-        <v>0</v>
+      <c r="I248" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J248">
         <v>0</v>
@@ -21054,8 +21565,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A248,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T248" t="str">
+        <f>VLOOKUP(A248,Mechanisms!B:C,2,FALSE)</f>
+        <v>Evidence of Layered-Security</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>64</v>
       </c>
@@ -21080,8 +21595,8 @@
       <c r="H249">
         <v>1</v>
       </c>
-      <c r="I249">
-        <v>0</v>
+      <c r="I249" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J249">
         <v>0</v>
@@ -21104,8 +21619,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A249,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T249" t="str">
+        <f>VLOOKUP(A249,Mechanisms!B:C,2,FALSE)</f>
+        <v>Evidence of Layered-Security</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>111</v>
       </c>
@@ -21127,8 +21646,8 @@
       <c r="H250">
         <v>1</v>
       </c>
-      <c r="I250">
-        <v>0</v>
+      <c r="I250" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J250">
         <v>0</v>
@@ -21152,7 +21671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>111</v>
       </c>
@@ -21174,8 +21693,8 @@
       <c r="H251">
         <v>1</v>
       </c>
-      <c r="I251">
-        <v>0</v>
+      <c r="I251" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J251">
         <v>0</v>
@@ -21199,7 +21718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>111</v>
       </c>
@@ -21224,8 +21743,8 @@
       <c r="H252">
         <v>1</v>
       </c>
-      <c r="I252">
-        <v>0</v>
+      <c r="I252" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J252">
         <v>0</v>
@@ -21249,7 +21768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>111</v>
       </c>
@@ -21271,8 +21790,8 @@
       <c r="H253">
         <v>1</v>
       </c>
-      <c r="I253">
-        <v>0</v>
+      <c r="I253" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J253">
         <v>0</v>
@@ -21296,7 +21815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>111</v>
       </c>
@@ -21309,7 +21828,7 @@
       <c r="D254" t="s">
         <v>386</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E254" s="10" t="s">
         <v>958</v>
       </c>
       <c r="F254" t="s">
@@ -21318,8 +21837,8 @@
       <c r="H254">
         <v>1</v>
       </c>
-      <c r="I254">
-        <v>0</v>
+      <c r="I254" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="O254" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -21333,8 +21852,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A254,Mechanisms!B:B,0)-1,0))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T254" t="str">
+        <f>VLOOKUP(A254,Mechanisms!B:C,2,FALSE)</f>
+        <v>SSO or federated access Mngt support</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>111</v>
       </c>
@@ -21356,8 +21879,8 @@
       <c r="H255">
         <v>1</v>
       </c>
-      <c r="I255">
-        <v>0</v>
+      <c r="I255" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="O255" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -21371,8 +21894,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A255,Mechanisms!B:B,0)-1,0))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T255" t="str">
+        <f>VLOOKUP(A255,Mechanisms!B:C,2,FALSE)</f>
+        <v>SSO or federated access Mngt support</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>55</v>
       </c>
@@ -21394,8 +21921,8 @@
       <c r="H256">
         <v>1</v>
       </c>
-      <c r="I256">
-        <v>0</v>
+      <c r="I256" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J256">
         <v>0</v>
@@ -21422,7 +21949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>55</v>
       </c>
@@ -21447,8 +21974,8 @@
       <c r="H257">
         <v>1</v>
       </c>
-      <c r="I257">
-        <v>0</v>
+      <c r="I257" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J257">
         <v>0</v>
@@ -21475,7 +22002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>55</v>
       </c>
@@ -21497,8 +22024,8 @@
       <c r="H258">
         <v>1</v>
       </c>
-      <c r="I258">
-        <v>0</v>
+      <c r="I258" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J258">
         <v>0</v>
@@ -21525,7 +22052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>55</v>
       </c>
@@ -21550,8 +22077,8 @@
       <c r="H259">
         <v>1</v>
       </c>
-      <c r="I259">
-        <v>0</v>
+      <c r="I259" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J259">
         <v>0</v>
@@ -21578,7 +22105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>55</v>
       </c>
@@ -21603,8 +22130,8 @@
       <c r="H260">
         <v>1</v>
       </c>
-      <c r="I260">
-        <v>0</v>
+      <c r="I260" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J260">
         <v>0</v>
@@ -21631,7 +22158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>55</v>
       </c>
@@ -21656,8 +22183,8 @@
       <c r="H261">
         <v>1</v>
       </c>
-      <c r="I261">
-        <v>0</v>
+      <c r="I261" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J261">
         <v>0</v>
@@ -21684,7 +22211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>55</v>
       </c>
@@ -21706,8 +22233,8 @@
       <c r="H262">
         <v>1</v>
       </c>
-      <c r="I262">
-        <v>0</v>
+      <c r="I262" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J262">
         <v>0</v>
@@ -21734,7 +22261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>55</v>
       </c>
@@ -21759,8 +22286,8 @@
       <c r="H263">
         <v>1</v>
       </c>
-      <c r="I263">
-        <v>0</v>
+      <c r="I263" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J263">
         <v>0</v>
@@ -21783,8 +22310,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A263,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T263" t="str">
+        <f>VLOOKUP(A263,Mechanisms!B:C,2,FALSE)</f>
+        <v>Identity Governance and Intelligence</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>55</v>
       </c>
@@ -21797,7 +22328,7 @@
       <c r="D264" t="s">
         <v>386</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E264" s="10" t="s">
         <v>983</v>
       </c>
       <c r="F264" t="s">
@@ -21809,8 +22340,8 @@
       <c r="H264">
         <v>1</v>
       </c>
-      <c r="I264">
-        <v>0</v>
+      <c r="I264" s="9" t="s">
+        <v>1923</v>
       </c>
       <c r="J264">
         <v>0</v>
@@ -21833,8 +22364,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A264,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T264" t="str">
+        <f>VLOOKUP(A264,Mechanisms!B:C,2,FALSE)</f>
+        <v>Identity Governance and Intelligence</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>55</v>
       </c>
@@ -21859,8 +22394,8 @@
       <c r="H265">
         <v>1</v>
       </c>
-      <c r="I265">
-        <v>0</v>
+      <c r="I265" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J265">
         <v>0</v>
@@ -21883,8 +22418,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A265,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T265" t="str">
+        <f>VLOOKUP(A265,Mechanisms!B:C,2,FALSE)</f>
+        <v>Identity Governance and Intelligence</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>100</v>
       </c>
@@ -21906,8 +22445,8 @@
       <c r="H266">
         <v>1</v>
       </c>
-      <c r="I266">
-        <v>0</v>
+      <c r="I266" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J266">
         <v>0</v>
@@ -21931,7 +22470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>100</v>
       </c>
@@ -21956,8 +22495,8 @@
       <c r="H267">
         <v>1</v>
       </c>
-      <c r="I267">
-        <v>0</v>
+      <c r="I267" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J267">
         <v>0</v>
@@ -21981,7 +22520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>100</v>
       </c>
@@ -22006,8 +22545,8 @@
       <c r="H268">
         <v>1</v>
       </c>
-      <c r="I268">
-        <v>0</v>
+      <c r="I268" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J268">
         <v>0</v>
@@ -22031,7 +22570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>100</v>
       </c>
@@ -22056,8 +22595,8 @@
       <c r="H269">
         <v>1</v>
       </c>
-      <c r="I269">
-        <v>0</v>
+      <c r="I269" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J269">
         <v>0</v>
@@ -22081,7 +22620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>100</v>
       </c>
@@ -22103,8 +22642,8 @@
       <c r="H270">
         <v>1</v>
       </c>
-      <c r="I270">
-        <v>0</v>
+      <c r="I270" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J270">
         <v>0</v>
@@ -22128,7 +22667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>100</v>
       </c>
@@ -22150,8 +22689,8 @@
       <c r="H271">
         <v>1</v>
       </c>
-      <c r="I271">
-        <v>0</v>
+      <c r="I271" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J271">
         <v>0</v>
@@ -22175,7 +22714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>100</v>
       </c>
@@ -22200,8 +22739,8 @@
       <c r="H272">
         <v>1</v>
       </c>
-      <c r="I272">
-        <v>0</v>
+      <c r="I272" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J272">
         <v>0</v>
@@ -22225,7 +22764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>100</v>
       </c>
@@ -22250,8 +22789,8 @@
       <c r="H273">
         <v>1</v>
       </c>
-      <c r="I273">
-        <v>0</v>
+      <c r="I273" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J273">
         <v>0</v>
@@ -22275,7 +22814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>100</v>
       </c>
@@ -22297,8 +22836,8 @@
       <c r="H274">
         <v>1</v>
       </c>
-      <c r="I274">
-        <v>0</v>
+      <c r="I274" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J274">
         <v>0</v>
@@ -22322,7 +22861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>100</v>
       </c>
@@ -22347,8 +22886,8 @@
       <c r="H275">
         <v>1</v>
       </c>
-      <c r="I275">
-        <v>0</v>
+      <c r="I275" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J275">
         <v>0</v>
@@ -22372,7 +22911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>100</v>
       </c>
@@ -22394,8 +22933,8 @@
       <c r="H276">
         <v>1</v>
       </c>
-      <c r="I276">
-        <v>0</v>
+      <c r="I276" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J276">
         <v>0</v>
@@ -22424,8 +22963,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A276,Mechanisms!B:B,0)-1,0))</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T276" t="str">
+        <f>VLOOKUP(A276,Mechanisms!B:C,2,FALSE)</f>
+        <v>Maturity level of security policies in place</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>100</v>
       </c>
@@ -22450,8 +22993,8 @@
       <c r="H277">
         <v>1</v>
       </c>
-      <c r="I277">
-        <v>0</v>
+      <c r="I277" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J277">
         <v>0</v>
@@ -22480,8 +23023,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A277,Mechanisms!B:B,0)-1,0))</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T277" t="str">
+        <f>VLOOKUP(A277,Mechanisms!B:C,2,FALSE)</f>
+        <v>Maturity level of security policies in place</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>100</v>
       </c>
@@ -22494,7 +23041,7 @@
       <c r="D278" t="s">
         <v>386</v>
       </c>
-      <c r="E278" t="s">
+      <c r="E278" s="10" t="s">
         <v>1024</v>
       </c>
       <c r="F278" t="s">
@@ -22503,8 +23050,8 @@
       <c r="H278">
         <v>1</v>
       </c>
-      <c r="I278">
-        <v>0</v>
+      <c r="I278" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J278">
         <v>0</v>
@@ -22533,8 +23080,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A278,Mechanisms!B:B,0)-1,0))</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T278" t="str">
+        <f>VLOOKUP(A278,Mechanisms!B:C,2,FALSE)</f>
+        <v>Maturity level of security policies in place</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>100</v>
       </c>
@@ -22559,8 +23110,8 @@
       <c r="H279">
         <v>1</v>
       </c>
-      <c r="I279">
-        <v>0</v>
+      <c r="I279" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J279">
         <v>0</v>
@@ -22589,8 +23140,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A279,Mechanisms!B:B,0)-1,0))</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T279" t="str">
+        <f>VLOOKUP(A279,Mechanisms!B:C,2,FALSE)</f>
+        <v>Maturity level of security policies in place</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>100</v>
       </c>
@@ -22612,8 +23167,8 @@
       <c r="H280">
         <v>1</v>
       </c>
-      <c r="I280">
-        <v>0</v>
+      <c r="I280" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J280">
         <v>0</v>
@@ -22642,8 +23197,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A280,Mechanisms!B:B,0)-1,0))</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T280" t="str">
+        <f>VLOOKUP(A280,Mechanisms!B:C,2,FALSE)</f>
+        <v>Maturity level of security policies in place</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>100</v>
       </c>
@@ -22656,7 +23215,7 @@
       <c r="D281" t="s">
         <v>386</v>
       </c>
-      <c r="E281" t="s">
+      <c r="E281" s="10" t="s">
         <v>1030</v>
       </c>
       <c r="F281" t="s">
@@ -22665,8 +23224,8 @@
       <c r="H281">
         <v>1</v>
       </c>
-      <c r="I281">
-        <v>0</v>
+      <c r="I281" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J281">
         <v>0</v>
@@ -22695,8 +23254,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A281,Mechanisms!B:B,0)-1,0))</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T281" t="str">
+        <f>VLOOKUP(A281,Mechanisms!B:C,2,FALSE)</f>
+        <v>Maturity level of security policies in place</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>78</v>
       </c>
@@ -22718,8 +23281,8 @@
       <c r="H282">
         <v>1</v>
       </c>
-      <c r="I282">
-        <v>0</v>
+      <c r="I282" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J282">
         <v>0</v>
@@ -22743,7 +23306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>78</v>
       </c>
@@ -22765,8 +23328,8 @@
       <c r="H283">
         <v>1</v>
       </c>
-      <c r="I283">
-        <v>0</v>
+      <c r="I283" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J283">
         <v>0</v>
@@ -22790,7 +23353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>78</v>
       </c>
@@ -22812,8 +23375,8 @@
       <c r="H284">
         <v>1</v>
       </c>
-      <c r="I284">
-        <v>0</v>
+      <c r="I284" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J284">
         <v>0</v>
@@ -22837,7 +23400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>78</v>
       </c>
@@ -22859,8 +23422,8 @@
       <c r="H285">
         <v>1</v>
       </c>
-      <c r="I285">
-        <v>0</v>
+      <c r="I285" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J285">
         <v>0</v>
@@ -22884,7 +23447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>78</v>
       </c>
@@ -22897,7 +23460,7 @@
       <c r="D286" t="s">
         <v>386</v>
       </c>
-      <c r="E286" t="s">
+      <c r="E286" s="10" t="s">
         <v>1045</v>
       </c>
       <c r="F286" t="s">
@@ -22906,8 +23469,8 @@
       <c r="H286">
         <v>1</v>
       </c>
-      <c r="I286">
-        <v>0</v>
+      <c r="I286" s="9" t="s">
+        <v>1923</v>
       </c>
       <c r="J286">
         <v>0</v>
@@ -22930,8 +23493,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A286,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T286" t="str">
+        <f>VLOOKUP(A286,Mechanisms!B:C,2,FALSE)</f>
+        <v>Personal Identifiable Information (PII) and Sensitive PII (SPII)</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>78</v>
       </c>
@@ -22953,8 +23520,8 @@
       <c r="H287">
         <v>1</v>
       </c>
-      <c r="I287">
-        <v>0</v>
+      <c r="I287" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J287">
         <v>0</v>
@@ -22977,8 +23544,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A287,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T287" t="str">
+        <f>VLOOKUP(A287,Mechanisms!B:C,2,FALSE)</f>
+        <v>Personal Identifiable Information (PII) and Sensitive PII (SPII)</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>78</v>
       </c>
@@ -23000,8 +23571,8 @@
       <c r="H288">
         <v>1</v>
       </c>
-      <c r="I288">
-        <v>0</v>
+      <c r="I288" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J288">
         <v>0</v>
@@ -23024,8 +23595,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A288,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T288" t="str">
+        <f>VLOOKUP(A288,Mechanisms!B:C,2,FALSE)</f>
+        <v>Personal Identifiable Information (PII) and Sensitive PII (SPII)</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>78</v>
       </c>
@@ -23047,8 +23622,8 @@
       <c r="H289">
         <v>1</v>
       </c>
-      <c r="I289">
-        <v>0</v>
+      <c r="I289" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J289">
         <v>0</v>
@@ -23071,8 +23646,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A289,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T289" t="str">
+        <f>VLOOKUP(A289,Mechanisms!B:C,2,FALSE)</f>
+        <v>Personal Identifiable Information (PII) and Sensitive PII (SPII)</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>87</v>
       </c>
@@ -23094,8 +23673,8 @@
       <c r="H290">
         <v>1</v>
       </c>
-      <c r="I290">
-        <v>0</v>
+      <c r="I290" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J290">
         <v>0</v>
@@ -23119,7 +23698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>87</v>
       </c>
@@ -23141,8 +23720,8 @@
       <c r="H291">
         <v>1</v>
       </c>
-      <c r="I291">
-        <v>0</v>
+      <c r="I291" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J291">
         <v>0</v>
@@ -23166,7 +23745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>87</v>
       </c>
@@ -23188,8 +23767,8 @@
       <c r="H292">
         <v>1</v>
       </c>
-      <c r="I292">
-        <v>0</v>
+      <c r="I292" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J292">
         <v>0</v>
@@ -23213,7 +23792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>87</v>
       </c>
@@ -23235,8 +23814,8 @@
       <c r="H293">
         <v>1</v>
       </c>
-      <c r="I293">
-        <v>0</v>
+      <c r="I293" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J293">
         <v>0</v>
@@ -23253,8 +23832,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A293,Mechanisms!B:B,0)-1,0))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T293" t="str">
+        <f>VLOOKUP(A293,Mechanisms!B:C,2,FALSE)</f>
+        <v>Regulatory Compliance (DID assurance)</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>87</v>
       </c>
@@ -23279,8 +23862,8 @@
       <c r="H294">
         <v>1</v>
       </c>
-      <c r="I294">
-        <v>0</v>
+      <c r="I294" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J294">
         <v>0</v>
@@ -23297,8 +23880,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A294,Mechanisms!B:B,0)-1,0))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T294" t="str">
+        <f>VLOOKUP(A294,Mechanisms!B:C,2,FALSE)</f>
+        <v>Regulatory Compliance (DID assurance)</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>87</v>
       </c>
@@ -23323,8 +23910,8 @@
       <c r="H295">
         <v>1</v>
       </c>
-      <c r="I295">
-        <v>0</v>
+      <c r="I295" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J295">
         <v>0</v>
@@ -23341,8 +23928,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A295,Mechanisms!B:B,0)-1,0))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T295" t="str">
+        <f>VLOOKUP(A295,Mechanisms!B:C,2,FALSE)</f>
+        <v>Regulatory Compliance (DID assurance)</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>87</v>
       </c>
@@ -23367,8 +23958,8 @@
       <c r="H296">
         <v>1</v>
       </c>
-      <c r="I296">
-        <v>0</v>
+      <c r="I296" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J296">
         <v>0</v>
@@ -23385,8 +23976,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A296,Mechanisms!B:B,0)-1,0))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T296" t="str">
+        <f>VLOOKUP(A296,Mechanisms!B:C,2,FALSE)</f>
+        <v>Regulatory Compliance (DID assurance)</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>87</v>
       </c>
@@ -23411,8 +24006,8 @@
       <c r="H297">
         <v>1</v>
       </c>
-      <c r="I297">
-        <v>0</v>
+      <c r="I297" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J297">
         <v>0</v>
@@ -23429,8 +24024,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A297,Mechanisms!B:B,0)-1,0))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T297" t="str">
+        <f>VLOOKUP(A297,Mechanisms!B:C,2,FALSE)</f>
+        <v>Regulatory Compliance (DID assurance)</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>87</v>
       </c>
@@ -23455,8 +24054,8 @@
       <c r="H298">
         <v>1</v>
       </c>
-      <c r="I298">
-        <v>0</v>
+      <c r="I298" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J298">
         <v>0</v>
@@ -23473,8 +24072,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A298,Mechanisms!B:B,0)-1,0))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T298" t="str">
+        <f>VLOOKUP(A298,Mechanisms!B:C,2,FALSE)</f>
+        <v>Regulatory Compliance (DID assurance)</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>87</v>
       </c>
@@ -23496,8 +24099,8 @@
       <c r="H299">
         <v>1</v>
       </c>
-      <c r="I299">
-        <v>0</v>
+      <c r="I299" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J299">
         <v>0</v>
@@ -23514,8 +24117,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A299,Mechanisms!B:B,0)-1,0))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T299" t="str">
+        <f>VLOOKUP(A299,Mechanisms!B:C,2,FALSE)</f>
+        <v>Regulatory Compliance (DID assurance)</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>87</v>
       </c>
@@ -23537,8 +24144,8 @@
       <c r="H300">
         <v>1</v>
       </c>
-      <c r="I300">
-        <v>0</v>
+      <c r="I300" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J300">
         <v>0</v>
@@ -23555,8 +24162,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A300,Mechanisms!B:B,0)-1,0))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T300" t="str">
+        <f>VLOOKUP(A300,Mechanisms!B:C,2,FALSE)</f>
+        <v>Regulatory Compliance (DID assurance)</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>87</v>
       </c>
@@ -23581,8 +24192,8 @@
       <c r="H301">
         <v>1</v>
       </c>
-      <c r="I301">
-        <v>0</v>
+      <c r="I301" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J301">
         <v>0</v>
@@ -23599,8 +24210,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A301,Mechanisms!B:B,0)-1,0))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T301" t="str">
+        <f>VLOOKUP(A301,Mechanisms!B:C,2,FALSE)</f>
+        <v>Regulatory Compliance (DID assurance)</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>87</v>
       </c>
@@ -23625,8 +24240,8 @@
       <c r="H302">
         <v>1</v>
       </c>
-      <c r="I302">
-        <v>0</v>
+      <c r="I302" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J302">
         <v>0</v>
@@ -23643,8 +24258,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A302,Mechanisms!B:B,0)-1,0))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T302" t="str">
+        <f>VLOOKUP(A302,Mechanisms!B:C,2,FALSE)</f>
+        <v>Regulatory Compliance (DID assurance)</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>124</v>
       </c>
@@ -23669,8 +24288,8 @@
       <c r="H303">
         <v>1</v>
       </c>
-      <c r="I303">
-        <v>0</v>
+      <c r="I303" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J303">
         <v>0</v>
@@ -23694,7 +24313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>124</v>
       </c>
@@ -23716,8 +24335,8 @@
       <c r="H304">
         <v>1</v>
       </c>
-      <c r="I304">
-        <v>0</v>
+      <c r="I304" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J304">
         <v>0</v>
@@ -23741,7 +24360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>124</v>
       </c>
@@ -23763,8 +24382,8 @@
       <c r="H305">
         <v>1</v>
       </c>
-      <c r="I305">
-        <v>0</v>
+      <c r="I305" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J305">
         <v>0</v>
@@ -23788,7 +24407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>124</v>
       </c>
@@ -23813,8 +24432,8 @@
       <c r="H306">
         <v>1</v>
       </c>
-      <c r="I306">
-        <v>0</v>
+      <c r="I306" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J306">
         <v>0</v>
@@ -23838,7 +24457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>124</v>
       </c>
@@ -23860,8 +24479,8 @@
       <c r="H307">
         <v>1</v>
       </c>
-      <c r="I307">
-        <v>0</v>
+      <c r="I307" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J307">
         <v>0</v>
@@ -23885,7 +24504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>124</v>
       </c>
@@ -23907,8 +24526,8 @@
       <c r="H308">
         <v>1</v>
       </c>
-      <c r="I308">
-        <v>0</v>
+      <c r="I308" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J308">
         <v>0</v>
@@ -23932,7 +24551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>124</v>
       </c>
@@ -23954,8 +24573,8 @@
       <c r="H309">
         <v>1</v>
       </c>
-      <c r="I309">
-        <v>0</v>
+      <c r="I309" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J309">
         <v>0</v>
@@ -23979,7 +24598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>124</v>
       </c>
@@ -24001,8 +24620,8 @@
       <c r="H310">
         <v>1</v>
       </c>
-      <c r="I310">
-        <v>0</v>
+      <c r="I310" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J310">
         <v>0</v>
@@ -24026,7 +24645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>124</v>
       </c>
@@ -24048,8 +24667,8 @@
       <c r="H311">
         <v>1</v>
       </c>
-      <c r="I311">
-        <v>0</v>
+      <c r="I311" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J311">
         <v>0</v>
@@ -24073,7 +24692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>124</v>
       </c>
@@ -24098,8 +24717,8 @@
       <c r="H312">
         <v>1</v>
       </c>
-      <c r="I312">
-        <v>0</v>
+      <c r="I312" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J312">
         <v>0</v>
@@ -24122,8 +24741,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A312,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T312" t="str">
+        <f>VLOOKUP(A312,Mechanisms!B:C,2,FALSE)</f>
+        <v>Risk Response</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>124</v>
       </c>
@@ -24148,8 +24771,8 @@
       <c r="H313">
         <v>1</v>
       </c>
-      <c r="I313">
-        <v>0</v>
+      <c r="I313" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J313">
         <v>0</v>
@@ -24172,8 +24795,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A313,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T313" t="str">
+        <f>VLOOKUP(A313,Mechanisms!B:C,2,FALSE)</f>
+        <v>Risk Response</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>124</v>
       </c>
@@ -24198,8 +24825,8 @@
       <c r="H314">
         <v>1</v>
       </c>
-      <c r="I314">
-        <v>0</v>
+      <c r="I314" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J314">
         <v>0</v>
@@ -24222,8 +24849,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A314,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T314" t="str">
+        <f>VLOOKUP(A314,Mechanisms!B:C,2,FALSE)</f>
+        <v>Risk Response</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>124</v>
       </c>
@@ -24248,8 +24879,8 @@
       <c r="H315">
         <v>1</v>
       </c>
-      <c r="I315">
-        <v>0</v>
+      <c r="I315" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J315">
         <v>0</v>
@@ -24272,8 +24903,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A315,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T315" t="str">
+        <f>VLOOKUP(A315,Mechanisms!B:C,2,FALSE)</f>
+        <v>Risk Response</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>124</v>
       </c>
@@ -24295,8 +24930,8 @@
       <c r="H316">
         <v>1</v>
       </c>
-      <c r="I316">
-        <v>0</v>
+      <c r="I316" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J316">
         <v>0</v>
@@ -24319,8 +24954,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A316,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T316" t="str">
+        <f>VLOOKUP(A316,Mechanisms!B:C,2,FALSE)</f>
+        <v>Risk Response</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>124</v>
       </c>
@@ -24342,8 +24981,8 @@
       <c r="H317">
         <v>1</v>
       </c>
-      <c r="I317">
-        <v>0</v>
+      <c r="I317" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J317">
         <v>0</v>
@@ -24366,8 +25005,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A317,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T317" t="str">
+        <f>VLOOKUP(A317,Mechanisms!B:C,2,FALSE)</f>
+        <v>Risk Response</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>124</v>
       </c>
@@ -24389,8 +25032,8 @@
       <c r="H318">
         <v>1</v>
       </c>
-      <c r="I318">
-        <v>0</v>
+      <c r="I318" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J318">
         <v>0</v>
@@ -24413,8 +25056,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A318,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T318" t="str">
+        <f>VLOOKUP(A318,Mechanisms!B:C,2,FALSE)</f>
+        <v>Risk Response</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>124</v>
       </c>
@@ -24427,7 +25074,7 @@
       <c r="D319" t="s">
         <v>386</v>
       </c>
-      <c r="E319" t="s">
+      <c r="E319" s="10" t="s">
         <v>1134</v>
       </c>
       <c r="F319" t="s">
@@ -24436,8 +25083,8 @@
       <c r="H319">
         <v>1</v>
       </c>
-      <c r="I319">
-        <v>0</v>
+      <c r="I319" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J319">
         <v>0</v>
@@ -24460,8 +25107,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A319,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T319" t="str">
+        <f>VLOOKUP(A319,Mechanisms!B:C,2,FALSE)</f>
+        <v>Risk Response</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>124</v>
       </c>
@@ -24483,8 +25134,8 @@
       <c r="H320">
         <v>1</v>
       </c>
-      <c r="I320">
-        <v>0</v>
+      <c r="I320" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J320">
         <v>0</v>
@@ -24507,8 +25158,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A320,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T320" t="str">
+        <f>VLOOKUP(A320,Mechanisms!B:C,2,FALSE)</f>
+        <v>Risk Response</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>29</v>
       </c>
@@ -24530,8 +25185,8 @@
       <c r="H321">
         <v>1</v>
       </c>
-      <c r="I321">
-        <v>0</v>
+      <c r="I321" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J321">
         <v>0</v>
@@ -24558,7 +25213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>29</v>
       </c>
@@ -24580,8 +25235,8 @@
       <c r="H322">
         <v>1</v>
       </c>
-      <c r="I322">
-        <v>0</v>
+      <c r="I322" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J322">
         <v>0</v>
@@ -24608,7 +25263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>29</v>
       </c>
@@ -24630,8 +25285,8 @@
       <c r="H323">
         <v>1</v>
       </c>
-      <c r="I323">
-        <v>0</v>
+      <c r="I323" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J323">
         <v>0</v>
@@ -24658,7 +25313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>29</v>
       </c>
@@ -24683,8 +25338,8 @@
       <c r="H324">
         <v>1</v>
       </c>
-      <c r="I324">
-        <v>0</v>
+      <c r="I324" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J324">
         <v>0</v>
@@ -24711,7 +25366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>29</v>
       </c>
@@ -24736,8 +25391,8 @@
       <c r="H325">
         <v>1</v>
       </c>
-      <c r="I325">
-        <v>0</v>
+      <c r="I325" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J325">
         <v>0</v>
@@ -24764,7 +25419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>29</v>
       </c>
@@ -24789,8 +25444,8 @@
       <c r="H326">
         <v>1</v>
       </c>
-      <c r="I326">
-        <v>0</v>
+      <c r="I326" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J326">
         <v>0</v>
@@ -24817,7 +25472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>29</v>
       </c>
@@ -24842,8 +25497,8 @@
       <c r="H327">
         <v>1</v>
       </c>
-      <c r="I327">
-        <v>0</v>
+      <c r="I327" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J327">
         <v>0</v>
@@ -24870,7 +25525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>29</v>
       </c>
@@ -24892,8 +25547,8 @@
       <c r="H328">
         <v>1</v>
       </c>
-      <c r="I328">
-        <v>0</v>
+      <c r="I328" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J328">
         <v>0</v>
@@ -24920,7 +25575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>29</v>
       </c>
@@ -24942,8 +25597,8 @@
       <c r="H329">
         <v>1</v>
       </c>
-      <c r="I329">
-        <v>0</v>
+      <c r="I329" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J329">
         <v>0</v>
@@ -24970,7 +25625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>29</v>
       </c>
@@ -24992,8 +25647,8 @@
       <c r="H330">
         <v>1</v>
       </c>
-      <c r="I330">
-        <v>0</v>
+      <c r="I330" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J330">
         <v>0</v>
@@ -25020,7 +25675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>29</v>
       </c>
@@ -25045,8 +25700,8 @@
       <c r="H331">
         <v>1</v>
       </c>
-      <c r="I331">
-        <v>0</v>
+      <c r="I331" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J331">
         <v>0</v>
@@ -25069,8 +25724,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A331,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T331" t="str">
+        <f>VLOOKUP(A331,Mechanisms!B:C,2,FALSE)</f>
+        <v>Security Assessment and Auditing (SAA)</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>38</v>
       </c>
@@ -25092,8 +25751,8 @@
       <c r="H332">
         <v>1</v>
       </c>
-      <c r="I332">
-        <v>0</v>
+      <c r="I332" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J332">
         <v>0</v>
@@ -25116,8 +25775,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A332,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T332" t="str">
+        <f>VLOOKUP(A332,Mechanisms!B:C,2,FALSE)</f>
+        <v>Authentication-Authorisation-Accounting (AAA)</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>38</v>
       </c>
@@ -25139,8 +25802,8 @@
       <c r="H333">
         <v>1</v>
       </c>
-      <c r="I333">
-        <v>0</v>
+      <c r="I333" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J333">
         <v>0</v>
@@ -25163,8 +25826,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A333,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T333" t="str">
+        <f>VLOOKUP(A333,Mechanisms!B:C,2,FALSE)</f>
+        <v>Authentication-Authorisation-Accounting (AAA)</v>
+      </c>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>38</v>
       </c>
@@ -25177,7 +25844,7 @@
       <c r="D334" t="s">
         <v>386</v>
       </c>
-      <c r="E334" t="s">
+      <c r="E334" s="10" t="s">
         <v>1177</v>
       </c>
       <c r="F334" t="s">
@@ -25189,8 +25856,8 @@
       <c r="H334">
         <v>1</v>
       </c>
-      <c r="I334">
-        <v>0</v>
+      <c r="I334" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J334">
         <v>0</v>
@@ -25213,8 +25880,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A334,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T334" t="str">
+        <f>VLOOKUP(A334,Mechanisms!B:C,2,FALSE)</f>
+        <v>Authentication-Authorisation-Accounting (AAA)</v>
+      </c>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>38</v>
       </c>
@@ -25239,8 +25910,8 @@
       <c r="H335">
         <v>1</v>
       </c>
-      <c r="I335">
-        <v>0</v>
+      <c r="I335" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J335">
         <v>0</v>
@@ -25263,8 +25934,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A335,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T335" t="str">
+        <f>VLOOKUP(A335,Mechanisms!B:C,2,FALSE)</f>
+        <v>Authentication-Authorisation-Accounting (AAA)</v>
+      </c>
+    </row>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>38</v>
       </c>
@@ -25289,8 +25964,8 @@
       <c r="H336">
         <v>1</v>
       </c>
-      <c r="I336">
-        <v>0</v>
+      <c r="I336" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J336">
         <v>0</v>
@@ -25313,8 +25988,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A336,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T336" t="str">
+        <f>VLOOKUP(A336,Mechanisms!B:C,2,FALSE)</f>
+        <v>Authentication-Authorisation-Accounting (AAA)</v>
+      </c>
+    </row>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>38</v>
       </c>
@@ -25339,8 +26018,8 @@
       <c r="H337">
         <v>1</v>
       </c>
-      <c r="I337">
-        <v>0</v>
+      <c r="I337" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J337">
         <v>0</v>
@@ -25363,8 +26042,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A337,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T337" t="str">
+        <f>VLOOKUP(A337,Mechanisms!B:C,2,FALSE)</f>
+        <v>Authentication-Authorisation-Accounting (AAA)</v>
+      </c>
+    </row>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>38</v>
       </c>
@@ -25386,8 +26069,8 @@
       <c r="H338">
         <v>1</v>
       </c>
-      <c r="I338">
-        <v>0</v>
+      <c r="I338" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J338">
         <v>0</v>
@@ -25410,8 +26093,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A338,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T338" t="str">
+        <f>VLOOKUP(A338,Mechanisms!B:C,2,FALSE)</f>
+        <v>Authentication-Authorisation-Accounting (AAA)</v>
+      </c>
+    </row>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>29</v>
       </c>
@@ -25436,8 +26123,8 @@
       <c r="H339">
         <v>1</v>
       </c>
-      <c r="I339">
-        <v>0</v>
+      <c r="I339" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J339">
         <v>0</v>
@@ -25460,8 +26147,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A339,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T339" t="str">
+        <f>VLOOKUP(A339,Mechanisms!B:C,2,FALSE)</f>
+        <v>Security Assessment and Auditing (SAA)</v>
+      </c>
+    </row>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>38</v>
       </c>
@@ -25474,7 +26165,7 @@
       <c r="D340" t="s">
         <v>386</v>
       </c>
-      <c r="E340" t="s">
+      <c r="E340" s="10" t="s">
         <v>1194</v>
       </c>
       <c r="F340" t="s">
@@ -25486,8 +26177,8 @@
       <c r="H340">
         <v>1</v>
       </c>
-      <c r="I340">
-        <v>0</v>
+      <c r="I340" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J340">
         <v>0</v>
@@ -25510,8 +26201,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A340,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T340" t="str">
+        <f>VLOOKUP(A340,Mechanisms!B:C,2,FALSE)</f>
+        <v>Authentication-Authorisation-Accounting (AAA)</v>
+      </c>
+    </row>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>38</v>
       </c>
@@ -25533,8 +26228,8 @@
       <c r="H341">
         <v>1</v>
       </c>
-      <c r="I341">
-        <v>0</v>
+      <c r="I341" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J341">
         <v>0</v>
@@ -25557,8 +26252,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A341,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="342" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="T341" t="str">
+        <f>VLOOKUP(A341,Mechanisms!B:C,2,FALSE)</f>
+        <v>Authentication-Authorisation-Accounting (AAA)</v>
+      </c>
+    </row>
+    <row r="342" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>38</v>
       </c>
@@ -25581,8 +26280,8 @@
       <c r="H342">
         <v>1</v>
       </c>
-      <c r="I342">
-        <v>0</v>
+      <c r="I342" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J342">
         <v>0</v>
@@ -25605,8 +26304,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A342,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T342" t="str">
+        <f>VLOOKUP(A342,Mechanisms!B:C,2,FALSE)</f>
+        <v>Authentication-Authorisation-Accounting (AAA)</v>
+      </c>
+    </row>
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>29</v>
       </c>
@@ -25619,7 +26322,7 @@
       <c r="D343" t="s">
         <v>386</v>
       </c>
-      <c r="E343" t="s">
+      <c r="E343" s="10" t="s">
         <v>1204</v>
       </c>
       <c r="F343" t="s">
@@ -25628,8 +26331,8 @@
       <c r="H343">
         <v>1</v>
       </c>
-      <c r="I343">
-        <v>0</v>
+      <c r="I343" s="9" t="s">
+        <v>1923</v>
       </c>
       <c r="J343">
         <v>0</v>
@@ -25652,8 +26355,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A343,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T343" t="str">
+        <f>VLOOKUP(A343,Mechanisms!B:C,2,FALSE)</f>
+        <v>Security Assessment and Auditing (SAA)</v>
+      </c>
+    </row>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>29</v>
       </c>
@@ -25666,7 +26373,7 @@
       <c r="D344" t="s">
         <v>386</v>
       </c>
-      <c r="E344" t="s">
+      <c r="E344" s="10" t="s">
         <v>1206</v>
       </c>
       <c r="F344" t="s">
@@ -25675,8 +26382,8 @@
       <c r="H344">
         <v>1</v>
       </c>
-      <c r="I344">
-        <v>0</v>
+      <c r="I344" s="9" t="s">
+        <v>1923</v>
       </c>
       <c r="J344">
         <v>0</v>
@@ -25699,8 +26406,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A344,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T344" t="str">
+        <f>VLOOKUP(A344,Mechanisms!B:C,2,FALSE)</f>
+        <v>Security Assessment and Auditing (SAA)</v>
+      </c>
+    </row>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>38</v>
       </c>
@@ -25722,8 +26433,8 @@
       <c r="H345">
         <v>1</v>
       </c>
-      <c r="I345">
-        <v>0</v>
+      <c r="I345" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J345">
         <v>0</v>
@@ -25746,8 +26457,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A345,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T345" t="str">
+        <f>VLOOKUP(A345,Mechanisms!B:C,2,FALSE)</f>
+        <v>Authentication-Authorisation-Accounting (AAA)</v>
+      </c>
+    </row>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>132</v>
       </c>
@@ -25769,8 +26484,8 @@
       <c r="H346">
         <v>1</v>
       </c>
-      <c r="I346">
-        <v>0</v>
+      <c r="I346" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J346">
         <v>0</v>
@@ -25794,7 +26509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>132</v>
       </c>
@@ -25816,8 +26531,8 @@
       <c r="H347">
         <v>1</v>
       </c>
-      <c r="I347">
-        <v>0</v>
+      <c r="I347" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J347">
         <v>0</v>
@@ -25841,7 +26556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>132</v>
       </c>
@@ -25866,8 +26581,8 @@
       <c r="H348">
         <v>1</v>
       </c>
-      <c r="I348">
-        <v>0</v>
+      <c r="I348" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J348">
         <v>0</v>
@@ -25891,7 +26606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>132</v>
       </c>
@@ -25916,8 +26631,8 @@
       <c r="H349">
         <v>1</v>
       </c>
-      <c r="I349">
-        <v>0</v>
+      <c r="I349" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J349">
         <v>0</v>
@@ -25941,7 +26656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>132</v>
       </c>
@@ -25966,8 +26681,8 @@
       <c r="H350">
         <v>1</v>
       </c>
-      <c r="I350">
-        <v>0</v>
+      <c r="I350" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J350">
         <v>0</v>
@@ -25991,7 +26706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>132</v>
       </c>
@@ -26016,8 +26731,8 @@
       <c r="H351">
         <v>1</v>
       </c>
-      <c r="I351">
-        <v>0</v>
+      <c r="I351" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J351">
         <v>0</v>
@@ -26041,7 +26756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>132</v>
       </c>
@@ -26066,8 +26781,8 @@
       <c r="H352">
         <v>1</v>
       </c>
-      <c r="I352">
-        <v>0</v>
+      <c r="I352" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J352">
         <v>0</v>
@@ -26091,7 +26806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>132</v>
       </c>
@@ -26116,8 +26831,8 @@
       <c r="H353">
         <v>1</v>
       </c>
-      <c r="I353">
-        <v>0</v>
+      <c r="I353" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J353">
         <v>0</v>
@@ -26141,7 +26856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>132</v>
       </c>
@@ -26163,8 +26878,8 @@
       <c r="H354">
         <v>1</v>
       </c>
-      <c r="I354">
-        <v>0</v>
+      <c r="I354" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J354">
         <v>0</v>
@@ -26187,8 +26902,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A354,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T354" t="str">
+        <f>VLOOKUP(A354,Mechanisms!B:C,2,FALSE)</f>
+        <v>Systems &amp; Communications Protection</v>
+      </c>
+    </row>
+    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>132</v>
       </c>
@@ -26213,8 +26932,8 @@
       <c r="H355">
         <v>1</v>
       </c>
-      <c r="I355">
-        <v>0</v>
+      <c r="I355" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J355">
         <v>0</v>
@@ -26237,8 +26956,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A355,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T355" t="str">
+        <f>VLOOKUP(A355,Mechanisms!B:C,2,FALSE)</f>
+        <v>Systems &amp; Communications Protection</v>
+      </c>
+    </row>
+    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>132</v>
       </c>
@@ -26263,8 +26986,8 @@
       <c r="H356">
         <v>1</v>
       </c>
-      <c r="I356">
-        <v>0</v>
+      <c r="I356" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J356">
         <v>0</v>
@@ -26287,8 +27010,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A356,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T356" t="str">
+        <f>VLOOKUP(A356,Mechanisms!B:C,2,FALSE)</f>
+        <v>Systems &amp; Communications Protection</v>
+      </c>
+    </row>
+    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>132</v>
       </c>
@@ -26313,8 +27040,8 @@
       <c r="H357">
         <v>1</v>
       </c>
-      <c r="I357">
-        <v>0</v>
+      <c r="I357" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J357">
         <v>0</v>
@@ -26337,8 +27064,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A357,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T357" t="str">
+        <f>VLOOKUP(A357,Mechanisms!B:C,2,FALSE)</f>
+        <v>Systems &amp; Communications Protection</v>
+      </c>
+    </row>
+    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>132</v>
       </c>
@@ -26363,8 +27094,8 @@
       <c r="H358">
         <v>1</v>
       </c>
-      <c r="I358">
-        <v>0</v>
+      <c r="I358" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J358">
         <v>0</v>
@@ -26387,8 +27118,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A358,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T358" t="str">
+        <f>VLOOKUP(A358,Mechanisms!B:C,2,FALSE)</f>
+        <v>Systems &amp; Communications Protection</v>
+      </c>
+    </row>
+    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>132</v>
       </c>
@@ -26410,8 +27145,8 @@
       <c r="H359">
         <v>1</v>
       </c>
-      <c r="I359">
-        <v>0</v>
+      <c r="I359" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J359">
         <v>0</v>
@@ -26434,8 +27169,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A359,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T359" t="str">
+        <f>VLOOKUP(A359,Mechanisms!B:C,2,FALSE)</f>
+        <v>Systems &amp; Communications Protection</v>
+      </c>
+    </row>
+    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>132</v>
       </c>
@@ -26448,7 +27187,7 @@
       <c r="D360" t="s">
         <v>386</v>
       </c>
-      <c r="E360" t="s">
+      <c r="E360" s="10" t="s">
         <v>1246</v>
       </c>
       <c r="F360" t="s">
@@ -26457,8 +27196,8 @@
       <c r="H360">
         <v>1</v>
       </c>
-      <c r="I360">
-        <v>0</v>
+      <c r="I360" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J360">
         <v>0</v>
@@ -26481,8 +27220,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A360,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T360" t="str">
+        <f>VLOOKUP(A360,Mechanisms!B:C,2,FALSE)</f>
+        <v>Systems &amp; Communications Protection</v>
+      </c>
+    </row>
+    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>132</v>
       </c>
@@ -26504,8 +27247,8 @@
       <c r="H361">
         <v>1</v>
       </c>
-      <c r="I361">
-        <v>0</v>
+      <c r="I361" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J361">
         <v>0</v>
@@ -26528,8 +27271,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A361,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T361" t="str">
+        <f>VLOOKUP(A361,Mechanisms!B:C,2,FALSE)</f>
+        <v>Systems &amp; Communications Protection</v>
+      </c>
+    </row>
+    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>132</v>
       </c>
@@ -26554,8 +27301,8 @@
       <c r="H362">
         <v>1</v>
       </c>
-      <c r="I362">
-        <v>0</v>
+      <c r="I362" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J362">
         <v>0</v>
@@ -26578,8 +27325,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A362,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T362" t="str">
+        <f>VLOOKUP(A362,Mechanisms!B:C,2,FALSE)</f>
+        <v>Systems &amp; Communications Protection</v>
+      </c>
+    </row>
+    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>132</v>
       </c>
@@ -26601,8 +27352,8 @@
       <c r="H363">
         <v>1</v>
       </c>
-      <c r="I363">
-        <v>0</v>
+      <c r="I363" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J363">
         <v>0</v>
@@ -26625,8 +27376,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A363,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T363" t="str">
+        <f>VLOOKUP(A363,Mechanisms!B:C,2,FALSE)</f>
+        <v>Systems &amp; Communications Protection</v>
+      </c>
+    </row>
+    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>132</v>
       </c>
@@ -26648,8 +27403,8 @@
       <c r="H364">
         <v>1</v>
       </c>
-      <c r="I364">
-        <v>0</v>
+      <c r="I364" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J364">
         <v>0</v>
@@ -26672,8 +27427,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A364,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T364" t="str">
+        <f>VLOOKUP(A364,Mechanisms!B:C,2,FALSE)</f>
+        <v>Systems &amp; Communications Protection</v>
+      </c>
+    </row>
+    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>132</v>
       </c>
@@ -26695,8 +27454,8 @@
       <c r="H365">
         <v>1</v>
       </c>
-      <c r="I365">
-        <v>0</v>
+      <c r="I365" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J365">
         <v>0</v>
@@ -26719,8 +27478,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A365,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T365" t="str">
+        <f>VLOOKUP(A365,Mechanisms!B:C,2,FALSE)</f>
+        <v>Systems &amp; Communications Protection</v>
+      </c>
+    </row>
+    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>47</v>
       </c>
@@ -26742,8 +27505,8 @@
       <c r="H366">
         <v>1</v>
       </c>
-      <c r="I366">
-        <v>0</v>
+      <c r="I366" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J366">
         <v>0</v>
@@ -26767,7 +27530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>47</v>
       </c>
@@ -26789,8 +27552,8 @@
       <c r="H367">
         <v>1</v>
       </c>
-      <c r="I367">
-        <v>0</v>
+      <c r="I367" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J367">
         <v>0</v>
@@ -26814,7 +27577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>47</v>
       </c>
@@ -26836,8 +27599,8 @@
       <c r="H368">
         <v>1</v>
       </c>
-      <c r="I368">
-        <v>0</v>
+      <c r="I368" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J368">
         <v>0</v>
@@ -26861,7 +27624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>47</v>
       </c>
@@ -26883,8 +27646,8 @@
       <c r="H369">
         <v>1</v>
       </c>
-      <c r="I369">
-        <v>0</v>
+      <c r="I369" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J369">
         <v>0</v>
@@ -26908,7 +27671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>47</v>
       </c>
@@ -26930,8 +27693,8 @@
       <c r="H370">
         <v>1</v>
       </c>
-      <c r="I370">
-        <v>0</v>
+      <c r="I370" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J370">
         <v>0</v>
@@ -26955,7 +27718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>47</v>
       </c>
@@ -26968,7 +27731,7 @@
       <c r="D371" t="s">
         <v>386</v>
       </c>
-      <c r="E371" t="s">
+      <c r="E371" s="10" t="s">
         <v>1275</v>
       </c>
       <c r="F371" t="s">
@@ -26977,8 +27740,8 @@
       <c r="H371">
         <v>1</v>
       </c>
-      <c r="I371">
-        <v>0</v>
+      <c r="I371" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J371">
         <v>0</v>
@@ -27001,8 +27764,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A371,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T371" t="str">
+        <f>VLOOKUP(A371,Mechanisms!B:C,2,FALSE)</f>
+        <v>SSO, MFA</v>
+      </c>
+    </row>
+    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>47</v>
       </c>
@@ -27024,8 +27791,8 @@
       <c r="H372">
         <v>1</v>
       </c>
-      <c r="I372">
-        <v>0</v>
+      <c r="I372" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J372">
         <v>0</v>
@@ -27048,8 +27815,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A372,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T372" t="str">
+        <f>VLOOKUP(A372,Mechanisms!B:C,2,FALSE)</f>
+        <v>SSO, MFA</v>
+      </c>
+    </row>
+    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>47</v>
       </c>
@@ -27071,8 +27842,8 @@
       <c r="H373">
         <v>1</v>
       </c>
-      <c r="I373">
-        <v>0</v>
+      <c r="I373" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J373">
         <v>0</v>
@@ -27095,8 +27866,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A373,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T373" t="str">
+        <f>VLOOKUP(A373,Mechanisms!B:C,2,FALSE)</f>
+        <v>SSO, MFA</v>
+      </c>
+    </row>
+    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>47</v>
       </c>
@@ -27118,8 +27893,8 @@
       <c r="H374">
         <v>1</v>
       </c>
-      <c r="I374">
-        <v>0</v>
+      <c r="I374" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J374">
         <v>0</v>
@@ -27142,8 +27917,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A374,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T374" t="str">
+        <f>VLOOKUP(A374,Mechanisms!B:C,2,FALSE)</f>
+        <v>SSO, MFA</v>
+      </c>
+    </row>
+    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>116</v>
       </c>
@@ -27165,8 +27944,8 @@
       <c r="H375">
         <v>1</v>
       </c>
-      <c r="I375">
-        <v>0</v>
+      <c r="I375" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J375">
         <v>0</v>
@@ -27190,7 +27969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>116</v>
       </c>
@@ -27212,8 +27991,8 @@
       <c r="H376">
         <v>1</v>
       </c>
-      <c r="I376">
-        <v>0</v>
+      <c r="I376" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J376">
         <v>0</v>
@@ -27237,7 +28016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>116</v>
       </c>
@@ -27259,8 +28038,8 @@
       <c r="H377">
         <v>1</v>
       </c>
-      <c r="I377">
-        <v>0</v>
+      <c r="I377" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J377">
         <v>0</v>
@@ -27284,7 +28063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>116</v>
       </c>
@@ -27306,8 +28085,8 @@
       <c r="H378">
         <v>1</v>
       </c>
-      <c r="I378">
-        <v>0</v>
+      <c r="I378" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J378">
         <v>0</v>
@@ -27326,8 +28105,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A378,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T378" t="str">
+        <f>VLOOKUP(A378,Mechanisms!B:C,2,FALSE)</f>
+        <v>Vulnerability Management</v>
+      </c>
+    </row>
+    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>116</v>
       </c>
@@ -27340,7 +28123,7 @@
       <c r="D379" t="s">
         <v>386</v>
       </c>
-      <c r="E379" t="s">
+      <c r="E379" s="10" t="s">
         <v>1293</v>
       </c>
       <c r="F379" t="s">
@@ -27349,8 +28132,8 @@
       <c r="H379">
         <v>1</v>
       </c>
-      <c r="I379">
-        <v>0</v>
+      <c r="I379" s="9" t="s">
+        <v>1924</v>
       </c>
       <c r="J379">
         <v>0</v>
@@ -27369,8 +28152,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A379,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T379" t="str">
+        <f>VLOOKUP(A379,Mechanisms!B:C,2,FALSE)</f>
+        <v>Vulnerability Management</v>
+      </c>
+    </row>
+    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>116</v>
       </c>
@@ -27392,8 +28179,8 @@
       <c r="H380">
         <v>1</v>
       </c>
-      <c r="I380">
-        <v>0</v>
+      <c r="I380" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J380">
         <v>0</v>
@@ -27412,8 +28199,12 @@
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A380,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T380" t="str">
+        <f>VLOOKUP(A380,Mechanisms!B:C,2,FALSE)</f>
+        <v>Vulnerability Management</v>
+      </c>
+    </row>
+    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>116</v>
       </c>
@@ -27435,8 +28226,8 @@
       <c r="H381">
         <v>1</v>
       </c>
-      <c r="I381">
-        <v>0</v>
+      <c r="I381" s="7" t="s">
+        <v>1921</v>
       </c>
       <c r="J381">
         <v>0</v>
@@ -27454,6 +28245,10 @@
       <c r="Q381">
         <f ca="1">5-COUNTBLANK(OFFSET(Mechanisms!$N$1:$R$1, MATCH(A381,Mechanisms!B:B,0)-1,0))</f>
         <v>3</v>
+      </c>
+      <c r="T381" t="str">
+        <f>VLOOKUP(A381,Mechanisms!B:C,2,FALSE)</f>
+        <v>Vulnerability Management</v>
       </c>
     </row>
   </sheetData>
@@ -47626,12 +48421,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="dd7aa49a-064a-456f-962d-fecf52e7bc47" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47852,17 +48646,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="dd7aa49a-064a-456f-962d-fecf52e7bc47" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C333E94-3822-4FD9-AC3E-39D678C7030D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52C0DD01-18EB-4042-863E-ABF196DEC34A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="dd7aa49a-064a-456f-962d-fecf52e7bc47"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ad6c24f1-153f-4463-b202-cc8a5fbc0802"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -47887,18 +48691,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52C0DD01-18EB-4042-863E-ABF196DEC34A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C333E94-3822-4FD9-AC3E-39D678C7030D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="dd7aa49a-064a-456f-962d-fecf52e7bc47"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ad6c24f1-153f-4463-b202-cc8a5fbc0802"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TF.Module/DatabaseUpdate/TF.xlsx
+++ b/TF.Module/DatabaseUpdate/TF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirko\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D720E68-CE86-4C3F-A827-A5D6B5C21AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CF893B-5561-4E53-9B98-BC98857F7E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="1845" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{802C2848-CF66-C14E-8907-0699AA2D98C9}"/>
+    <workbookView xWindow="2955" yWindow="1845" windowWidth="21600" windowHeight="11295" xr2:uid="{802C2848-CF66-C14E-8907-0699AA2D98C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="6" r:id="rId1"/>
@@ -7603,8 +7603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94436C4-BB3B-4EA9-99CE-53C39ECBC708}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7618,7 +7618,7 @@
         <v>1530</v>
       </c>
       <c r="B1" s="4">
-        <v>45019</v>
+        <v>45030</v>
       </c>
     </row>
   </sheetData>
@@ -9448,7 +9448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9E030-DC72-1242-8D47-8AB6D70A0A27}">
   <dimension ref="A1:U381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
@@ -48421,11 +48421,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="dd7aa49a-064a-456f-962d-fecf52e7bc47" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -48646,27 +48647,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="dd7aa49a-064a-456f-962d-fecf52e7bc47" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52C0DD01-18EB-4042-863E-ABF196DEC34A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C333E94-3822-4FD9-AC3E-39D678C7030D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="dd7aa49a-064a-456f-962d-fecf52e7bc47"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ad6c24f1-153f-4463-b202-cc8a5fbc0802"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -48691,9 +48682,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C333E94-3822-4FD9-AC3E-39D678C7030D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52C0DD01-18EB-4042-863E-ABF196DEC34A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="dd7aa49a-064a-456f-962d-fecf52e7bc47"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ad6c24f1-153f-4463-b202-cc8a5fbc0802"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>